--- a/data/Served Meal Count.xlsx
+++ b/data/Served Meal Count.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Maywood-Garfield" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maywood-Garfield'!$B$1:$B$1007</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maywood-Garfield'!$B$1:$B$996</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -437,11 +437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1007"/>
+  <dimension ref="A1:E996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A248" sqref="A248:XFD248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4564,15 +4564,9 @@
         <f t="shared" si="5"/>
         <v>Saturday</v>
       </c>
-      <c r="C229" s="14">
-        <v>0</v>
-      </c>
-      <c r="D229" s="14">
-        <v>0</v>
-      </c>
-      <c r="E229" s="14">
-        <v>0</v>
-      </c>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
     </row>
     <row r="230" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9">
@@ -4582,15 +4576,9 @@
         <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
-      <c r="C230" s="14">
-        <v>0</v>
-      </c>
-      <c r="D230" s="14">
-        <v>0</v>
-      </c>
-      <c r="E230" s="14">
-        <v>0</v>
-      </c>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
     </row>
     <row r="231" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9">
@@ -4690,15 +4678,9 @@
         <f t="shared" si="5"/>
         <v>Saturday</v>
       </c>
-      <c r="C236" s="14">
-        <v>0</v>
-      </c>
-      <c r="D236" s="14">
-        <v>0</v>
-      </c>
-      <c r="E236" s="14">
-        <v>0</v>
-      </c>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
     </row>
     <row r="237" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9">
@@ -4708,15 +4690,9 @@
         <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
-      <c r="C237" s="14">
-        <v>0</v>
-      </c>
-      <c r="D237" s="14">
-        <v>0</v>
-      </c>
-      <c r="E237" s="14">
-        <v>0</v>
-      </c>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
     </row>
     <row r="238" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9">
@@ -4888,15 +4864,9 @@
         <f t="shared" si="6"/>
         <v>Saturday</v>
       </c>
-      <c r="C247" s="18">
-        <v>30</v>
-      </c>
-      <c r="D247" s="18">
-        <v>33</v>
-      </c>
-      <c r="E247" s="18">
-        <v>0</v>
-      </c>
+      <c r="C247" s="18"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="18"/>
     </row>
     <row r="248" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="9">
@@ -4906,15 +4876,9 @@
         <f t="shared" si="6"/>
         <v>Sunday</v>
       </c>
-      <c r="C248" s="18">
-        <v>31</v>
-      </c>
-      <c r="D248" s="18">
-        <v>32</v>
-      </c>
-      <c r="E248" s="18">
-        <v>0</v>
-      </c>
+      <c r="C248" s="18"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="18"/>
     </row>
     <row r="249" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="9">
@@ -4997,10 +4961,10 @@
         <v>Friday</v>
       </c>
       <c r="C253" s="18">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D253" s="18">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="E253" s="18">
         <v>0</v>
@@ -5014,15 +4978,9 @@
         <f t="shared" si="6"/>
         <v>Saturday</v>
       </c>
-      <c r="C254" s="18">
-        <v>30</v>
-      </c>
-      <c r="D254" s="18">
-        <v>35</v>
-      </c>
-      <c r="E254" s="18">
-        <v>0</v>
-      </c>
+      <c r="C254" s="18"/>
+      <c r="D254" s="18"/>
+      <c r="E254" s="18"/>
     </row>
     <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9">
@@ -5032,15 +4990,9 @@
         <f t="shared" si="6"/>
         <v>Sunday</v>
       </c>
-      <c r="C255" s="18">
-        <v>40</v>
-      </c>
-      <c r="D255" s="18">
-        <v>36</v>
-      </c>
-      <c r="E255" s="18">
-        <v>0</v>
-      </c>
+      <c r="C255" s="18"/>
+      <c r="D255" s="18"/>
+      <c r="E255" s="18"/>
     </row>
     <row r="256" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="9">
@@ -5051,10 +5003,10 @@
         <v>Monday</v>
       </c>
       <c r="C256" s="18">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D256" s="18">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E256" s="18">
         <v>0</v>
@@ -5065,216 +5017,73 @@
         <v>45524</v>
       </c>
       <c r="B257" s="5" t="str">
-        <f t="shared" ref="B257:B266" si="7">TEXT(A257, "dddd")</f>
+        <f t="shared" ref="B257" si="7">TEXT(A257, "dddd")</f>
         <v>Tuesday</v>
       </c>
       <c r="C257" s="18">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D257" s="18">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E257" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="9">
-        <v>45525</v>
-      </c>
-      <c r="B258" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Wednesday</v>
-      </c>
-      <c r="C258" s="18">
-        <v>35</v>
-      </c>
-      <c r="D258" s="18">
-        <v>40</v>
-      </c>
-      <c r="E258" s="18">
-        <v>0</v>
-      </c>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="9">
-        <v>45526</v>
-      </c>
-      <c r="B259" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Thursday</v>
-      </c>
-      <c r="C259" s="18">
-        <v>41</v>
-      </c>
-      <c r="D259" s="18">
-        <v>45</v>
-      </c>
-      <c r="E259" s="18">
-        <v>0</v>
-      </c>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="9">
-        <v>45527</v>
-      </c>
-      <c r="B260" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Friday</v>
-      </c>
-      <c r="C260" s="18">
-        <v>40</v>
-      </c>
-      <c r="D260" s="18">
-        <v>41</v>
-      </c>
-      <c r="E260" s="18">
-        <v>0</v>
-      </c>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="9">
-        <v>45528</v>
-      </c>
-      <c r="B261" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Saturday</v>
-      </c>
-      <c r="C261" s="18">
-        <v>42</v>
-      </c>
-      <c r="D261" s="18">
-        <v>45</v>
-      </c>
-      <c r="E261" s="18">
-        <v>0</v>
-      </c>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="9">
-        <v>45529</v>
-      </c>
-      <c r="B262" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C262" s="18">
-        <v>39</v>
-      </c>
-      <c r="D262" s="18">
-        <v>40</v>
-      </c>
-      <c r="E262" s="18">
-        <v>0</v>
-      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="9">
-        <v>45530</v>
-      </c>
-      <c r="B263" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Monday</v>
-      </c>
-      <c r="C263" s="18">
-        <v>65</v>
-      </c>
-      <c r="D263" s="18">
-        <v>77</v>
-      </c>
-      <c r="E263" s="18">
-        <v>0</v>
-      </c>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="9">
-        <v>45531</v>
-      </c>
-      <c r="B264" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C264" s="18">
-        <v>66</v>
-      </c>
-      <c r="D264" s="18">
-        <v>80</v>
-      </c>
-      <c r="E264" s="18">
-        <v>0</v>
-      </c>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="9">
-        <v>45532</v>
-      </c>
-      <c r="B265" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Wednesday</v>
-      </c>
-      <c r="C265" s="18">
-        <v>70</v>
-      </c>
-      <c r="D265" s="18">
-        <v>72</v>
-      </c>
-      <c r="E265" s="18">
-        <v>0</v>
-      </c>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="9">
-        <v>45533</v>
-      </c>
-      <c r="B266" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Thursday</v>
-      </c>
-      <c r="C266" s="18">
-        <v>71</v>
-      </c>
-      <c r="D266" s="18">
-        <v>75</v>
-      </c>
-      <c r="E266" s="18">
-        <v>0</v>
-      </c>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="9">
-        <v>45534</v>
-      </c>
-      <c r="B267" s="5" t="str">
-        <f>TEXT(A267, "dddd")</f>
-        <v>Friday</v>
-      </c>
-      <c r="C267" s="18">
-        <v>68</v>
-      </c>
-      <c r="D267" s="18">
-        <v>75</v>
-      </c>
-      <c r="E267" s="18">
-        <v>0</v>
-      </c>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="9">
-        <v>45535</v>
-      </c>
-      <c r="B268" s="5" t="str">
-        <f>TEXT(A268, "dddd")</f>
-        <v>Saturday</v>
-      </c>
-      <c r="C268" s="18">
-        <v>75</v>
-      </c>
-      <c r="D268" s="18">
-        <v>78</v>
-      </c>
-      <c r="E268" s="18">
-        <v>0</v>
-      </c>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C269" s="2"/>
@@ -8916,65 +8725,10 @@
       <c r="D996" s="2"/>
       <c r="E996" s="2"/>
     </row>
-    <row r="997" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-    </row>
-    <row r="998" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-    </row>
-    <row r="999" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-    </row>
-    <row r="1000" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-    </row>
-    <row r="1001" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-    </row>
-    <row r="1002" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1002" s="2"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="2"/>
-    </row>
-    <row r="1003" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1003" s="2"/>
-      <c r="D1003" s="2"/>
-      <c r="E1003" s="2"/>
-    </row>
-    <row r="1004" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1004" s="2"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="2"/>
-    </row>
-    <row r="1005" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1005" s="2"/>
-      <c r="D1005" s="2"/>
-      <c r="E1005" s="2"/>
-    </row>
-    <row r="1006" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1006" s="2"/>
-      <c r="D1006" s="2"/>
-      <c r="E1006" s="2"/>
-    </row>
-    <row r="1007" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1007" s="2"/>
-      <c r="D1007" s="2"/>
-      <c r="E1007" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:B1007"/>
+  <autoFilter ref="B1:B996"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Served Meal Count.xlsx
+++ b/data/Served Meal Count.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\company\project\MLDS_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7101F94-681B-447B-B6BC-17C6142432BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="2580" windowWidth="19200" windowHeight="12972"/>
+    <workbookView xWindow="-24" yWindow="1296" windowWidth="15288" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maywood-Garfield" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maywood-Garfield'!$B$1:$B$996</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -87,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,12 +121,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -200,27 +195,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,17 +428,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A248" sqref="A248:XFD248"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G261" sqref="G261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
@@ -454,16 +446,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -471,7 +463,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45159</v>
       </c>
       <c r="B2" t="str">
@@ -489,7 +481,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45160</v>
       </c>
       <c r="B3" t="str">
@@ -507,7 +499,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45161</v>
       </c>
       <c r="B4" t="str">
@@ -525,7 +517,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45162</v>
       </c>
       <c r="B5" t="str">
@@ -543,7 +535,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45163</v>
       </c>
       <c r="B6" t="str">
@@ -561,7 +553,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45166</v>
       </c>
       <c r="B7" t="str">
@@ -579,7 +571,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45167</v>
       </c>
       <c r="B8" t="str">
@@ -597,7 +589,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45168</v>
       </c>
       <c r="B9" t="str">
@@ -615,7 +607,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45169</v>
       </c>
       <c r="B10" t="str">
@@ -632,11 +624,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>45170</v>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -651,7 +643,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45174</v>
       </c>
       <c r="B12" t="str">
@@ -669,7 +661,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45175</v>
       </c>
       <c r="B13" t="str">
@@ -687,7 +679,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45176</v>
       </c>
       <c r="B14" t="str">
@@ -705,7 +697,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45177</v>
       </c>
       <c r="B15" t="str">
@@ -723,7 +715,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45180</v>
       </c>
       <c r="B16" t="str">
@@ -741,7 +733,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45181</v>
       </c>
       <c r="B17" t="str">
@@ -759,7 +751,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45182</v>
       </c>
       <c r="B18" t="str">
@@ -777,7 +769,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45183</v>
       </c>
       <c r="B19" t="str">
@@ -795,7 +787,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45184</v>
       </c>
       <c r="B20" t="str">
@@ -813,7 +805,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>45187</v>
       </c>
       <c r="B21" t="str">
@@ -831,7 +823,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>45188</v>
       </c>
       <c r="B22" t="str">
@@ -849,7 +841,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>45189</v>
       </c>
       <c r="B23" t="str">
@@ -867,7 +859,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>45190</v>
       </c>
       <c r="B24" t="str">
@@ -885,7 +877,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>45191</v>
       </c>
       <c r="B25" t="str">
@@ -903,7 +895,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>45194</v>
       </c>
       <c r="B26" t="str">
@@ -921,7 +913,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>45195</v>
       </c>
       <c r="B27" t="str">
@@ -939,7 +931,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>45196</v>
       </c>
       <c r="B28" t="str">
@@ -957,7 +949,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>45197</v>
       </c>
       <c r="B29" t="str">
@@ -975,7 +967,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>45198</v>
       </c>
       <c r="B30" t="str">
@@ -992,11 +984,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
         <v>45201</v>
       </c>
-      <c r="B31" s="11" t="str">
+      <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
@@ -1011,7 +1003,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>45202</v>
       </c>
       <c r="B32" t="str">
@@ -1029,7 +1021,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>45203</v>
       </c>
       <c r="B33" t="str">
@@ -1047,7 +1039,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>45204</v>
       </c>
       <c r="B34" t="str">
@@ -1065,7 +1057,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>45209</v>
       </c>
       <c r="B35" t="str">
@@ -1083,7 +1075,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>45210</v>
       </c>
       <c r="B36" t="str">
@@ -1101,10 +1093,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>45211</v>
       </c>
-      <c r="B37" s="11" t="str">
+      <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
@@ -1119,10 +1111,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>45212</v>
       </c>
-      <c r="B38" s="11" t="str">
+      <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -1137,10 +1129,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>45215</v>
       </c>
-      <c r="B39" s="11" t="str">
+      <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
@@ -1155,10 +1147,10 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>45216</v>
       </c>
-      <c r="B40" s="11" t="str">
+      <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -1173,10 +1165,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>45217</v>
       </c>
-      <c r="B41" s="11" t="str">
+      <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
@@ -1191,10 +1183,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>45218</v>
       </c>
-      <c r="B42" s="11" t="str">
+      <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
@@ -1209,10 +1201,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>45219</v>
       </c>
-      <c r="B43" s="11" t="str">
+      <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -1227,7 +1219,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>45222</v>
       </c>
       <c r="B44" t="str">
@@ -1245,7 +1237,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>45223</v>
       </c>
       <c r="B45" t="str">
@@ -1263,7 +1255,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>45224</v>
       </c>
       <c r="B46" t="str">
@@ -1281,7 +1273,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>45225</v>
       </c>
       <c r="B47" t="str">
@@ -1299,7 +1291,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>45226</v>
       </c>
       <c r="B48" t="str">
@@ -1317,7 +1309,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>45229</v>
       </c>
       <c r="B49" t="str">
@@ -1335,7 +1327,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>45230</v>
       </c>
       <c r="B50" t="str">
@@ -1352,11 +1344,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
+    <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
         <v>45231</v>
       </c>
-      <c r="B51" s="11" t="str">
+      <c r="B51" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
@@ -1371,7 +1363,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>45232</v>
       </c>
       <c r="B52" t="str">
@@ -1389,7 +1381,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>45233</v>
       </c>
       <c r="B53" t="str">
@@ -1407,7 +1399,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>45236</v>
       </c>
       <c r="B54" t="str">
@@ -1425,7 +1417,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>45237</v>
       </c>
       <c r="B55" t="str">
@@ -1443,7 +1435,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>45238</v>
       </c>
       <c r="B56" t="str">
@@ -1461,7 +1453,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>45239</v>
       </c>
       <c r="B57" t="str">
@@ -1479,7 +1471,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>45240</v>
       </c>
       <c r="B58" t="str">
@@ -1497,7 +1489,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>45243</v>
       </c>
       <c r="B59" t="str">
@@ -1515,7 +1507,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>45244</v>
       </c>
       <c r="B60" t="str">
@@ -1533,7 +1525,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>45245</v>
       </c>
       <c r="B61" t="str">
@@ -1551,7 +1543,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>45246</v>
       </c>
       <c r="B62" t="str">
@@ -1569,10 +1561,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>45247</v>
       </c>
-      <c r="B63" s="11" t="str">
+      <c r="B63" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
@@ -1587,10 +1579,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>45250</v>
       </c>
-      <c r="B64" s="11" t="str">
+      <c r="B64" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
@@ -1605,10 +1597,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>45251</v>
       </c>
-      <c r="B65" s="11" t="str">
+      <c r="B65" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
@@ -1623,10 +1615,10 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>45252</v>
       </c>
-      <c r="B66" s="11" t="str">
+      <c r="B66" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
@@ -1641,10 +1633,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>45253</v>
       </c>
-      <c r="B67" s="11" t="str">
+      <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="1">TEXT(A67, "dddd")</f>
         <v>Thursday</v>
       </c>
@@ -1659,10 +1651,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>45254</v>
       </c>
-      <c r="B68" s="11" t="str">
+      <c r="B68" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
@@ -1677,10 +1669,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>45257</v>
       </c>
-      <c r="B69" s="11" t="str">
+      <c r="B69" t="str">
         <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
@@ -1695,10 +1687,10 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>45258</v>
       </c>
-      <c r="B70" s="11" t="str">
+      <c r="B70" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
@@ -1713,10 +1705,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>45259</v>
       </c>
-      <c r="B71" s="11" t="str">
+      <c r="B71" t="str">
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
@@ -1731,7 +1723,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>45260</v>
       </c>
       <c r="B72" t="str">
@@ -1748,11 +1740,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13">
+    <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
         <v>45261</v>
       </c>
-      <c r="B73" s="11" t="str">
+      <c r="B73" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
@@ -1767,7 +1759,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>45264</v>
       </c>
       <c r="B74" t="str">
@@ -1785,7 +1777,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>45265</v>
       </c>
       <c r="B75" t="str">
@@ -1803,7 +1795,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>45266</v>
       </c>
       <c r="B76" t="str">
@@ -1821,7 +1813,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>45267</v>
       </c>
       <c r="B77" t="str">
@@ -1839,7 +1831,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>45268</v>
       </c>
       <c r="B78" t="str">
@@ -1857,7 +1849,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>45271</v>
       </c>
       <c r="B79" t="str">
@@ -1875,7 +1867,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>45272</v>
       </c>
       <c r="B80" t="str">
@@ -1893,7 +1885,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>45273</v>
       </c>
       <c r="B81" t="str">
@@ -1911,7 +1903,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>45274</v>
       </c>
       <c r="B82" t="str">
@@ -1929,7 +1921,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>45275</v>
       </c>
       <c r="B83" t="str">
@@ -1947,7 +1939,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>45278</v>
       </c>
       <c r="B84" t="str">
@@ -1965,7 +1957,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>45279</v>
       </c>
       <c r="B85" t="str">
@@ -1983,7 +1975,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>45280</v>
       </c>
       <c r="B86" t="str">
@@ -2001,7 +1993,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>45281</v>
       </c>
       <c r="B87" t="str">
@@ -2019,7 +2011,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>45282</v>
       </c>
       <c r="B88" t="str">
@@ -2037,7 +2029,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>45285</v>
       </c>
       <c r="B89" t="str">
@@ -2055,7 +2047,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>45286</v>
       </c>
       <c r="B90" t="str">
@@ -2073,7 +2065,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>45287</v>
       </c>
       <c r="B91" t="str">
@@ -2091,7 +2083,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>45288</v>
       </c>
       <c r="B92" t="str">
@@ -2109,7 +2101,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>45289</v>
       </c>
       <c r="B93" t="str">
@@ -2126,11 +2118,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
+    <row r="94" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
         <v>45292</v>
       </c>
-      <c r="B94" s="11" t="str">
+      <c r="B94" t="str">
         <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
@@ -2145,7 +2137,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>45293</v>
       </c>
       <c r="B95" t="str">
@@ -2163,7 +2155,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <v>45294</v>
       </c>
       <c r="B96" t="str">
@@ -2181,7 +2173,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>45295</v>
       </c>
       <c r="B97" t="str">
@@ -2199,10 +2191,10 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>45296</v>
       </c>
-      <c r="B98" s="11" t="str">
+      <c r="B98" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
@@ -2217,7 +2209,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <v>45299</v>
       </c>
       <c r="B99" t="str">
@@ -2235,7 +2227,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <v>45300</v>
       </c>
       <c r="B100" t="str">
@@ -2253,7 +2245,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>45301</v>
       </c>
       <c r="B101" t="str">
@@ -2271,7 +2263,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
+      <c r="A102" s="5">
         <v>45302</v>
       </c>
       <c r="B102" t="str">
@@ -2289,25 +2281,25 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="8">
+      <c r="A103" s="7">
         <v>45303</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="12">
         <v>250</v>
       </c>
-      <c r="D103" s="14">
+      <c r="D103" s="12">
         <v>300</v>
       </c>
-      <c r="E103" s="14">
+      <c r="E103" s="12">
         <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6">
+      <c r="A104" s="5">
         <v>45306</v>
       </c>
       <c r="B104" t="str">
@@ -2325,25 +2317,25 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="8">
+      <c r="A105" s="7">
         <v>45307</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="12">
         <v>297</v>
       </c>
-      <c r="D105" s="14">
+      <c r="D105" s="12">
         <v>294</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6">
+      <c r="A106" s="5">
         <v>45308</v>
       </c>
       <c r="B106" t="str">
@@ -2361,7 +2353,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6">
+      <c r="A107" s="5">
         <v>45309</v>
       </c>
       <c r="B107" t="str">
@@ -2379,7 +2371,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <v>45310</v>
       </c>
       <c r="B108" t="str">
@@ -2397,7 +2389,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6">
+      <c r="A109" s="5">
         <v>45313</v>
       </c>
       <c r="B109" t="str">
@@ -2415,7 +2407,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <v>45314</v>
       </c>
       <c r="B110" t="str">
@@ -2433,7 +2425,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
+      <c r="A111" s="5">
         <v>45315</v>
       </c>
       <c r="B111" t="str">
@@ -2451,7 +2443,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <v>45316</v>
       </c>
       <c r="B112" t="str">
@@ -2469,7 +2461,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <v>45317</v>
       </c>
       <c r="B113" t="str">
@@ -2487,7 +2479,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <v>45320</v>
       </c>
       <c r="B114" t="str">
@@ -2505,7 +2497,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
+      <c r="A115" s="5">
         <v>45321</v>
       </c>
       <c r="B115" t="str">
@@ -2523,7 +2515,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <v>45322</v>
       </c>
       <c r="B116" t="str">
@@ -2540,11 +2532,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="13">
+    <row r="117" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11">
         <v>45323</v>
       </c>
-      <c r="B117" s="11" t="str">
+      <c r="B117" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
@@ -2559,7 +2551,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <v>45324</v>
       </c>
       <c r="B118" t="str">
@@ -2577,7 +2569,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="6">
+      <c r="A119" s="5">
         <v>45327</v>
       </c>
       <c r="B119" t="str">
@@ -2595,7 +2587,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="6">
+      <c r="A120" s="5">
         <v>45328</v>
       </c>
       <c r="B120" t="str">
@@ -2613,7 +2605,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="6">
+      <c r="A121" s="5">
         <v>45329</v>
       </c>
       <c r="B121" t="str">
@@ -2631,7 +2623,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
+      <c r="A122" s="5">
         <v>45330</v>
       </c>
       <c r="B122" t="str">
@@ -2649,10 +2641,10 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6">
+      <c r="A123" s="5">
         <v>45331</v>
       </c>
-      <c r="B123" s="11" t="str">
+      <c r="B123" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
@@ -2667,10 +2659,10 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="6">
+      <c r="A124" s="5">
         <v>45334</v>
       </c>
-      <c r="B124" s="11" t="str">
+      <c r="B124" t="str">
         <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
@@ -2685,10 +2677,10 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="6">
+      <c r="A125" s="5">
         <v>45335</v>
       </c>
-      <c r="B125" s="11" t="str">
+      <c r="B125" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
@@ -2703,10 +2695,10 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="6">
+      <c r="A126" s="5">
         <v>45336</v>
       </c>
-      <c r="B126" s="11" t="str">
+      <c r="B126" t="str">
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
@@ -2721,10 +2713,10 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="6">
+      <c r="A127" s="5">
         <v>45337</v>
       </c>
-      <c r="B127" s="11" t="str">
+      <c r="B127" t="str">
         <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
@@ -2739,10 +2731,10 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6">
+      <c r="A128" s="5">
         <v>45338</v>
       </c>
-      <c r="B128" s="11" t="str">
+      <c r="B128" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
@@ -2757,10 +2749,10 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="6">
+      <c r="A129" s="5">
         <v>45341</v>
       </c>
-      <c r="B129" s="11" t="str">
+      <c r="B129" t="str">
         <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
@@ -2775,10 +2767,10 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="6">
+      <c r="A130" s="5">
         <v>45342</v>
       </c>
-      <c r="B130" s="11" t="str">
+      <c r="B130" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
@@ -2793,7 +2785,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="6">
+      <c r="A131" s="5">
         <v>45343</v>
       </c>
       <c r="B131" t="str">
@@ -2811,7 +2803,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="6">
+      <c r="A132" s="5">
         <v>45344</v>
       </c>
       <c r="B132" t="str">
@@ -2829,7 +2821,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="6">
+      <c r="A133" s="5">
         <v>45345</v>
       </c>
       <c r="B133" t="str">
@@ -2847,7 +2839,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="6">
+      <c r="A134" s="5">
         <v>45348</v>
       </c>
       <c r="B134" t="str">
@@ -2865,7 +2857,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="6">
+      <c r="A135" s="5">
         <v>45349</v>
       </c>
       <c r="B135" t="str">
@@ -2883,7 +2875,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="6">
+      <c r="A136" s="5">
         <v>45350</v>
       </c>
       <c r="B136" t="str">
@@ -2901,7 +2893,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="6">
+      <c r="A137" s="5">
         <v>45351</v>
       </c>
       <c r="B137" t="str">
@@ -2918,11 +2910,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="7">
+    <row r="138" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="6">
         <v>45352</v>
       </c>
-      <c r="B138" s="11" t="str">
+      <c r="B138" t="str">
         <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
@@ -2937,7 +2929,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6">
+      <c r="A139" s="5">
         <v>45355</v>
       </c>
       <c r="B139" t="str">
@@ -2955,7 +2947,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="6">
+      <c r="A140" s="5">
         <v>45356</v>
       </c>
       <c r="B140" t="str">
@@ -2973,7 +2965,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6">
+      <c r="A141" s="5">
         <v>45357</v>
       </c>
       <c r="B141" t="str">
@@ -2991,7 +2983,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="6">
+      <c r="A142" s="5">
         <v>45358</v>
       </c>
       <c r="B142" t="str">
@@ -3009,7 +3001,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="6">
+      <c r="A143" s="5">
         <v>45359</v>
       </c>
       <c r="B143" t="str">
@@ -3027,7 +3019,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="6">
+      <c r="A144" s="5">
         <v>45362</v>
       </c>
       <c r="B144" t="str">
@@ -3045,7 +3037,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6">
+      <c r="A145" s="5">
         <v>45363</v>
       </c>
       <c r="B145" t="str">
@@ -3063,7 +3055,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="6">
+      <c r="A146" s="5">
         <v>45364</v>
       </c>
       <c r="B146" t="str">
@@ -3081,7 +3073,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="6">
+      <c r="A147" s="5">
         <v>45365</v>
       </c>
       <c r="B147" t="str">
@@ -3099,7 +3091,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="6">
+      <c r="A148" s="5">
         <v>45366</v>
       </c>
       <c r="B148" t="str">
@@ -3117,7 +3109,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="6">
+      <c r="A149" s="5">
         <v>45369</v>
       </c>
       <c r="B149" t="str">
@@ -3135,7 +3127,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="6">
+      <c r="A150" s="5">
         <v>45370</v>
       </c>
       <c r="B150" t="str">
@@ -3153,7 +3145,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="6">
+      <c r="A151" s="5">
         <v>45371</v>
       </c>
       <c r="B151" t="str">
@@ -3171,7 +3163,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="6">
+      <c r="A152" s="5">
         <v>45372</v>
       </c>
       <c r="B152" t="str">
@@ -3189,7 +3181,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6">
+      <c r="A153" s="5">
         <v>45373</v>
       </c>
       <c r="B153" t="str">
@@ -3207,7 +3199,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6">
+      <c r="A154" s="5">
         <v>45376</v>
       </c>
       <c r="B154" t="str">
@@ -3224,11 +3216,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="13">
+    <row r="155" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11">
         <v>45383</v>
       </c>
-      <c r="B155" s="11" t="str">
+      <c r="B155" t="str">
         <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
@@ -3243,10 +3235,10 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="6">
+      <c r="A156" s="5">
         <v>45384</v>
       </c>
-      <c r="B156" s="11" t="str">
+      <c r="B156" t="str">
         <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
@@ -3261,7 +3253,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="6">
+      <c r="A157" s="5">
         <v>45385</v>
       </c>
       <c r="B157" t="str">
@@ -3279,7 +3271,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="6">
+      <c r="A158" s="5">
         <v>45386</v>
       </c>
       <c r="B158" t="str">
@@ -3297,7 +3289,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="6">
+      <c r="A159" s="5">
         <v>45387</v>
       </c>
       <c r="B159" t="str">
@@ -3315,7 +3307,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="6">
+      <c r="A160" s="5">
         <v>45390</v>
       </c>
       <c r="B160" t="str">
@@ -3333,7 +3325,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="6">
+      <c r="A161" s="5">
         <v>45391</v>
       </c>
       <c r="B161" t="str">
@@ -3351,7 +3343,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="6">
+      <c r="A162" s="5">
         <v>45392</v>
       </c>
       <c r="B162" t="str">
@@ -3369,7 +3361,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="6">
+      <c r="A163" s="5">
         <v>45393</v>
       </c>
       <c r="B163" t="str">
@@ -3387,7 +3379,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="6">
+      <c r="A164" s="5">
         <v>45394</v>
       </c>
       <c r="B164" t="str">
@@ -3405,7 +3397,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="6">
+      <c r="A165" s="5">
         <v>45397</v>
       </c>
       <c r="B165" t="str">
@@ -3423,7 +3415,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="6">
+      <c r="A166" s="5">
         <v>45398</v>
       </c>
       <c r="B166" t="str">
@@ -3441,7 +3433,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="6">
+      <c r="A167" s="5">
         <v>45399</v>
       </c>
       <c r="B167" t="str">
@@ -3459,7 +3451,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="6">
+      <c r="A168" s="5">
         <v>45400</v>
       </c>
       <c r="B168" t="str">
@@ -3477,7 +3469,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="6">
+      <c r="A169" s="5">
         <v>45401</v>
       </c>
       <c r="B169" t="str">
@@ -3495,7 +3487,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="6">
+      <c r="A170" s="5">
         <v>45404</v>
       </c>
       <c r="B170" t="str">
@@ -3513,7 +3505,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="6">
+      <c r="A171" s="5">
         <v>45405</v>
       </c>
       <c r="B171" t="str">
@@ -3531,7 +3523,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="6">
+      <c r="A172" s="5">
         <v>45406</v>
       </c>
       <c r="B172" t="str">
@@ -3549,7 +3541,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="6">
+      <c r="A173" s="5">
         <v>45407</v>
       </c>
       <c r="B173" t="str">
@@ -3567,7 +3559,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="6">
+      <c r="A174" s="5">
         <v>45408</v>
       </c>
       <c r="B174" t="str">
@@ -3585,7 +3577,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="6">
+      <c r="A175" s="5">
         <v>45411</v>
       </c>
       <c r="B175" t="str">
@@ -3603,7 +3595,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="6">
+      <c r="A176" s="5">
         <v>45412</v>
       </c>
       <c r="B176" t="str">
@@ -3620,11 +3612,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="13">
+    <row r="177" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="11">
         <v>45413</v>
       </c>
-      <c r="B177" s="11" t="str">
+      <c r="B177" t="str">
         <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
@@ -3639,7 +3631,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="6">
+      <c r="A178" s="5">
         <v>45414</v>
       </c>
       <c r="B178" t="str">
@@ -3657,7 +3649,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="6">
+      <c r="A179" s="5">
         <v>45415</v>
       </c>
       <c r="B179" t="str">
@@ -3675,7 +3667,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="6">
+      <c r="A180" s="5">
         <v>45418</v>
       </c>
       <c r="B180" t="str">
@@ -3693,7 +3685,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="6">
+      <c r="A181" s="5">
         <v>45419</v>
       </c>
       <c r="B181" t="str">
@@ -3711,7 +3703,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="6">
+      <c r="A182" s="5">
         <v>45420</v>
       </c>
       <c r="B182" t="str">
@@ -3729,7 +3721,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="6">
+      <c r="A183" s="5">
         <v>45421</v>
       </c>
       <c r="B183" t="str">
@@ -3747,10 +3739,10 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="6">
+      <c r="A184" s="5">
         <v>45422</v>
       </c>
-      <c r="B184" s="11" t="str">
+      <c r="B184" t="str">
         <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
@@ -3765,10 +3757,10 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="6">
+      <c r="A185" s="5">
         <v>45425</v>
       </c>
-      <c r="B185" s="11" t="str">
+      <c r="B185" t="str">
         <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
@@ -3783,10 +3775,10 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="6">
+      <c r="A186" s="5">
         <v>45426</v>
       </c>
-      <c r="B186" s="11" t="str">
+      <c r="B186" t="str">
         <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
@@ -3801,10 +3793,10 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="6">
+      <c r="A187" s="5">
         <v>45427</v>
       </c>
-      <c r="B187" s="11" t="str">
+      <c r="B187" t="str">
         <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
@@ -3819,7 +3811,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="6">
+      <c r="A188" s="5">
         <v>45428</v>
       </c>
       <c r="B188" t="str">
@@ -3837,7 +3829,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="6">
+      <c r="A189" s="5">
         <v>45429</v>
       </c>
       <c r="B189" t="str">
@@ -3855,7 +3847,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="6">
+      <c r="A190" s="5">
         <v>45432</v>
       </c>
       <c r="B190" t="str">
@@ -3873,7 +3865,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="6">
+      <c r="A191" s="5">
         <v>45433</v>
       </c>
       <c r="B191" t="str">
@@ -3891,7 +3883,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="6">
+      <c r="A192" s="5">
         <v>45434</v>
       </c>
       <c r="B192" t="str">
@@ -3909,7 +3901,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="6">
+      <c r="A193" s="5">
         <v>45435</v>
       </c>
       <c r="B193" t="str">
@@ -3927,7 +3919,7 @@
       </c>
     </row>
     <row r="194" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="6">
+      <c r="A194" s="5">
         <v>45436</v>
       </c>
       <c r="B194" t="str">
@@ -3945,7 +3937,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="6">
+      <c r="A195" s="5">
         <v>45439</v>
       </c>
       <c r="B195" t="str">
@@ -3963,7 +3955,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="6">
+      <c r="A196" s="5">
         <v>45440</v>
       </c>
       <c r="B196" t="str">
@@ -3981,7 +3973,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="6">
+      <c r="A197" s="5">
         <v>45441</v>
       </c>
       <c r="B197" t="str">
@@ -3998,704 +3990,704 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="12">
+    <row r="198" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="10">
         <v>45446</v>
       </c>
-      <c r="B198" s="11" t="str">
+      <c r="B198" t="str">
         <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
-      <c r="C198" s="14">
-        <v>0</v>
-      </c>
-      <c r="D198" s="14">
-        <v>0</v>
-      </c>
-      <c r="E198" s="14">
+      <c r="C198" s="12">
+        <v>0</v>
+      </c>
+      <c r="D198" s="12">
+        <v>0</v>
+      </c>
+      <c r="E198" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="9">
+      <c r="A199" s="8">
         <v>45447</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C199" s="14">
-        <v>0</v>
-      </c>
-      <c r="D199" s="14">
-        <v>0</v>
-      </c>
-      <c r="E199" s="14">
+      <c r="C199" s="12">
+        <v>0</v>
+      </c>
+      <c r="D199" s="12">
+        <v>0</v>
+      </c>
+      <c r="E199" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="9">
+      <c r="A200" s="8">
         <v>45448</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="3"/>
         <v>Wednesday</v>
       </c>
-      <c r="C200" s="14">
-        <v>0</v>
-      </c>
-      <c r="D200" s="14">
-        <v>0</v>
-      </c>
-      <c r="E200" s="14">
+      <c r="C200" s="12">
+        <v>0</v>
+      </c>
+      <c r="D200" s="12">
+        <v>0</v>
+      </c>
+      <c r="E200" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="9">
+      <c r="A201" s="8">
         <v>45449</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="C201" s="14">
-        <v>0</v>
-      </c>
-      <c r="D201" s="14">
-        <v>0</v>
-      </c>
-      <c r="E201" s="14">
+      <c r="C201" s="12">
+        <v>0</v>
+      </c>
+      <c r="D201" s="12">
+        <v>0</v>
+      </c>
+      <c r="E201" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="9">
+      <c r="A202" s="8">
         <v>45453</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
-      <c r="C202" s="14">
-        <v>0</v>
-      </c>
-      <c r="D202" s="14">
-        <v>0</v>
-      </c>
-      <c r="E202" s="14">
+      <c r="C202" s="12">
+        <v>0</v>
+      </c>
+      <c r="D202" s="12">
+        <v>0</v>
+      </c>
+      <c r="E202" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="9">
+      <c r="A203" s="8">
         <v>45454</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C203" s="14">
-        <v>0</v>
-      </c>
-      <c r="D203" s="14">
-        <v>0</v>
-      </c>
-      <c r="E203" s="14">
+      <c r="C203" s="12">
+        <v>0</v>
+      </c>
+      <c r="D203" s="12">
+        <v>0</v>
+      </c>
+      <c r="E203" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="9">
+      <c r="A204" s="8">
         <v>45455</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="3"/>
         <v>Wednesday</v>
       </c>
-      <c r="C204" s="14">
-        <v>0</v>
-      </c>
-      <c r="D204" s="14">
-        <v>0</v>
-      </c>
-      <c r="E204" s="14">
+      <c r="C204" s="12">
+        <v>0</v>
+      </c>
+      <c r="D204" s="12">
+        <v>0</v>
+      </c>
+      <c r="E204" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="9">
+      <c r="A205" s="8">
         <v>45456</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="C205" s="14">
-        <v>0</v>
-      </c>
-      <c r="D205" s="14">
-        <v>0</v>
-      </c>
-      <c r="E205" s="14">
+      <c r="C205" s="12">
+        <v>0</v>
+      </c>
+      <c r="D205" s="12">
+        <v>0</v>
+      </c>
+      <c r="E205" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="9">
+      <c r="A206" s="8">
         <v>45460</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
-      <c r="C206" s="14">
-        <v>0</v>
-      </c>
-      <c r="D206" s="14">
-        <v>0</v>
-      </c>
-      <c r="E206" s="14">
+      <c r="C206" s="12">
+        <v>0</v>
+      </c>
+      <c r="D206" s="12">
+        <v>0</v>
+      </c>
+      <c r="E206" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="9">
+      <c r="A207" s="8">
         <v>45461</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C207" s="14">
-        <v>0</v>
-      </c>
-      <c r="D207" s="14">
-        <v>0</v>
-      </c>
-      <c r="E207" s="14">
+      <c r="C207" s="12">
+        <v>0</v>
+      </c>
+      <c r="D207" s="12">
+        <v>0</v>
+      </c>
+      <c r="E207" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="9">
+      <c r="A208" s="8">
         <v>45462</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="3"/>
         <v>Wednesday</v>
       </c>
-      <c r="C208" s="14">
-        <v>0</v>
-      </c>
-      <c r="D208" s="14">
-        <v>0</v>
-      </c>
-      <c r="E208" s="14">
+      <c r="C208" s="12">
+        <v>0</v>
+      </c>
+      <c r="D208" s="12">
+        <v>0</v>
+      </c>
+      <c r="E208" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="9">
+      <c r="A209" s="8">
         <v>45463</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="C209" s="14">
-        <v>0</v>
-      </c>
-      <c r="D209" s="14">
-        <v>0</v>
-      </c>
-      <c r="E209" s="14">
+      <c r="C209" s="12">
+        <v>0</v>
+      </c>
+      <c r="D209" s="12">
+        <v>0</v>
+      </c>
+      <c r="E209" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="9">
+      <c r="A210" s="8">
         <v>45467</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
-      <c r="C210" s="14">
-        <v>0</v>
-      </c>
-      <c r="D210" s="14">
-        <v>0</v>
-      </c>
-      <c r="E210" s="14">
+      <c r="C210" s="12">
+        <v>0</v>
+      </c>
+      <c r="D210" s="12">
+        <v>0</v>
+      </c>
+      <c r="E210" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="9">
+      <c r="A211" s="8">
         <v>45468</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C211" s="14">
-        <v>0</v>
-      </c>
-      <c r="D211" s="14">
-        <v>0</v>
-      </c>
-      <c r="E211" s="14">
+      <c r="C211" s="12">
+        <v>0</v>
+      </c>
+      <c r="D211" s="12">
+        <v>0</v>
+      </c>
+      <c r="E211" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="9">
+      <c r="A212" s="8">
         <v>45469</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="3"/>
         <v>Wednesday</v>
       </c>
-      <c r="C212" s="14">
-        <v>0</v>
-      </c>
-      <c r="D212" s="14">
-        <v>0</v>
-      </c>
-      <c r="E212" s="14">
+      <c r="C212" s="12">
+        <v>0</v>
+      </c>
+      <c r="D212" s="12">
+        <v>0</v>
+      </c>
+      <c r="E212" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="9">
+      <c r="A213" s="8">
         <v>45470</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="C213" s="14">
-        <v>0</v>
-      </c>
-      <c r="D213" s="14">
-        <v>0</v>
-      </c>
-      <c r="E213" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="12">
+      <c r="C213" s="12">
+        <v>0</v>
+      </c>
+      <c r="D213" s="12">
+        <v>0</v>
+      </c>
+      <c r="E213" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="10">
         <v>45474</v>
       </c>
-      <c r="B214" s="11" t="str">
+      <c r="B214" t="str">
         <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
-      <c r="C214" s="14">
-        <v>0</v>
-      </c>
-      <c r="D214" s="14">
-        <v>0</v>
-      </c>
-      <c r="E214" s="14">
+      <c r="C214" s="12">
+        <v>0</v>
+      </c>
+      <c r="D214" s="12">
+        <v>0</v>
+      </c>
+      <c r="E214" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="9">
+      <c r="A215" s="8">
         <v>45475</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C215" s="14">
-        <v>0</v>
-      </c>
-      <c r="D215" s="14">
-        <v>0</v>
-      </c>
-      <c r="E215" s="14">
+      <c r="C215" s="12">
+        <v>0</v>
+      </c>
+      <c r="D215" s="12">
+        <v>0</v>
+      </c>
+      <c r="E215" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="9">
+      <c r="A216" s="8">
         <v>45476</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="3"/>
         <v>Wednesday</v>
       </c>
-      <c r="C216" s="14">
-        <v>0</v>
-      </c>
-      <c r="D216" s="14">
-        <v>0</v>
-      </c>
-      <c r="E216" s="14">
+      <c r="C216" s="12">
+        <v>0</v>
+      </c>
+      <c r="D216" s="12">
+        <v>0</v>
+      </c>
+      <c r="E216" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="9">
+      <c r="A217" s="8">
         <v>45481</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
-      <c r="C217" s="14">
-        <v>0</v>
-      </c>
-      <c r="D217" s="14">
-        <v>0</v>
-      </c>
-      <c r="E217" s="14">
+      <c r="C217" s="12">
+        <v>0</v>
+      </c>
+      <c r="D217" s="12">
+        <v>0</v>
+      </c>
+      <c r="E217" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="9">
+      <c r="A218" s="8">
         <v>45482</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
-      <c r="C218" s="14">
-        <v>0</v>
-      </c>
-      <c r="D218" s="14">
-        <v>0</v>
-      </c>
-      <c r="E218" s="14">
+      <c r="C218" s="12">
+        <v>0</v>
+      </c>
+      <c r="D218" s="12">
+        <v>0</v>
+      </c>
+      <c r="E218" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="9">
+      <c r="A219" s="8">
         <v>45483</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="3"/>
         <v>Wednesday</v>
       </c>
-      <c r="C219" s="14">
-        <v>0</v>
-      </c>
-      <c r="D219" s="14">
-        <v>0</v>
-      </c>
-      <c r="E219" s="14">
+      <c r="C219" s="12">
+        <v>0</v>
+      </c>
+      <c r="D219" s="12">
+        <v>0</v>
+      </c>
+      <c r="E219" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="9">
+      <c r="A220" s="8">
         <v>45484</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="C220" s="14">
-        <v>0</v>
-      </c>
-      <c r="D220" s="14">
-        <v>0</v>
-      </c>
-      <c r="E220" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="9">
+      <c r="C220" s="12">
+        <v>0</v>
+      </c>
+      <c r="D220" s="12">
+        <v>0</v>
+      </c>
+      <c r="E220" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="8">
         <v>45485</v>
       </c>
-      <c r="B221" s="5" t="str">
+      <c r="B221" t="str">
         <f t="shared" ref="B221:B225" si="4">TEXT(A221, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C221" s="14">
-        <v>0</v>
-      </c>
-      <c r="D221" s="14">
-        <v>0</v>
-      </c>
-      <c r="E221" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="9">
+      <c r="C221" s="12">
+        <v>0</v>
+      </c>
+      <c r="D221" s="12">
+        <v>0</v>
+      </c>
+      <c r="E221" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="8">
         <v>45486</v>
       </c>
-      <c r="B222" s="5" t="str">
+      <c r="B222" t="str">
         <f t="shared" si="4"/>
         <v>Saturday</v>
       </c>
-      <c r="C222" s="14">
-        <v>0</v>
-      </c>
-      <c r="D222" s="14">
-        <v>0</v>
-      </c>
-      <c r="E222" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="9">
+      <c r="C222" s="12">
+        <v>0</v>
+      </c>
+      <c r="D222" s="12">
+        <v>0</v>
+      </c>
+      <c r="E222" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="8">
         <v>45487</v>
       </c>
-      <c r="B223" s="5" t="str">
+      <c r="B223" t="str">
         <f t="shared" si="4"/>
         <v>Sunday</v>
       </c>
-      <c r="C223" s="14">
-        <v>0</v>
-      </c>
-      <c r="D223" s="14">
-        <v>0</v>
-      </c>
-      <c r="E223" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="9">
+      <c r="C223" s="12">
+        <v>0</v>
+      </c>
+      <c r="D223" s="12">
+        <v>0</v>
+      </c>
+      <c r="E223" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="8">
         <v>45488</v>
       </c>
-      <c r="B224" s="5" t="str">
+      <c r="B224" t="str">
         <f t="shared" si="4"/>
         <v>Monday</v>
       </c>
-      <c r="C224" s="14">
-        <v>0</v>
-      </c>
-      <c r="D224" s="14">
-        <v>0</v>
-      </c>
-      <c r="E224" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="9">
+      <c r="C224" s="12">
+        <v>0</v>
+      </c>
+      <c r="D224" s="12">
+        <v>0</v>
+      </c>
+      <c r="E224" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="8">
         <v>45489</v>
       </c>
-      <c r="B225" s="5" t="str">
+      <c r="B225" t="str">
         <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
-      <c r="C225" s="14">
-        <v>0</v>
-      </c>
-      <c r="D225" s="14">
-        <v>0</v>
-      </c>
-      <c r="E225" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="9">
+      <c r="C225" s="12">
+        <v>0</v>
+      </c>
+      <c r="D225" s="12">
+        <v>0</v>
+      </c>
+      <c r="E225" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="8">
         <v>45490</v>
       </c>
-      <c r="B226" s="5" t="str">
+      <c r="B226" t="str">
         <f t="shared" ref="B226:B237" si="5">TEXT(A226, "dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="C226" s="14">
-        <v>0</v>
-      </c>
-      <c r="D226" s="14">
-        <v>0</v>
-      </c>
-      <c r="E226" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="9">
+      <c r="C226" s="12">
+        <v>0</v>
+      </c>
+      <c r="D226" s="12">
+        <v>0</v>
+      </c>
+      <c r="E226" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="8">
         <v>45491</v>
       </c>
-      <c r="B227" s="5" t="str">
+      <c r="B227" t="str">
         <f t="shared" si="5"/>
         <v>Thursday</v>
       </c>
-      <c r="C227" s="14">
-        <v>0</v>
-      </c>
-      <c r="D227" s="14">
-        <v>0</v>
-      </c>
-      <c r="E227" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="9">
+      <c r="C227" s="12">
+        <v>0</v>
+      </c>
+      <c r="D227" s="12">
+        <v>0</v>
+      </c>
+      <c r="E227" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="8">
         <v>45492</v>
       </c>
-      <c r="B228" s="5" t="str">
+      <c r="B228" t="str">
         <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
-      <c r="C228" s="14">
-        <v>0</v>
-      </c>
-      <c r="D228" s="14">
-        <v>0</v>
-      </c>
-      <c r="E228" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="9">
+      <c r="C228" s="12">
+        <v>0</v>
+      </c>
+      <c r="D228" s="12">
+        <v>0</v>
+      </c>
+      <c r="E228" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="8">
         <v>45493</v>
       </c>
-      <c r="B229" s="5" t="str">
+      <c r="B229" t="str">
         <f t="shared" si="5"/>
         <v>Saturday</v>
       </c>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
-    </row>
-    <row r="230" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="9">
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+    </row>
+    <row r="230" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="8">
         <v>45494</v>
       </c>
-      <c r="B230" s="5" t="str">
+      <c r="B230" t="str">
         <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
-    </row>
-    <row r="231" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="9">
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+    </row>
+    <row r="231" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="8">
         <v>45495</v>
       </c>
-      <c r="B231" s="5" t="str">
+      <c r="B231" t="str">
         <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
-      <c r="C231" s="14">
-        <v>0</v>
-      </c>
-      <c r="D231" s="14">
-        <v>0</v>
-      </c>
-      <c r="E231" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="9">
+      <c r="C231" s="12">
+        <v>0</v>
+      </c>
+      <c r="D231" s="12">
+        <v>0</v>
+      </c>
+      <c r="E231" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="8">
         <v>45496</v>
       </c>
-      <c r="B232" s="5" t="str">
+      <c r="B232" t="str">
         <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
-      <c r="C232" s="14">
-        <v>0</v>
-      </c>
-      <c r="D232" s="14">
-        <v>0</v>
-      </c>
-      <c r="E232" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="9">
+      <c r="C232" s="12">
+        <v>0</v>
+      </c>
+      <c r="D232" s="12">
+        <v>0</v>
+      </c>
+      <c r="E232" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="8">
         <v>45497</v>
       </c>
-      <c r="B233" s="5" t="str">
+      <c r="B233" t="str">
         <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
-      <c r="C233" s="14">
-        <v>0</v>
-      </c>
-      <c r="D233" s="14">
-        <v>0</v>
-      </c>
-      <c r="E233" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="9">
+      <c r="C233" s="12">
+        <v>0</v>
+      </c>
+      <c r="D233" s="12">
+        <v>0</v>
+      </c>
+      <c r="E233" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="8">
         <v>45498</v>
       </c>
-      <c r="B234" s="5" t="str">
+      <c r="B234" t="str">
         <f t="shared" si="5"/>
         <v>Thursday</v>
       </c>
-      <c r="C234" s="14">
-        <v>0</v>
-      </c>
-      <c r="D234" s="14">
-        <v>0</v>
-      </c>
-      <c r="E234" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="9">
+      <c r="C234" s="12">
+        <v>0</v>
+      </c>
+      <c r="D234" s="12">
+        <v>0</v>
+      </c>
+      <c r="E234" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="8">
         <v>45499</v>
       </c>
-      <c r="B235" s="5" t="str">
+      <c r="B235" t="str">
         <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
-      <c r="C235" s="14">
-        <v>0</v>
-      </c>
-      <c r="D235" s="14">
-        <v>0</v>
-      </c>
-      <c r="E235" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="9">
+      <c r="C235" s="12">
+        <v>0</v>
+      </c>
+      <c r="D235" s="12">
+        <v>0</v>
+      </c>
+      <c r="E235" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="8">
         <v>45500</v>
       </c>
-      <c r="B236" s="5" t="str">
+      <c r="B236" t="str">
         <f t="shared" si="5"/>
         <v>Saturday</v>
       </c>
-      <c r="C236" s="14"/>
-      <c r="D236" s="14"/>
-      <c r="E236" s="14"/>
-    </row>
-    <row r="237" spans="1:5" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="9">
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+    </row>
+    <row r="237" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="8">
         <v>45501</v>
       </c>
-      <c r="B237" s="5" t="str">
+      <c r="B237" t="str">
         <f t="shared" si="5"/>
         <v>Sunday</v>
       </c>
-      <c r="C237" s="14"/>
-      <c r="D237" s="14"/>
-      <c r="E237" s="14"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
     </row>
     <row r="238" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="9">
+      <c r="A238" s="8">
         <v>45502</v>
       </c>
       <c r="B238" t="str">
@@ -4705,7 +4697,7 @@
       <c r="C238" s="4">
         <v>32</v>
       </c>
-      <c r="D238" s="18">
+      <c r="D238" s="15">
         <v>35</v>
       </c>
       <c r="E238" s="4">
@@ -4713,7 +4705,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="9">
+      <c r="A239" s="8">
         <v>45503</v>
       </c>
       <c r="B239" t="str">
@@ -4723,7 +4715,7 @@
       <c r="C239" s="4">
         <v>32</v>
       </c>
-      <c r="D239" s="18">
+      <c r="D239" s="15">
         <v>40</v>
       </c>
       <c r="E239" s="4">
@@ -4731,7 +4723,7 @@
       </c>
     </row>
     <row r="240" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="9">
+      <c r="A240" s="8">
         <v>45504</v>
       </c>
       <c r="B240" t="str">
@@ -4741,25 +4733,25 @@
       <c r="C240" s="4">
         <v>32</v>
       </c>
-      <c r="D240" s="18">
+      <c r="D240" s="15">
         <v>36</v>
       </c>
       <c r="E240" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="12">
+    <row r="241" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="10">
         <v>45505</v>
       </c>
-      <c r="B241" s="11" t="str">
+      <c r="B241" t="str">
         <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="C241" s="4">
         <v>30</v>
       </c>
-      <c r="D241" s="18">
+      <c r="D241" s="15">
         <v>32</v>
       </c>
       <c r="E241" s="4">
@@ -4767,7 +4759,7 @@
       </c>
     </row>
     <row r="242" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="9">
+      <c r="A242" s="8">
         <v>45509</v>
       </c>
       <c r="B242" t="str">
@@ -4777,7 +4769,7 @@
       <c r="C242" s="4">
         <v>28</v>
       </c>
-      <c r="D242" s="18">
+      <c r="D242" s="15">
         <v>30</v>
       </c>
       <c r="E242" s="4">
@@ -4785,7 +4777,7 @@
       </c>
     </row>
     <row r="243" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="9">
+      <c r="A243" s="8">
         <v>45510</v>
       </c>
       <c r="B243" t="str">
@@ -4795,7 +4787,7 @@
       <c r="C243" s="4">
         <v>30</v>
       </c>
-      <c r="D243" s="18">
+      <c r="D243" s="15">
         <v>33</v>
       </c>
       <c r="E243" s="4">
@@ -4803,7 +4795,7 @@
       </c>
     </row>
     <row r="244" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="9">
+      <c r="A244" s="8">
         <v>45511</v>
       </c>
       <c r="B244" t="str">
@@ -4813,7 +4805,7 @@
       <c r="C244" s="4">
         <v>26</v>
       </c>
-      <c r="D244" s="18">
+      <c r="D244" s="15">
         <v>45</v>
       </c>
       <c r="E244" s="4">
@@ -4821,7 +4813,7 @@
       </c>
     </row>
     <row r="245" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="9">
+      <c r="A245" s="8">
         <v>45512</v>
       </c>
       <c r="B245" t="str">
@@ -4831,7 +4823,7 @@
       <c r="C245" s="4">
         <v>23</v>
       </c>
-      <c r="D245" s="18">
+      <c r="D245" s="15">
         <v>32</v>
       </c>
       <c r="E245" s="4">
@@ -4839,508 +4831,1120 @@
       </c>
     </row>
     <row r="246" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="9">
+      <c r="A246" s="8">
         <v>45513</v>
       </c>
-      <c r="B246" s="5" t="str">
+      <c r="B246" t="str">
         <f t="shared" ref="B246:B256" si="6">TEXT(A246, "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="C246" s="18">
+      <c r="C246" s="15">
         <v>28</v>
       </c>
-      <c r="D246" s="18">
+      <c r="D246" s="15">
         <v>35</v>
       </c>
-      <c r="E246" s="18">
+      <c r="E246" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="9">
+      <c r="A247" s="8">
         <v>45514</v>
       </c>
-      <c r="B247" s="5" t="str">
+      <c r="B247" t="str">
         <f t="shared" si="6"/>
         <v>Saturday</v>
       </c>
-      <c r="C247" s="18"/>
-      <c r="D247" s="18"/>
-      <c r="E247" s="18"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
     </row>
     <row r="248" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="9">
+      <c r="A248" s="8">
         <v>45515</v>
       </c>
-      <c r="B248" s="5" t="str">
+      <c r="B248" t="str">
         <f t="shared" si="6"/>
         <v>Sunday</v>
       </c>
-      <c r="C248" s="18"/>
-      <c r="D248" s="18"/>
-      <c r="E248" s="18"/>
+      <c r="C248" s="15"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="15"/>
     </row>
     <row r="249" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="9">
+      <c r="A249" s="8">
         <v>45516</v>
       </c>
-      <c r="B249" s="5" t="str">
+      <c r="B249" t="str">
         <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
-      <c r="C249" s="18">
+      <c r="C249" s="15">
         <v>32</v>
       </c>
-      <c r="D249" s="18">
+      <c r="D249" s="15">
         <v>36</v>
       </c>
-      <c r="E249" s="18">
+      <c r="E249" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="9">
+      <c r="A250" s="8">
         <v>45517</v>
       </c>
-      <c r="B250" s="5" t="str">
+      <c r="B250" t="str">
         <f t="shared" si="6"/>
         <v>Tuesday</v>
       </c>
-      <c r="C250" s="18">
+      <c r="C250" s="15">
         <v>29</v>
       </c>
-      <c r="D250" s="18">
+      <c r="D250" s="15">
         <v>28</v>
       </c>
-      <c r="E250" s="18">
+      <c r="E250" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="9">
+      <c r="A251" s="8">
         <v>45518</v>
       </c>
-      <c r="B251" s="5" t="str">
+      <c r="B251" t="str">
         <f t="shared" si="6"/>
         <v>Wednesday</v>
       </c>
-      <c r="C251" s="18">
-        <v>33</v>
-      </c>
-      <c r="D251" s="18">
-        <v>30</v>
-      </c>
-      <c r="E251" s="18">
+      <c r="C251" s="15">
+        <v>68</v>
+      </c>
+      <c r="D251" s="15">
+        <v>75</v>
+      </c>
+      <c r="E251" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="9">
+      <c r="A252" s="8">
         <v>45519</v>
       </c>
-      <c r="B252" s="5" t="str">
+      <c r="B252" t="str">
         <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
-      <c r="C252" s="18">
-        <v>35</v>
-      </c>
-      <c r="D252" s="18">
-        <v>32</v>
-      </c>
-      <c r="E252" s="18">
+      <c r="C252" s="15">
+        <v>75</v>
+      </c>
+      <c r="D252" s="15">
+        <v>78</v>
+      </c>
+      <c r="E252" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="9">
+      <c r="A253" s="8">
         <v>45520</v>
       </c>
-      <c r="B253" s="5" t="str">
+      <c r="B253" t="str">
         <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
-      <c r="C253" s="18">
+      <c r="C253" s="15">
         <v>66</v>
       </c>
-      <c r="D253" s="18">
+      <c r="D253" s="15">
         <v>80</v>
       </c>
-      <c r="E253" s="18">
+      <c r="E253" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="9">
+      <c r="A254" s="8">
         <v>45521</v>
       </c>
-      <c r="B254" s="5" t="str">
+      <c r="B254" t="str">
         <f t="shared" si="6"/>
         <v>Saturday</v>
       </c>
-      <c r="C254" s="18"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="18"/>
+      <c r="C254" s="15"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="15"/>
     </row>
     <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="9">
+      <c r="A255" s="8">
         <v>45522</v>
       </c>
-      <c r="B255" s="5" t="str">
+      <c r="B255" t="str">
         <f t="shared" si="6"/>
         <v>Sunday</v>
       </c>
-      <c r="C255" s="18"/>
-      <c r="D255" s="18"/>
-      <c r="E255" s="18"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15"/>
     </row>
     <row r="256" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="9">
+      <c r="A256" s="8">
         <v>45523</v>
       </c>
-      <c r="B256" s="5" t="str">
+      <c r="B256" t="str">
         <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
-      <c r="C256" s="18">
-        <v>68</v>
-      </c>
-      <c r="D256" s="18">
-        <v>75</v>
-      </c>
-      <c r="E256" s="18">
-        <v>0</v>
+      <c r="C256" s="15">
+        <v>301</v>
+      </c>
+      <c r="D256" s="15">
+        <f>C256-25</f>
+        <v>276</v>
+      </c>
+      <c r="E256" s="15">
+        <f>D256-25</f>
+        <v>251</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="9">
+      <c r="A257" s="8">
         <v>45524</v>
       </c>
-      <c r="B257" s="5" t="str">
-        <f t="shared" ref="B257" si="7">TEXT(A257, "dddd")</f>
+      <c r="B257" t="str">
+        <f t="shared" ref="B257:B258" si="7">TEXT(A257, "dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="C257" s="18">
-        <v>75</v>
-      </c>
-      <c r="D257" s="18">
-        <v>78</v>
-      </c>
-      <c r="E257" s="18">
-        <v>0</v>
+      <c r="C257" s="15">
+        <v>323</v>
+      </c>
+      <c r="D257" s="15">
+        <f t="shared" ref="D257:E305" si="8">C257-25</f>
+        <v>298</v>
+      </c>
+      <c r="E257" s="15">
+        <f t="shared" si="8"/>
+        <v>273</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
+      <c r="A258" s="8">
+        <v>45525</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="7"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C258" s="15">
+        <v>330</v>
+      </c>
+      <c r="D258" s="15">
+        <f t="shared" si="8"/>
+        <v>305</v>
+      </c>
+      <c r="E258" s="15">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
     </row>
     <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
+      <c r="A259" s="8">
+        <v>45526</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" ref="B259:B271" si="9">TEXT(A259, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C259" s="15">
+        <v>358</v>
+      </c>
+      <c r="D259" s="15">
+        <f t="shared" si="8"/>
+        <v>333</v>
+      </c>
+      <c r="E259" s="15">
+        <f t="shared" si="8"/>
+        <v>308</v>
+      </c>
     </row>
     <row r="260" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
+      <c r="A260" s="8">
+        <v>45527</v>
+      </c>
+      <c r="B260" t="str">
+        <f t="shared" si="9"/>
+        <v>Friday</v>
+      </c>
+      <c r="C260" s="15">
+        <v>365</v>
+      </c>
+      <c r="D260" s="15">
+        <f t="shared" si="8"/>
+        <v>340</v>
+      </c>
+      <c r="E260" s="15">
+        <f t="shared" si="8"/>
+        <v>315</v>
+      </c>
     </row>
     <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
+      <c r="A261" s="8">
+        <v>45528</v>
+      </c>
+      <c r="B261" t="str">
+        <f t="shared" si="9"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C261" s="15"/>
+      <c r="D261" s="15"/>
+      <c r="E261" s="15"/>
     </row>
     <row r="262" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
+      <c r="A262" s="8">
+        <v>45529</v>
+      </c>
+      <c r="B262" t="str">
+        <f t="shared" si="9"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C262" s="15"/>
+      <c r="D262" s="15"/>
+      <c r="E262" s="15"/>
     </row>
     <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
+      <c r="A263" s="8">
+        <v>45530</v>
+      </c>
+      <c r="B263" t="str">
+        <f t="shared" si="9"/>
+        <v>Monday</v>
+      </c>
+      <c r="C263" s="15">
+        <v>366</v>
+      </c>
+      <c r="D263" s="15">
+        <f t="shared" si="8"/>
+        <v>341</v>
+      </c>
+      <c r="E263" s="15">
+        <f t="shared" si="8"/>
+        <v>316</v>
+      </c>
     </row>
     <row r="264" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
+      <c r="A264" s="8">
+        <v>45531</v>
+      </c>
+      <c r="B264" t="str">
+        <f t="shared" si="9"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C264" s="15">
+        <v>389</v>
+      </c>
+      <c r="D264" s="15">
+        <f t="shared" si="8"/>
+        <v>364</v>
+      </c>
+      <c r="E264" s="15">
+        <f t="shared" si="8"/>
+        <v>339</v>
+      </c>
     </row>
     <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
+      <c r="A265" s="8">
+        <v>45532</v>
+      </c>
+      <c r="B265" t="str">
+        <f t="shared" si="9"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C265" s="15">
+        <v>365</v>
+      </c>
+      <c r="D265" s="15">
+        <f t="shared" si="8"/>
+        <v>340</v>
+      </c>
+      <c r="E265" s="15">
+        <f t="shared" si="8"/>
+        <v>315</v>
+      </c>
     </row>
     <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
+      <c r="A266" s="8">
+        <v>45533</v>
+      </c>
+      <c r="B266" t="str">
+        <f t="shared" si="9"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C266" s="15">
+        <v>367</v>
+      </c>
+      <c r="D266" s="15">
+        <f t="shared" si="8"/>
+        <v>342</v>
+      </c>
+      <c r="E266" s="15">
+        <f t="shared" si="8"/>
+        <v>317</v>
+      </c>
     </row>
     <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
+      <c r="A267" s="8">
+        <v>45534</v>
+      </c>
+      <c r="B267" t="str">
+        <f t="shared" si="9"/>
+        <v>Friday</v>
+      </c>
+      <c r="C267" s="15">
+        <v>330</v>
+      </c>
+      <c r="D267" s="15">
+        <f t="shared" si="8"/>
+        <v>305</v>
+      </c>
+      <c r="E267" s="15">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
     </row>
     <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
+      <c r="A268" s="8">
+        <v>45535</v>
+      </c>
+      <c r="B268" t="str">
+        <f t="shared" si="9"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C268" s="15"/>
+      <c r="D268" s="15"/>
+      <c r="E268" s="15"/>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
+      <c r="A269" s="8">
+        <v>45536</v>
+      </c>
+      <c r="B269" t="str">
+        <f t="shared" si="9"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C269" s="15"/>
+      <c r="D269" s="15"/>
+      <c r="E269" s="15"/>
     </row>
     <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
+      <c r="A270" s="8">
+        <v>45537</v>
+      </c>
+      <c r="B270" t="str">
+        <f t="shared" si="9"/>
+        <v>Monday</v>
+      </c>
+      <c r="C270" s="15">
+        <v>360</v>
+      </c>
+      <c r="D270" s="15">
+        <f t="shared" si="8"/>
+        <v>335</v>
+      </c>
+      <c r="E270" s="15">
+        <f t="shared" si="8"/>
+        <v>310</v>
+      </c>
     </row>
     <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
+      <c r="A271" s="8">
+        <v>45538</v>
+      </c>
+      <c r="B271" t="str">
+        <f t="shared" si="9"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C271" s="15">
+        <v>375</v>
+      </c>
+      <c r="D271" s="15">
+        <f t="shared" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="E271" s="15">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
     </row>
     <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-    </row>
-    <row r="273" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-    </row>
-    <row r="274" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-    </row>
-    <row r="275" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-    </row>
-    <row r="276" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-    </row>
-    <row r="277" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-    </row>
-    <row r="278" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-    </row>
-    <row r="279" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-    </row>
-    <row r="280" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-    </row>
-    <row r="281" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-    </row>
-    <row r="282" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-    </row>
-    <row r="283" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-    </row>
-    <row r="284" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-    </row>
-    <row r="285" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-    </row>
-    <row r="286" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-    </row>
-    <row r="287" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-    </row>
-    <row r="289" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-    </row>
-    <row r="290" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-    </row>
-    <row r="291" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-    </row>
-    <row r="292" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-    </row>
-    <row r="293" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-    </row>
-    <row r="294" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-    </row>
-    <row r="295" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-    </row>
-    <row r="296" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-    </row>
-    <row r="297" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-    </row>
-    <row r="298" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-    </row>
-    <row r="299" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-    </row>
-    <row r="300" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-    </row>
-    <row r="301" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-    </row>
-    <row r="302" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-    </row>
-    <row r="303" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-    </row>
-    <row r="304" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
-    </row>
-    <row r="305" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
-    </row>
-    <row r="306" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="8">
+        <v>45539</v>
+      </c>
+      <c r="B272" t="str">
+        <f t="shared" ref="B272:B305" si="10">TEXT(A272, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C272" s="15">
+        <v>380</v>
+      </c>
+      <c r="D272" s="15">
+        <f t="shared" si="8"/>
+        <v>355</v>
+      </c>
+      <c r="E272" s="15">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="8">
+        <v>45540</v>
+      </c>
+      <c r="B273" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C273" s="15">
+        <v>389</v>
+      </c>
+      <c r="D273" s="15">
+        <f t="shared" si="8"/>
+        <v>364</v>
+      </c>
+      <c r="E273" s="15">
+        <f t="shared" si="8"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="8">
+        <v>45541</v>
+      </c>
+      <c r="B274" t="str">
+        <f t="shared" si="10"/>
+        <v>Friday</v>
+      </c>
+      <c r="C274" s="15">
+        <v>379</v>
+      </c>
+      <c r="D274" s="15">
+        <f t="shared" si="8"/>
+        <v>354</v>
+      </c>
+      <c r="E274" s="15">
+        <f t="shared" si="8"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="8">
+        <v>45542</v>
+      </c>
+      <c r="B275" t="str">
+        <f t="shared" si="10"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C275" s="15"/>
+      <c r="D275" s="15"/>
+      <c r="E275" s="15"/>
+    </row>
+    <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="8">
+        <v>45543</v>
+      </c>
+      <c r="B276" t="str">
+        <f t="shared" si="10"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C276" s="15"/>
+      <c r="D276" s="15"/>
+      <c r="E276" s="15"/>
+    </row>
+    <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="8">
+        <v>45544</v>
+      </c>
+      <c r="B277" t="str">
+        <f t="shared" si="10"/>
+        <v>Monday</v>
+      </c>
+      <c r="C277" s="15">
+        <v>380</v>
+      </c>
+      <c r="D277" s="15">
+        <f t="shared" si="8"/>
+        <v>355</v>
+      </c>
+      <c r="E277" s="15">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="8">
+        <v>45545</v>
+      </c>
+      <c r="B278" t="str">
+        <f t="shared" si="10"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C278" s="15">
+        <v>377</v>
+      </c>
+      <c r="D278" s="15">
+        <f t="shared" si="8"/>
+        <v>352</v>
+      </c>
+      <c r="E278" s="15">
+        <f t="shared" si="8"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="8">
+        <v>45546</v>
+      </c>
+      <c r="B279" t="str">
+        <f t="shared" si="10"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C279" s="15">
+        <v>388</v>
+      </c>
+      <c r="D279" s="15">
+        <f t="shared" si="8"/>
+        <v>363</v>
+      </c>
+      <c r="E279" s="15">
+        <f t="shared" si="8"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="8">
+        <v>45547</v>
+      </c>
+      <c r="B280" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C280" s="15">
+        <v>380</v>
+      </c>
+      <c r="D280" s="15">
+        <f t="shared" si="8"/>
+        <v>355</v>
+      </c>
+      <c r="E280" s="15">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="8">
+        <v>45548</v>
+      </c>
+      <c r="B281" t="str">
+        <f t="shared" si="10"/>
+        <v>Friday</v>
+      </c>
+      <c r="C281" s="15">
+        <v>375</v>
+      </c>
+      <c r="D281" s="15">
+        <f t="shared" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="E281" s="15">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="8">
+        <v>45549</v>
+      </c>
+      <c r="B282" t="str">
+        <f t="shared" si="10"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C282" s="15"/>
+      <c r="D282" s="15"/>
+      <c r="E282" s="15"/>
+    </row>
+    <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="8">
+        <v>45550</v>
+      </c>
+      <c r="B283" t="str">
+        <f t="shared" si="10"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C283" s="15"/>
+      <c r="D283" s="15"/>
+      <c r="E283" s="15"/>
+    </row>
+    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="8">
+        <v>45551</v>
+      </c>
+      <c r="B284" t="str">
+        <f t="shared" si="10"/>
+        <v>Monday</v>
+      </c>
+      <c r="C284" s="15">
+        <v>384</v>
+      </c>
+      <c r="D284" s="15">
+        <f t="shared" si="8"/>
+        <v>359</v>
+      </c>
+      <c r="E284" s="15">
+        <f t="shared" si="8"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="8">
+        <v>45552</v>
+      </c>
+      <c r="B285" t="str">
+        <f t="shared" si="10"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C285" s="15">
+        <v>387</v>
+      </c>
+      <c r="D285" s="15">
+        <f t="shared" si="8"/>
+        <v>362</v>
+      </c>
+      <c r="E285" s="15">
+        <f t="shared" si="8"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="8">
+        <v>45553</v>
+      </c>
+      <c r="B286" t="str">
+        <f t="shared" si="10"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C286" s="15">
+        <v>394</v>
+      </c>
+      <c r="D286" s="15">
+        <f t="shared" si="8"/>
+        <v>369</v>
+      </c>
+      <c r="E286" s="15">
+        <f t="shared" si="8"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="8">
+        <v>45554</v>
+      </c>
+      <c r="B287" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C287" s="15">
+        <v>382</v>
+      </c>
+      <c r="D287" s="15">
+        <f t="shared" si="8"/>
+        <v>357</v>
+      </c>
+      <c r="E287" s="15">
+        <f t="shared" si="8"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="8">
+        <v>45555</v>
+      </c>
+      <c r="B288" t="str">
+        <f t="shared" si="10"/>
+        <v>Friday</v>
+      </c>
+      <c r="C288" s="15">
+        <v>380</v>
+      </c>
+      <c r="D288" s="15">
+        <f t="shared" si="8"/>
+        <v>355</v>
+      </c>
+      <c r="E288" s="15">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="8">
+        <v>45556</v>
+      </c>
+      <c r="B289" t="str">
+        <f t="shared" si="10"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C289" s="15"/>
+      <c r="D289" s="15"/>
+      <c r="E289" s="15"/>
+    </row>
+    <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="8">
+        <v>45557</v>
+      </c>
+      <c r="B290" t="str">
+        <f t="shared" si="10"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C290" s="15"/>
+      <c r="D290" s="15"/>
+      <c r="E290" s="15"/>
+    </row>
+    <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="8">
+        <v>45558</v>
+      </c>
+      <c r="B291" t="str">
+        <f t="shared" si="10"/>
+        <v>Monday</v>
+      </c>
+      <c r="C291" s="15">
+        <v>389</v>
+      </c>
+      <c r="D291" s="15">
+        <f t="shared" si="8"/>
+        <v>364</v>
+      </c>
+      <c r="E291" s="15">
+        <f t="shared" si="8"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="8">
+        <v>45559</v>
+      </c>
+      <c r="B292" t="str">
+        <f t="shared" si="10"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C292" s="15">
+        <v>391</v>
+      </c>
+      <c r="D292" s="15">
+        <f t="shared" si="8"/>
+        <v>366</v>
+      </c>
+      <c r="E292" s="15">
+        <f t="shared" si="8"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="8">
+        <v>45560</v>
+      </c>
+      <c r="B293" t="str">
+        <f t="shared" si="10"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C293" s="15">
+        <v>390</v>
+      </c>
+      <c r="D293" s="15">
+        <f t="shared" si="8"/>
+        <v>365</v>
+      </c>
+      <c r="E293" s="15">
+        <f t="shared" si="8"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="8">
+        <v>45561</v>
+      </c>
+      <c r="B294" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C294" s="15">
+        <v>385</v>
+      </c>
+      <c r="D294" s="15">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="E294" s="15">
+        <f t="shared" si="8"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="8">
+        <v>45562</v>
+      </c>
+      <c r="B295" t="str">
+        <f t="shared" si="10"/>
+        <v>Friday</v>
+      </c>
+      <c r="C295" s="15">
+        <v>380</v>
+      </c>
+      <c r="D295" s="15">
+        <f t="shared" si="8"/>
+        <v>355</v>
+      </c>
+      <c r="E295" s="15">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="8">
+        <v>45563</v>
+      </c>
+      <c r="B296" t="str">
+        <f t="shared" si="10"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C296" s="15"/>
+      <c r="D296" s="15"/>
+      <c r="E296" s="15"/>
+    </row>
+    <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="8">
+        <v>45564</v>
+      </c>
+      <c r="B297" t="str">
+        <f t="shared" si="10"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C297" s="15"/>
+      <c r="D297" s="15"/>
+      <c r="E297" s="15"/>
+    </row>
+    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="8">
+        <v>45565</v>
+      </c>
+      <c r="B298" t="str">
+        <f t="shared" si="10"/>
+        <v>Monday</v>
+      </c>
+      <c r="C298" s="15">
+        <v>375</v>
+      </c>
+      <c r="D298" s="15">
+        <f t="shared" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="E298" s="15">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="8">
+        <v>45566</v>
+      </c>
+      <c r="B299" t="str">
+        <f t="shared" si="10"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C299" s="15">
+        <v>385</v>
+      </c>
+      <c r="D299" s="15">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="E299" s="15">
+        <f t="shared" si="8"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="8">
+        <v>45567</v>
+      </c>
+      <c r="B300" t="str">
+        <f t="shared" si="10"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="C300" s="15">
+        <v>380</v>
+      </c>
+      <c r="D300" s="15">
+        <f t="shared" si="8"/>
+        <v>355</v>
+      </c>
+      <c r="E300" s="15">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="8">
+        <v>45568</v>
+      </c>
+      <c r="B301" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C301" s="15">
+        <v>384</v>
+      </c>
+      <c r="D301" s="15">
+        <f t="shared" si="8"/>
+        <v>359</v>
+      </c>
+      <c r="E301" s="15">
+        <f t="shared" si="8"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="8">
+        <v>45569</v>
+      </c>
+      <c r="B302" t="str">
+        <f t="shared" si="10"/>
+        <v>Friday</v>
+      </c>
+      <c r="C302" s="15">
+        <v>381</v>
+      </c>
+      <c r="D302" s="15">
+        <f t="shared" si="8"/>
+        <v>356</v>
+      </c>
+      <c r="E302" s="15">
+        <f t="shared" si="8"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="8">
+        <v>45570</v>
+      </c>
+      <c r="B303" t="str">
+        <f t="shared" si="10"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C303" s="15"/>
+      <c r="D303" s="15"/>
+      <c r="E303" s="15"/>
+    </row>
+    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="8">
+        <v>45571</v>
+      </c>
+      <c r="B304" t="str">
+        <f t="shared" si="10"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C304" s="15"/>
+      <c r="D304" s="15"/>
+      <c r="E304" s="15"/>
+    </row>
+    <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="8">
+        <v>45572</v>
+      </c>
+      <c r="B305" t="str">
+        <f t="shared" si="10"/>
+        <v>Monday</v>
+      </c>
+      <c r="C305" s="15">
+        <v>378</v>
+      </c>
+      <c r="D305" s="15">
+        <f t="shared" si="8"/>
+        <v>353</v>
+      </c>
+      <c r="E305" s="15">
+        <f t="shared" si="8"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
     </row>
-    <row r="307" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
     </row>
-    <row r="308" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
     </row>
-    <row r="309" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
     </row>
-    <row r="310" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
     </row>
-    <row r="311" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
     </row>
-    <row r="312" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
     </row>
-    <row r="313" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
     </row>
-    <row r="314" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
     </row>
-    <row r="315" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
     </row>
-    <row r="316" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
     </row>
-    <row r="317" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
     </row>
-    <row r="318" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
     </row>
-    <row r="319" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
     </row>
-    <row r="320" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -8726,7 +9330,7 @@
       <c r="E996" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B996"/>
+  <autoFilter ref="B1:B996" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/data/Served Meal Count.xlsx
+++ b/data/Served Meal Count.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\company\project\MLDS_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC28EDEC-DA1B-4ABF-A19B-9ABC9B35AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="1296" windowWidth="15288" windowHeight="13224"/>
+    <workbookView xWindow="14484" yWindow="1524" windowWidth="15288" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maywood-Garfield" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,12 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -229,7 +230,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -250,25 +251,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,19 +474,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I269" sqref="I269"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="14" customWidth="1"/>
-    <col min="3" max="5" width="18.88671875" style="5" customWidth="1"/>
+    <col min="2" max="5" width="18.88671875" style="5" customWidth="1"/>
     <col min="6" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
@@ -522,16 +510,16 @@
       <c r="A2" s="6">
         <v>45159</v>
       </c>
-      <c r="B2" s="15">
-        <v>380</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="14">
+        <v>380</v>
+      </c>
+      <c r="C2" s="16">
         <v>289</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>350</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <v>275</v>
       </c>
     </row>
@@ -539,16 +527,16 @@
       <c r="A3" s="6">
         <v>45160</v>
       </c>
-      <c r="B3" s="15">
-        <v>380</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="B3" s="14">
+        <v>380</v>
+      </c>
+      <c r="C3" s="16">
         <v>332</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>350</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>272</v>
       </c>
     </row>
@@ -556,16 +544,16 @@
       <c r="A4" s="6">
         <v>45161</v>
       </c>
-      <c r="B4" s="15">
-        <v>380</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="14">
+        <v>380</v>
+      </c>
+      <c r="C4" s="16">
         <v>346</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>350</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>288</v>
       </c>
     </row>
@@ -573,16 +561,16 @@
       <c r="A5" s="6">
         <v>45162</v>
       </c>
-      <c r="B5" s="15">
-        <v>380</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5" s="14">
+        <v>380</v>
+      </c>
+      <c r="C5" s="16">
         <v>366</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>350</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>292</v>
       </c>
     </row>
@@ -590,16 +578,16 @@
       <c r="A6" s="6">
         <v>45163</v>
       </c>
-      <c r="B6" s="15">
-        <v>380</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="14">
+        <v>380</v>
+      </c>
+      <c r="C6" s="16">
         <v>367</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>312</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>284</v>
       </c>
     </row>
@@ -607,16 +595,16 @@
       <c r="A7" s="6">
         <v>45166</v>
       </c>
-      <c r="B7" s="15">
-        <v>380</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B7" s="14">
+        <v>380</v>
+      </c>
+      <c r="C7" s="16">
         <v>341</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>312</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>268</v>
       </c>
     </row>
@@ -624,16 +612,16 @@
       <c r="A8" s="6">
         <v>45167</v>
       </c>
-      <c r="B8" s="15">
-        <v>380</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="B8" s="14">
+        <v>380</v>
+      </c>
+      <c r="C8" s="16">
         <v>354</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>312</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>288</v>
       </c>
     </row>
@@ -641,16 +629,16 @@
       <c r="A9" s="6">
         <v>45168</v>
       </c>
-      <c r="B9" s="15">
-        <v>380</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="14">
+        <v>380</v>
+      </c>
+      <c r="C9" s="16">
         <v>368</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>312</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>294</v>
       </c>
     </row>
@@ -658,16 +646,16 @@
       <c r="A10" s="6">
         <v>45169</v>
       </c>
-      <c r="B10" s="15">
-        <v>380</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="14">
+        <v>380</v>
+      </c>
+      <c r="C10" s="16">
         <v>359</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>312</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>310</v>
       </c>
     </row>
@@ -675,16 +663,16 @@
       <c r="A11" s="8">
         <v>45170</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>377</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>344</v>
       </c>
-      <c r="D11" s="15">
-        <v>300</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="D11" s="14">
+        <v>300</v>
+      </c>
+      <c r="E11" s="16">
         <v>293</v>
       </c>
     </row>
@@ -692,16 +680,16 @@
       <c r="A12" s="6">
         <v>45174</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>377</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>358</v>
       </c>
-      <c r="D12" s="15">
-        <v>300</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="14">
+        <v>300</v>
+      </c>
+      <c r="E12" s="16">
         <v>291</v>
       </c>
     </row>
@@ -709,16 +697,16 @@
       <c r="A13" s="6">
         <v>45175</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>377</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>376</v>
       </c>
-      <c r="D13" s="15">
-        <v>300</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="D13" s="14">
+        <v>300</v>
+      </c>
+      <c r="E13" s="16">
         <v>289</v>
       </c>
     </row>
@@ -726,16 +714,16 @@
       <c r="A14" s="6">
         <v>45176</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>377</v>
       </c>
-      <c r="C14" s="18">
-        <v>380</v>
-      </c>
-      <c r="D14" s="15">
-        <v>300</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="C14" s="16">
+        <v>380</v>
+      </c>
+      <c r="D14" s="14">
+        <v>300</v>
+      </c>
+      <c r="E14" s="16">
         <v>274</v>
       </c>
     </row>
@@ -743,16 +731,16 @@
       <c r="A15" s="6">
         <v>45177</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>377</v>
       </c>
-      <c r="C15" s="18">
-        <v>380</v>
-      </c>
-      <c r="D15" s="15">
-        <v>300</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="C15" s="16">
+        <v>380</v>
+      </c>
+      <c r="D15" s="14">
+        <v>300</v>
+      </c>
+      <c r="E15" s="16">
         <v>278</v>
       </c>
     </row>
@@ -760,16 +748,16 @@
       <c r="A16" s="6">
         <v>45180</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>379</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>370</v>
       </c>
-      <c r="D16" s="15">
-        <v>300</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="14">
+        <v>300</v>
+      </c>
+      <c r="E16" s="16">
         <v>310</v>
       </c>
     </row>
@@ -777,16 +765,16 @@
       <c r="A17" s="6">
         <v>45181</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>370</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <v>373</v>
       </c>
-      <c r="D17" s="15">
-        <v>300</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="D17" s="14">
+        <v>300</v>
+      </c>
+      <c r="E17" s="16">
         <v>313</v>
       </c>
     </row>
@@ -794,16 +782,16 @@
       <c r="A18" s="6">
         <v>45182</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>379</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <v>385</v>
       </c>
-      <c r="D18" s="15">
-        <v>300</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="14">
+        <v>300</v>
+      </c>
+      <c r="E18" s="16">
         <v>308</v>
       </c>
     </row>
@@ -811,16 +799,16 @@
       <c r="A19" s="6">
         <v>45183</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>379</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>370</v>
       </c>
-      <c r="D19" s="15">
-        <v>300</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="14">
+        <v>300</v>
+      </c>
+      <c r="E19" s="16">
         <v>294</v>
       </c>
     </row>
@@ -828,16 +816,16 @@
       <c r="A20" s="6">
         <v>45184</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>379</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <v>385</v>
       </c>
-      <c r="D20" s="15">
-        <v>300</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D20" s="14">
+        <v>300</v>
+      </c>
+      <c r="E20" s="16">
         <v>296</v>
       </c>
     </row>
@@ -845,16 +833,16 @@
       <c r="A21" s="6">
         <v>45187</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>400</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>386</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>315</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>303</v>
       </c>
     </row>
@@ -862,16 +850,16 @@
       <c r="A22" s="6">
         <v>45188</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>400</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="16">
         <v>390</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>315</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>310</v>
       </c>
     </row>
@@ -879,16 +867,16 @@
       <c r="A23" s="6">
         <v>45189</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>408</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <v>394</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>315</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>310</v>
       </c>
     </row>
@@ -896,16 +884,16 @@
       <c r="A24" s="6">
         <v>45190</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>400</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <v>396</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>315</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>308</v>
       </c>
     </row>
@@ -913,16 +901,16 @@
       <c r="A25" s="6">
         <v>45191</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>400</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="16">
         <v>379</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>315</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>315</v>
       </c>
     </row>
@@ -930,16 +918,16 @@
       <c r="A26" s="6">
         <v>45194</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>410</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <v>392</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>339</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <v>304</v>
       </c>
     </row>
@@ -947,16 +935,16 @@
       <c r="A27" s="6">
         <v>45195</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>410</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <v>390</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>339</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>285</v>
       </c>
     </row>
@@ -964,16 +952,16 @@
       <c r="A28" s="6">
         <v>45196</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>415</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="16">
         <v>375</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>339</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>303</v>
       </c>
     </row>
@@ -981,16 +969,16 @@
       <c r="A29" s="6">
         <v>45197</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>410</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <v>385</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>339</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>289</v>
       </c>
     </row>
@@ -998,16 +986,16 @@
       <c r="A30" s="6">
         <v>45198</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>408</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="16">
         <v>386</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>339</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <v>310</v>
       </c>
     </row>
@@ -1015,16 +1003,16 @@
       <c r="A31" s="8">
         <v>45201</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>398</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <v>374</v>
       </c>
-      <c r="D31" s="15">
-        <v>380</v>
-      </c>
-      <c r="E31" s="18">
+      <c r="D31" s="14">
+        <v>380</v>
+      </c>
+      <c r="E31" s="16">
         <v>282</v>
       </c>
     </row>
@@ -1032,16 +1020,16 @@
       <c r="A32" s="6">
         <v>45202</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>398</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="16">
         <v>390</v>
       </c>
-      <c r="D32" s="15">
-        <v>380</v>
-      </c>
-      <c r="E32" s="18">
+      <c r="D32" s="14">
+        <v>380</v>
+      </c>
+      <c r="E32" s="16">
         <v>305</v>
       </c>
     </row>
@@ -1049,16 +1037,16 @@
       <c r="A33" s="6">
         <v>45203</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>395</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <v>382</v>
       </c>
-      <c r="D33" s="15">
-        <v>380</v>
-      </c>
-      <c r="E33" s="18">
+      <c r="D33" s="14">
+        <v>380</v>
+      </c>
+      <c r="E33" s="16">
         <v>358</v>
       </c>
     </row>
@@ -1066,16 +1054,16 @@
       <c r="A34" s="6">
         <v>45204</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>398</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="16">
         <v>374</v>
       </c>
-      <c r="D34" s="15">
-        <v>380</v>
-      </c>
-      <c r="E34" s="18">
+      <c r="D34" s="14">
+        <v>380</v>
+      </c>
+      <c r="E34" s="16">
         <v>298</v>
       </c>
     </row>
@@ -1083,16 +1071,16 @@
       <c r="A35" s="6">
         <v>45209</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>390</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <v>389</v>
       </c>
-      <c r="D35" s="15">
-        <v>380</v>
-      </c>
-      <c r="E35" s="18">
+      <c r="D35" s="14">
+        <v>380</v>
+      </c>
+      <c r="E35" s="16">
         <v>298</v>
       </c>
     </row>
@@ -1100,16 +1088,16 @@
       <c r="A36" s="6">
         <v>45210</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>390</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="16">
         <v>388</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>330</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="16">
         <v>319</v>
       </c>
     </row>
@@ -1117,16 +1105,16 @@
       <c r="A37" s="6">
         <v>45211</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>390</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <v>395</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <v>330</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <v>315</v>
       </c>
     </row>
@@ -1134,16 +1122,16 @@
       <c r="A38" s="6">
         <v>45212</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <v>390</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <v>386</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>330</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <v>305</v>
       </c>
     </row>
@@ -1151,16 +1139,16 @@
       <c r="A39" s="6">
         <v>45215</v>
       </c>
-      <c r="B39" s="15">
-        <v>380</v>
-      </c>
-      <c r="C39" s="18">
+      <c r="B39" s="14">
+        <v>380</v>
+      </c>
+      <c r="C39" s="16">
         <v>376</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>330</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="16">
         <v>315</v>
       </c>
     </row>
@@ -1168,16 +1156,16 @@
       <c r="A40" s="6">
         <v>45216</v>
       </c>
-      <c r="B40" s="15">
-        <v>380</v>
-      </c>
-      <c r="C40" s="18">
+      <c r="B40" s="14">
+        <v>380</v>
+      </c>
+      <c r="C40" s="16">
         <v>392</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <v>330</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="16">
         <v>297</v>
       </c>
     </row>
@@ -1185,16 +1173,16 @@
       <c r="A41" s="6">
         <v>45217</v>
       </c>
-      <c r="B41" s="15">
-        <v>380</v>
-      </c>
-      <c r="C41" s="18">
+      <c r="B41" s="14">
+        <v>380</v>
+      </c>
+      <c r="C41" s="16">
         <v>382</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <v>330</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="16">
         <v>317</v>
       </c>
     </row>
@@ -1202,16 +1190,16 @@
       <c r="A42" s="6">
         <v>45218</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="14">
         <v>375</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="16">
         <v>389</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>330</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="16">
         <v>289</v>
       </c>
     </row>
@@ -1219,16 +1207,16 @@
       <c r="A43" s="6">
         <v>45219</v>
       </c>
-      <c r="B43" s="15">
-        <v>380</v>
-      </c>
-      <c r="C43" s="18">
+      <c r="B43" s="14">
+        <v>380</v>
+      </c>
+      <c r="C43" s="16">
         <v>299</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>330</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="16">
         <v>279</v>
       </c>
     </row>
@@ -1236,16 +1224,16 @@
       <c r="A44" s="6">
         <v>45222</v>
       </c>
-      <c r="B44" s="15">
-        <v>380</v>
-      </c>
-      <c r="C44" s="18">
+      <c r="B44" s="14">
+        <v>380</v>
+      </c>
+      <c r="C44" s="16">
         <v>291</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <v>330</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="16">
         <v>290</v>
       </c>
     </row>
@@ -1253,16 +1241,16 @@
       <c r="A45" s="6">
         <v>45223</v>
       </c>
-      <c r="B45" s="15">
-        <v>380</v>
-      </c>
-      <c r="C45" s="18">
+      <c r="B45" s="14">
+        <v>380</v>
+      </c>
+      <c r="C45" s="16">
         <v>297</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>330</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="16">
         <v>283</v>
       </c>
     </row>
@@ -1270,16 +1258,16 @@
       <c r="A46" s="6">
         <v>45224</v>
       </c>
-      <c r="B46" s="15">
-        <v>380</v>
-      </c>
-      <c r="C46" s="18">
+      <c r="B46" s="14">
+        <v>380</v>
+      </c>
+      <c r="C46" s="16">
         <v>322</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <v>320</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="16">
         <v>335</v>
       </c>
     </row>
@@ -1287,16 +1275,16 @@
       <c r="A47" s="6">
         <v>45225</v>
       </c>
-      <c r="B47" s="15">
-        <v>380</v>
-      </c>
-      <c r="C47" s="18">
+      <c r="B47" s="14">
+        <v>380</v>
+      </c>
+      <c r="C47" s="16">
         <v>307</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <v>320</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="16">
         <v>295</v>
       </c>
     </row>
@@ -1304,16 +1292,16 @@
       <c r="A48" s="6">
         <v>45226</v>
       </c>
-      <c r="B48" s="15">
-        <v>380</v>
-      </c>
-      <c r="C48" s="18">
+      <c r="B48" s="14">
+        <v>380</v>
+      </c>
+      <c r="C48" s="16">
         <v>276</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>320</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="16">
         <v>309</v>
       </c>
     </row>
@@ -1321,16 +1309,16 @@
       <c r="A49" s="6">
         <v>45229</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="14">
         <v>350</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="16">
         <v>256</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="14">
         <v>320</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="16">
         <v>314</v>
       </c>
     </row>
@@ -1338,16 +1326,16 @@
       <c r="A50" s="6">
         <v>45230</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="14">
         <v>350</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="16">
         <v>209</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="14">
         <v>320</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="16">
         <v>305</v>
       </c>
     </row>
@@ -1355,16 +1343,16 @@
       <c r="A51" s="8">
         <v>45231</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="14">
         <v>350</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="16">
         <v>285</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>330</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="16">
         <v>278</v>
       </c>
     </row>
@@ -1372,16 +1360,16 @@
       <c r="A52" s="6">
         <v>45232</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="14">
         <v>350</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="16">
         <v>251</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>330</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="16">
         <v>324</v>
       </c>
     </row>
@@ -1389,16 +1377,16 @@
       <c r="A53" s="6">
         <v>45233</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>350</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="16">
         <v>265</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>330</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="16">
         <v>306</v>
       </c>
     </row>
@@ -1406,16 +1394,16 @@
       <c r="A54" s="6">
         <v>45236</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>324</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="16">
         <v>245</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="14">
         <v>330</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="16">
         <v>298</v>
       </c>
     </row>
@@ -1423,16 +1411,16 @@
       <c r="A55" s="6">
         <v>45237</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <v>324</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="16">
         <v>291</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>330</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="16">
         <v>312</v>
       </c>
     </row>
@@ -1440,16 +1428,16 @@
       <c r="A56" s="6">
         <v>45238</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="14">
         <v>324</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="16">
         <v>294</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>315</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="16">
         <v>289</v>
       </c>
     </row>
@@ -1457,16 +1445,16 @@
       <c r="A57" s="6">
         <v>45239</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <v>324</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="16">
         <v>280</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>315</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="16">
         <v>315</v>
       </c>
     </row>
@@ -1474,16 +1462,16 @@
       <c r="A58" s="6">
         <v>45240</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="14">
         <v>324</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="16">
         <v>292</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>315</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="16">
         <v>310</v>
       </c>
     </row>
@@ -1491,16 +1479,16 @@
       <c r="A59" s="6">
         <v>45243</v>
       </c>
-      <c r="B59" s="15">
-        <v>300</v>
-      </c>
-      <c r="C59" s="18">
+      <c r="B59" s="14">
+        <v>300</v>
+      </c>
+      <c r="C59" s="16">
         <v>268</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>315</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="16">
         <v>302</v>
       </c>
     </row>
@@ -1508,16 +1496,16 @@
       <c r="A60" s="6">
         <v>45244</v>
       </c>
-      <c r="B60" s="15">
-        <v>300</v>
-      </c>
-      <c r="C60" s="18">
+      <c r="B60" s="14">
+        <v>300</v>
+      </c>
+      <c r="C60" s="16">
         <v>265</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="14">
         <v>315</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="16">
         <v>309</v>
       </c>
     </row>
@@ -1525,16 +1513,16 @@
       <c r="A61" s="6">
         <v>45245</v>
       </c>
-      <c r="B61" s="15">
-        <v>300</v>
-      </c>
-      <c r="C61" s="18">
+      <c r="B61" s="14">
+        <v>300</v>
+      </c>
+      <c r="C61" s="16">
         <v>281</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>320</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="16">
         <v>316</v>
       </c>
     </row>
@@ -1542,16 +1530,16 @@
       <c r="A62" s="6">
         <v>45246</v>
       </c>
-      <c r="B62" s="15">
-        <v>300</v>
-      </c>
-      <c r="C62" s="18">
+      <c r="B62" s="14">
+        <v>300</v>
+      </c>
+      <c r="C62" s="16">
         <v>284</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <v>320</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="16">
         <v>305</v>
       </c>
     </row>
@@ -1559,16 +1547,16 @@
       <c r="A63" s="6">
         <v>45247</v>
       </c>
-      <c r="B63" s="15">
-        <v>300</v>
-      </c>
-      <c r="C63" s="18">
+      <c r="B63" s="14">
+        <v>300</v>
+      </c>
+      <c r="C63" s="16">
         <v>277</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>320</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="16">
         <v>303</v>
       </c>
     </row>
@@ -1576,16 +1564,16 @@
       <c r="A64" s="6">
         <v>45250</v>
       </c>
-      <c r="B64" s="15">
-        <v>300</v>
-      </c>
-      <c r="C64" s="18">
+      <c r="B64" s="14">
+        <v>300</v>
+      </c>
+      <c r="C64" s="16">
         <v>307</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="14">
         <v>320</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="16">
         <v>275</v>
       </c>
     </row>
@@ -1593,16 +1581,16 @@
       <c r="A65" s="6">
         <v>45251</v>
       </c>
-      <c r="B65" s="15">
-        <v>300</v>
-      </c>
-      <c r="C65" s="18">
+      <c r="B65" s="14">
+        <v>300</v>
+      </c>
+      <c r="C65" s="16">
         <v>304</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="14">
         <v>320</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="16">
         <v>312</v>
       </c>
     </row>
@@ -1610,12 +1598,12 @@
       <c r="A66" s="6">
         <v>45252</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="18">
+      <c r="B66" s="14"/>
+      <c r="C66" s="16">
         <v>0</v>
       </c>
       <c r="D66"/>
-      <c r="E66" s="18">
+      <c r="E66" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1623,12 +1611,12 @@
       <c r="A67" s="6">
         <v>45253</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="18">
+      <c r="B67" s="14"/>
+      <c r="C67" s="16">
         <v>0</v>
       </c>
       <c r="D67"/>
-      <c r="E67" s="18">
+      <c r="E67" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1636,12 +1624,12 @@
       <c r="A68" s="6">
         <v>45254</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="18">
+      <c r="B68" s="14"/>
+      <c r="C68" s="16">
         <v>0</v>
       </c>
       <c r="D68"/>
-      <c r="E68" s="18">
+      <c r="E68" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1649,16 +1637,16 @@
       <c r="A69" s="6">
         <v>45257</v>
       </c>
-      <c r="B69" s="15">
-        <v>300</v>
-      </c>
-      <c r="C69" s="18">
+      <c r="B69" s="14">
+        <v>300</v>
+      </c>
+      <c r="C69" s="16">
         <v>265</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="14">
         <v>315</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="16">
         <v>305</v>
       </c>
     </row>
@@ -1666,16 +1654,16 @@
       <c r="A70" s="6">
         <v>45258</v>
       </c>
-      <c r="B70" s="15">
-        <v>300</v>
-      </c>
-      <c r="C70" s="18">
+      <c r="B70" s="14">
+        <v>300</v>
+      </c>
+      <c r="C70" s="16">
         <v>242</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="14">
         <v>315</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="16">
         <v>327</v>
       </c>
     </row>
@@ -1683,16 +1671,16 @@
       <c r="A71" s="6">
         <v>45259</v>
       </c>
-      <c r="B71" s="15">
-        <v>300</v>
-      </c>
-      <c r="C71" s="18">
+      <c r="B71" s="14">
+        <v>300</v>
+      </c>
+      <c r="C71" s="16">
         <v>285</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="14">
         <v>315</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="16">
         <v>310</v>
       </c>
     </row>
@@ -1700,16 +1688,16 @@
       <c r="A72" s="6">
         <v>45260</v>
       </c>
-      <c r="B72" s="15">
-        <v>300</v>
-      </c>
-      <c r="C72" s="18">
+      <c r="B72" s="14">
+        <v>300</v>
+      </c>
+      <c r="C72" s="16">
         <v>287</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="14">
         <v>315</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="16">
         <v>329</v>
       </c>
     </row>
@@ -1717,16 +1705,16 @@
       <c r="A73" s="8">
         <v>45261</v>
       </c>
-      <c r="B73" s="15">
-        <v>300</v>
-      </c>
-      <c r="C73" s="18">
+      <c r="B73" s="14">
+        <v>300</v>
+      </c>
+      <c r="C73" s="16">
         <v>260</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="14">
         <v>315</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="16">
         <v>301</v>
       </c>
     </row>
@@ -1734,16 +1722,16 @@
       <c r="A74" s="6">
         <v>45264</v>
       </c>
-      <c r="B74" s="15">
-        <v>300</v>
-      </c>
-      <c r="C74" s="18">
+      <c r="B74" s="14">
+        <v>300</v>
+      </c>
+      <c r="C74" s="16">
         <v>318</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="14">
         <v>350</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="16">
         <v>323</v>
       </c>
     </row>
@@ -1751,16 +1739,16 @@
       <c r="A75" s="6">
         <v>45265</v>
       </c>
-      <c r="B75" s="15">
-        <v>300</v>
-      </c>
-      <c r="C75" s="18">
+      <c r="B75" s="14">
+        <v>300</v>
+      </c>
+      <c r="C75" s="16">
         <v>256</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="14">
         <v>350</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="16">
         <v>330</v>
       </c>
     </row>
@@ -1768,16 +1756,16 @@
       <c r="A76" s="6">
         <v>45266</v>
       </c>
-      <c r="B76" s="15">
-        <v>300</v>
-      </c>
-      <c r="C76" s="18">
+      <c r="B76" s="14">
+        <v>300</v>
+      </c>
+      <c r="C76" s="16">
         <v>293</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="14">
         <v>350</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="16">
         <v>354</v>
       </c>
     </row>
@@ -1785,16 +1773,16 @@
       <c r="A77" s="6">
         <v>45267</v>
       </c>
-      <c r="B77" s="15">
-        <v>300</v>
-      </c>
-      <c r="C77" s="18">
+      <c r="B77" s="14">
+        <v>300</v>
+      </c>
+      <c r="C77" s="16">
         <v>288</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="14">
         <v>350</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="16">
         <v>332</v>
       </c>
     </row>
@@ -1802,16 +1790,16 @@
       <c r="A78" s="6">
         <v>45268</v>
       </c>
-      <c r="B78" s="15">
-        <v>300</v>
-      </c>
-      <c r="C78" s="18">
+      <c r="B78" s="14">
+        <v>300</v>
+      </c>
+      <c r="C78" s="16">
         <v>280</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="14">
         <v>350</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="16">
         <v>310</v>
       </c>
     </row>
@@ -1819,16 +1807,16 @@
       <c r="A79" s="6">
         <v>45271</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="14">
         <v>310</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="16">
         <v>248</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="14">
         <v>330</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="16">
         <v>310</v>
       </c>
     </row>
@@ -1836,16 +1824,16 @@
       <c r="A80" s="6">
         <v>45272</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="14">
         <v>310</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C80" s="16">
         <v>278</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="14">
         <v>330</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="16">
         <v>325</v>
       </c>
     </row>
@@ -1853,16 +1841,16 @@
       <c r="A81" s="6">
         <v>45273</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="14">
         <v>310</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="16">
         <v>256</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="14">
         <v>330</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="16">
         <v>308</v>
       </c>
     </row>
@@ -1870,16 +1858,16 @@
       <c r="A82" s="6">
         <v>45274</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="14">
         <v>310</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C82" s="16">
         <v>297</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="14">
         <v>330</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="16">
         <v>315</v>
       </c>
     </row>
@@ -1887,16 +1875,16 @@
       <c r="A83" s="6">
         <v>45275</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="14">
         <v>310</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="16">
         <v>222</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="14">
         <v>330</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="16">
         <v>309</v>
       </c>
     </row>
@@ -1904,16 +1892,16 @@
       <c r="A84" s="6">
         <v>45278</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="14">
         <v>298</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C84" s="16">
         <v>267</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="14">
         <v>360</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="16">
         <v>300</v>
       </c>
     </row>
@@ -1921,16 +1909,16 @@
       <c r="A85" s="6">
         <v>45279</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="14">
         <v>298</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="16">
         <v>323</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="14">
         <v>360</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E85" s="16">
         <v>312</v>
       </c>
     </row>
@@ -1938,16 +1926,16 @@
       <c r="A86" s="6">
         <v>45280</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="14">
         <v>298</v>
       </c>
-      <c r="C86" s="18">
+      <c r="C86" s="16">
         <v>295</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="14">
         <v>360</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="16">
         <v>375</v>
       </c>
     </row>
@@ -1955,16 +1943,16 @@
       <c r="A87" s="6">
         <v>45281</v>
       </c>
-      <c r="B87" s="15">
+      <c r="B87" s="14">
         <v>298</v>
       </c>
-      <c r="C87" s="18">
-        <v>300</v>
-      </c>
-      <c r="D87" s="15">
+      <c r="C87" s="16">
+        <v>300</v>
+      </c>
+      <c r="D87" s="14">
         <v>360</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="16">
         <v>319</v>
       </c>
     </row>
@@ -1972,16 +1960,16 @@
       <c r="A88" s="6">
         <v>45282</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="14">
         <v>298</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="16">
         <v>281</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="14">
         <v>360</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="16">
         <v>350</v>
       </c>
     </row>
@@ -1989,12 +1977,12 @@
       <c r="A89" s="6">
         <v>45285</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="18">
+      <c r="B89" s="14"/>
+      <c r="C89" s="16">
         <v>0</v>
       </c>
       <c r="D89"/>
-      <c r="E89" s="18">
+      <c r="E89" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2002,12 +1990,12 @@
       <c r="A90" s="6">
         <v>45286</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="18">
+      <c r="B90" s="14"/>
+      <c r="C90" s="16">
         <v>0</v>
       </c>
       <c r="D90"/>
-      <c r="E90" s="18">
+      <c r="E90" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2015,12 +2003,12 @@
       <c r="A91" s="6">
         <v>45287</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="18">
+      <c r="B91" s="14"/>
+      <c r="C91" s="16">
         <v>0</v>
       </c>
       <c r="D91"/>
-      <c r="E91" s="18">
+      <c r="E91" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2028,12 +2016,12 @@
       <c r="A92" s="6">
         <v>45288</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="18">
+      <c r="B92" s="14"/>
+      <c r="C92" s="16">
         <v>0</v>
       </c>
       <c r="D92"/>
-      <c r="E92" s="18">
+      <c r="E92" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2041,12 +2029,12 @@
       <c r="A93" s="6">
         <v>45289</v>
       </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="18">
+      <c r="B93" s="14"/>
+      <c r="C93" s="16">
         <v>0</v>
       </c>
       <c r="D93"/>
-      <c r="E93" s="18">
+      <c r="E93" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2054,12 +2042,12 @@
       <c r="A94" s="9">
         <v>45292</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="18">
+      <c r="B94" s="14"/>
+      <c r="C94" s="16">
         <v>0</v>
       </c>
       <c r="D94"/>
-      <c r="E94" s="18">
+      <c r="E94" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2067,12 +2055,12 @@
       <c r="A95" s="6">
         <v>45293</v>
       </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="18">
+      <c r="B95" s="14"/>
+      <c r="C95" s="16">
         <v>0</v>
       </c>
       <c r="D95"/>
-      <c r="E95" s="18">
+      <c r="E95" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2080,12 +2068,12 @@
       <c r="A96" s="6">
         <v>45294</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="18">
+      <c r="B96" s="14"/>
+      <c r="C96" s="16">
         <v>0</v>
       </c>
       <c r="D96"/>
-      <c r="E96" s="18">
+      <c r="E96" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2093,12 +2081,12 @@
       <c r="A97" s="6">
         <v>45295</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="18">
+      <c r="B97" s="14"/>
+      <c r="C97" s="16">
         <v>0</v>
       </c>
       <c r="D97"/>
-      <c r="E97" s="18">
+      <c r="E97" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2106,12 +2094,12 @@
       <c r="A98" s="6">
         <v>45296</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="18">
+      <c r="B98" s="14"/>
+      <c r="C98" s="16">
         <v>0</v>
       </c>
       <c r="D98"/>
-      <c r="E98" s="18">
+      <c r="E98" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2119,16 +2107,16 @@
       <c r="A99" s="6">
         <v>45299</v>
       </c>
-      <c r="B99" s="15">
+      <c r="B99" s="14">
         <v>290</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C99" s="16">
         <v>257</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="14">
         <v>350</v>
       </c>
-      <c r="E99" s="18">
+      <c r="E99" s="16">
         <v>385</v>
       </c>
     </row>
@@ -2136,16 +2124,16 @@
       <c r="A100" s="6">
         <v>45300</v>
       </c>
-      <c r="B100" s="15">
+      <c r="B100" s="14">
         <v>290</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C100" s="16">
         <v>267</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="14">
         <v>350</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="16">
         <v>336</v>
       </c>
     </row>
@@ -2153,16 +2141,16 @@
       <c r="A101" s="6">
         <v>45301</v>
       </c>
-      <c r="B101" s="15">
+      <c r="B101" s="14">
         <v>290</v>
       </c>
-      <c r="C101" s="18">
+      <c r="C101" s="16">
         <v>299</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="14">
         <v>350</v>
       </c>
-      <c r="E101" s="18">
+      <c r="E101" s="16">
         <v>350</v>
       </c>
     </row>
@@ -2170,16 +2158,16 @@
       <c r="A102" s="6">
         <v>45302</v>
       </c>
-      <c r="B102" s="15">
+      <c r="B102" s="14">
         <v>290</v>
       </c>
-      <c r="C102" s="18">
+      <c r="C102" s="16">
         <v>262</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="14">
         <v>350</v>
       </c>
-      <c r="E102" s="18">
+      <c r="E102" s="16">
         <v>313</v>
       </c>
     </row>
@@ -2187,29 +2175,21 @@
       <c r="A103" s="10">
         <v>45303</v>
       </c>
-      <c r="B103" s="15">
-        <v>290</v>
-      </c>
-      <c r="C103" s="15">
-        <v>250</v>
-      </c>
-      <c r="D103" s="15">
-        <v>360</v>
-      </c>
-      <c r="E103" s="15">
-        <v>300</v>
-      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>45306</v>
       </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="18">
+      <c r="B104" s="14"/>
+      <c r="C104" s="16">
         <v>0</v>
       </c>
       <c r="D104"/>
-      <c r="E104" s="18">
+      <c r="E104" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2217,33 +2197,25 @@
       <c r="A105" s="10">
         <v>45307</v>
       </c>
-      <c r="B105" s="15">
-        <v>300</v>
-      </c>
-      <c r="C105" s="15">
-        <v>297</v>
-      </c>
-      <c r="D105" s="15">
-        <v>330</v>
-      </c>
-      <c r="E105" s="15">
-        <v>294</v>
-      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
     </row>
     <row r="106" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>45308</v>
       </c>
-      <c r="B106" s="15">
-        <v>300</v>
-      </c>
-      <c r="C106" s="18">
+      <c r="B106" s="14">
+        <v>300</v>
+      </c>
+      <c r="C106" s="16">
         <v>254</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="14">
         <v>320</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="16">
         <v>317</v>
       </c>
     </row>
@@ -2251,16 +2223,16 @@
       <c r="A107" s="6">
         <v>45309</v>
       </c>
-      <c r="B107" s="15">
-        <v>300</v>
-      </c>
-      <c r="C107" s="18">
-        <v>300</v>
-      </c>
-      <c r="D107" s="15">
+      <c r="B107" s="14">
+        <v>300</v>
+      </c>
+      <c r="C107" s="16">
+        <v>300</v>
+      </c>
+      <c r="D107" s="14">
         <v>320</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="16">
         <v>295</v>
       </c>
     </row>
@@ -2268,16 +2240,16 @@
       <c r="A108" s="6">
         <v>45310</v>
       </c>
-      <c r="B108" s="15">
-        <v>300</v>
-      </c>
-      <c r="C108" s="18">
+      <c r="B108" s="14">
+        <v>300</v>
+      </c>
+      <c r="C108" s="16">
         <v>260</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="14">
         <v>330</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="16">
         <v>325</v>
       </c>
     </row>
@@ -2285,16 +2257,16 @@
       <c r="A109" s="6">
         <v>45313</v>
       </c>
-      <c r="B109" s="15">
-        <v>300</v>
-      </c>
-      <c r="C109" s="18">
-        <v>300</v>
-      </c>
-      <c r="D109" s="15">
+      <c r="B109" s="14">
+        <v>300</v>
+      </c>
+      <c r="C109" s="16">
+        <v>300</v>
+      </c>
+      <c r="D109" s="14">
         <v>330</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="16">
         <v>325</v>
       </c>
     </row>
@@ -2302,16 +2274,16 @@
       <c r="A110" s="6">
         <v>45314</v>
       </c>
-      <c r="B110" s="15">
-        <v>300</v>
-      </c>
-      <c r="C110" s="18">
+      <c r="B110" s="14">
+        <v>300</v>
+      </c>
+      <c r="C110" s="16">
         <v>255</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="14">
         <v>330</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="16">
         <v>330</v>
       </c>
     </row>
@@ -2319,16 +2291,16 @@
       <c r="A111" s="6">
         <v>45315</v>
       </c>
-      <c r="B111" s="15">
-        <v>300</v>
-      </c>
-      <c r="C111" s="18">
+      <c r="B111" s="14">
+        <v>300</v>
+      </c>
+      <c r="C111" s="16">
         <v>274</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="14">
         <v>330</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="16">
         <v>323</v>
       </c>
     </row>
@@ -2336,16 +2308,16 @@
       <c r="A112" s="6">
         <v>45316</v>
       </c>
-      <c r="B112" s="15">
-        <v>300</v>
-      </c>
-      <c r="C112" s="18">
+      <c r="B112" s="14">
+        <v>300</v>
+      </c>
+      <c r="C112" s="16">
         <v>297</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D112" s="14">
         <v>330</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="16">
         <v>294</v>
       </c>
     </row>
@@ -2353,16 +2325,16 @@
       <c r="A113" s="6">
         <v>45317</v>
       </c>
-      <c r="B113" s="15">
-        <v>300</v>
-      </c>
-      <c r="C113" s="18">
+      <c r="B113" s="14">
+        <v>300</v>
+      </c>
+      <c r="C113" s="16">
         <v>266</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="14">
         <v>320</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="16">
         <v>309</v>
       </c>
     </row>
@@ -2370,16 +2342,16 @@
       <c r="A114" s="6">
         <v>45320</v>
       </c>
-      <c r="B114" s="15">
+      <c r="B114" s="14">
         <v>280</v>
       </c>
-      <c r="C114" s="18">
+      <c r="C114" s="16">
         <v>304</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="14">
         <v>320</v>
       </c>
-      <c r="E114" s="18">
+      <c r="E114" s="16">
         <v>324</v>
       </c>
     </row>
@@ -2387,16 +2359,16 @@
       <c r="A115" s="6">
         <v>45321</v>
       </c>
-      <c r="B115" s="15">
+      <c r="B115" s="14">
         <v>280</v>
       </c>
-      <c r="C115" s="18">
+      <c r="C115" s="16">
         <v>221</v>
       </c>
-      <c r="D115" s="15">
+      <c r="D115" s="14">
         <v>320</v>
       </c>
-      <c r="E115" s="18">
+      <c r="E115" s="16">
         <v>328</v>
       </c>
     </row>
@@ -2404,16 +2376,16 @@
       <c r="A116" s="6">
         <v>45322</v>
       </c>
-      <c r="B116" s="15">
+      <c r="B116" s="14">
         <v>280</v>
       </c>
-      <c r="C116" s="18">
+      <c r="C116" s="16">
         <v>282</v>
       </c>
-      <c r="D116" s="15">
+      <c r="D116" s="14">
         <v>320</v>
       </c>
-      <c r="E116" s="18">
+      <c r="E116" s="16">
         <v>337</v>
       </c>
     </row>
@@ -2421,16 +2393,16 @@
       <c r="A117" s="8">
         <v>45323</v>
       </c>
-      <c r="B117" s="15">
+      <c r="B117" s="14">
         <v>280</v>
       </c>
-      <c r="C117" s="18">
+      <c r="C117" s="16">
         <v>257</v>
       </c>
-      <c r="D117" s="15">
+      <c r="D117" s="14">
         <v>320</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E117" s="16">
         <v>297</v>
       </c>
     </row>
@@ -2438,16 +2410,16 @@
       <c r="A118" s="6">
         <v>45324</v>
       </c>
-      <c r="B118" s="15">
+      <c r="B118" s="14">
         <v>280</v>
       </c>
-      <c r="C118" s="18">
+      <c r="C118" s="16">
         <v>248</v>
       </c>
-      <c r="D118" s="15">
+      <c r="D118" s="14">
         <v>330</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E118" s="16">
         <v>317</v>
       </c>
     </row>
@@ -2455,16 +2427,16 @@
       <c r="A119" s="6">
         <v>45327</v>
       </c>
-      <c r="B119" s="15">
+      <c r="B119" s="14">
         <v>290</v>
       </c>
-      <c r="C119" s="18">
+      <c r="C119" s="16">
         <v>239</v>
       </c>
-      <c r="D119" s="15">
+      <c r="D119" s="14">
         <v>330</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="16">
         <v>327</v>
       </c>
     </row>
@@ -2472,16 +2444,16 @@
       <c r="A120" s="6">
         <v>45328</v>
       </c>
-      <c r="B120" s="15">
+      <c r="B120" s="14">
         <v>290</v>
       </c>
-      <c r="C120" s="18">
+      <c r="C120" s="16">
         <v>273</v>
       </c>
-      <c r="D120" s="15">
+      <c r="D120" s="14">
         <v>330</v>
       </c>
-      <c r="E120" s="18">
+      <c r="E120" s="16">
         <v>313</v>
       </c>
     </row>
@@ -2489,16 +2461,16 @@
       <c r="A121" s="6">
         <v>45329</v>
       </c>
-      <c r="B121" s="15">
+      <c r="B121" s="14">
         <v>290</v>
       </c>
-      <c r="C121" s="18">
+      <c r="C121" s="16">
         <v>291</v>
       </c>
-      <c r="D121" s="15">
+      <c r="D121" s="14">
         <v>330</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="16">
         <v>344</v>
       </c>
     </row>
@@ -2506,16 +2478,16 @@
       <c r="A122" s="6">
         <v>45330</v>
       </c>
-      <c r="B122" s="15">
+      <c r="B122" s="14">
         <v>290</v>
       </c>
-      <c r="C122" s="18">
+      <c r="C122" s="16">
         <v>276</v>
       </c>
-      <c r="D122" s="15">
+      <c r="D122" s="14">
         <v>330</v>
       </c>
-      <c r="E122" s="18">
+      <c r="E122" s="16">
         <v>342</v>
       </c>
     </row>
@@ -2523,16 +2495,16 @@
       <c r="A123" s="6">
         <v>45331</v>
       </c>
-      <c r="B123" s="15">
+      <c r="B123" s="14">
         <v>290</v>
       </c>
-      <c r="C123" s="18">
+      <c r="C123" s="16">
         <v>269</v>
       </c>
-      <c r="D123" s="15">
+      <c r="D123" s="14">
         <v>330</v>
       </c>
-      <c r="E123" s="18">
+      <c r="E123" s="16">
         <v>283</v>
       </c>
     </row>
@@ -2540,16 +2512,16 @@
       <c r="A124" s="6">
         <v>45334</v>
       </c>
-      <c r="B124" s="15">
-        <v>300</v>
-      </c>
-      <c r="C124" s="18">
+      <c r="B124" s="14">
+        <v>300</v>
+      </c>
+      <c r="C124" s="16">
         <v>288</v>
       </c>
-      <c r="D124" s="15">
+      <c r="D124" s="14">
         <v>330</v>
       </c>
-      <c r="E124" s="18">
+      <c r="E124" s="16">
         <v>324</v>
       </c>
     </row>
@@ -2557,16 +2529,16 @@
       <c r="A125" s="6">
         <v>45335</v>
       </c>
-      <c r="B125" s="15">
-        <v>300</v>
-      </c>
-      <c r="C125" s="18">
+      <c r="B125" s="14">
+        <v>300</v>
+      </c>
+      <c r="C125" s="16">
         <v>271</v>
       </c>
-      <c r="D125" s="15">
+      <c r="D125" s="14">
         <v>330</v>
       </c>
-      <c r="E125" s="18">
+      <c r="E125" s="16">
         <v>305</v>
       </c>
     </row>
@@ -2574,16 +2546,16 @@
       <c r="A126" s="6">
         <v>45336</v>
       </c>
-      <c r="B126" s="15">
-        <v>300</v>
-      </c>
-      <c r="C126" s="18">
+      <c r="B126" s="14">
+        <v>300</v>
+      </c>
+      <c r="C126" s="16">
         <v>282</v>
       </c>
-      <c r="D126" s="15">
+      <c r="D126" s="14">
         <v>330</v>
       </c>
-      <c r="E126" s="18">
+      <c r="E126" s="16">
         <v>335</v>
       </c>
     </row>
@@ -2591,16 +2563,16 @@
       <c r="A127" s="6">
         <v>45337</v>
       </c>
-      <c r="B127" s="15">
-        <v>300</v>
-      </c>
-      <c r="C127" s="18">
+      <c r="B127" s="14">
+        <v>300</v>
+      </c>
+      <c r="C127" s="16">
         <v>296</v>
       </c>
-      <c r="D127" s="15">
+      <c r="D127" s="14">
         <v>330</v>
       </c>
-      <c r="E127" s="18">
+      <c r="E127" s="16">
         <v>320</v>
       </c>
     </row>
@@ -2608,12 +2580,12 @@
       <c r="A128" s="6">
         <v>45338</v>
       </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="18">
+      <c r="B128" s="14"/>
+      <c r="C128" s="16">
         <v>0</v>
       </c>
       <c r="D128"/>
-      <c r="E128" s="18">
+      <c r="E128" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2621,12 +2593,12 @@
       <c r="A129" s="6">
         <v>45341</v>
       </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="18">
+      <c r="B129" s="14"/>
+      <c r="C129" s="16">
         <v>0</v>
       </c>
       <c r="D129"/>
-      <c r="E129" s="18">
+      <c r="E129" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2634,16 +2606,16 @@
       <c r="A130" s="6">
         <v>45342</v>
       </c>
-      <c r="B130" s="15">
-        <v>300</v>
-      </c>
-      <c r="C130" s="18">
+      <c r="B130" s="14">
+        <v>300</v>
+      </c>
+      <c r="C130" s="16">
         <v>181</v>
       </c>
-      <c r="D130" s="15">
+      <c r="D130" s="14">
         <v>320</v>
       </c>
-      <c r="E130" s="18">
+      <c r="E130" s="16">
         <v>314</v>
       </c>
     </row>
@@ -2651,16 +2623,16 @@
       <c r="A131" s="6">
         <v>45343</v>
       </c>
-      <c r="B131" s="15">
-        <v>300</v>
-      </c>
-      <c r="C131" s="18">
+      <c r="B131" s="14">
+        <v>300</v>
+      </c>
+      <c r="C131" s="16">
         <v>295</v>
       </c>
-      <c r="D131" s="15">
+      <c r="D131" s="14">
         <v>320</v>
       </c>
-      <c r="E131" s="18">
+      <c r="E131" s="16">
         <v>367</v>
       </c>
     </row>
@@ -2668,16 +2640,16 @@
       <c r="A132" s="6">
         <v>45344</v>
       </c>
-      <c r="B132" s="15">
-        <v>300</v>
-      </c>
-      <c r="C132" s="18">
+      <c r="B132" s="14">
+        <v>300</v>
+      </c>
+      <c r="C132" s="16">
         <v>282</v>
       </c>
-      <c r="D132" s="15">
+      <c r="D132" s="14">
         <v>320</v>
       </c>
-      <c r="E132" s="18">
+      <c r="E132" s="16">
         <v>318</v>
       </c>
     </row>
@@ -2685,16 +2657,16 @@
       <c r="A133" s="6">
         <v>45345</v>
       </c>
-      <c r="B133" s="15">
-        <v>300</v>
-      </c>
-      <c r="C133" s="18">
+      <c r="B133" s="14">
+        <v>300</v>
+      </c>
+      <c r="C133" s="16">
         <v>282</v>
       </c>
-      <c r="D133" s="15">
+      <c r="D133" s="14">
         <v>320</v>
       </c>
-      <c r="E133" s="18">
+      <c r="E133" s="16">
         <v>317</v>
       </c>
     </row>
@@ -2702,16 +2674,16 @@
       <c r="A134" s="6">
         <v>45348</v>
       </c>
-      <c r="B134" s="15">
-        <v>300</v>
-      </c>
-      <c r="C134" s="18">
+      <c r="B134" s="14">
+        <v>300</v>
+      </c>
+      <c r="C134" s="16">
         <v>272</v>
       </c>
-      <c r="D134" s="15">
+      <c r="D134" s="14">
         <v>320</v>
       </c>
-      <c r="E134" s="18">
+      <c r="E134" s="16">
         <v>285</v>
       </c>
     </row>
@@ -2719,16 +2691,16 @@
       <c r="A135" s="6">
         <v>45349</v>
       </c>
-      <c r="B135" s="15">
-        <v>300</v>
-      </c>
-      <c r="C135" s="18">
+      <c r="B135" s="14">
+        <v>300</v>
+      </c>
+      <c r="C135" s="16">
         <v>288</v>
       </c>
-      <c r="D135" s="15">
+      <c r="D135" s="14">
         <v>320</v>
       </c>
-      <c r="E135" s="18">
+      <c r="E135" s="16">
         <v>311</v>
       </c>
     </row>
@@ -2736,16 +2708,16 @@
       <c r="A136" s="6">
         <v>45350</v>
       </c>
-      <c r="B136" s="15">
-        <v>300</v>
-      </c>
-      <c r="C136" s="18">
+      <c r="B136" s="14">
+        <v>300</v>
+      </c>
+      <c r="C136" s="16">
         <v>289</v>
       </c>
-      <c r="D136" s="15">
+      <c r="D136" s="14">
         <v>320</v>
       </c>
-      <c r="E136" s="18">
+      <c r="E136" s="16">
         <v>342</v>
       </c>
     </row>
@@ -2753,16 +2725,16 @@
       <c r="A137" s="6">
         <v>45351</v>
       </c>
-      <c r="B137" s="15">
-        <v>300</v>
-      </c>
-      <c r="C137" s="18">
+      <c r="B137" s="14">
+        <v>300</v>
+      </c>
+      <c r="C137" s="16">
         <v>289</v>
       </c>
-      <c r="D137" s="15">
+      <c r="D137" s="14">
         <v>320</v>
       </c>
-      <c r="E137" s="18">
+      <c r="E137" s="16">
         <v>324</v>
       </c>
     </row>
@@ -2770,16 +2742,16 @@
       <c r="A138" s="9">
         <v>45352</v>
       </c>
-      <c r="B138" s="18">
+      <c r="B138" s="16">
         <v>307</v>
       </c>
-      <c r="C138" s="18">
+      <c r="C138" s="16">
         <v>292</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="16">
         <v>257</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="16">
         <v>341</v>
       </c>
     </row>
@@ -2787,16 +2759,16 @@
       <c r="A139" s="6">
         <v>45355</v>
       </c>
-      <c r="B139" s="18">
+      <c r="B139" s="16">
         <v>340</v>
       </c>
-      <c r="C139" s="18">
+      <c r="C139" s="16">
         <v>275</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="16">
         <v>360</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="16">
         <v>292</v>
       </c>
     </row>
@@ -2804,16 +2776,16 @@
       <c r="A140" s="6">
         <v>45356</v>
       </c>
-      <c r="B140" s="18">
+      <c r="B140" s="16">
         <v>297</v>
       </c>
-      <c r="C140" s="18">
+      <c r="C140" s="16">
         <v>289</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="16">
         <v>297</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="16">
         <v>324</v>
       </c>
     </row>
@@ -2821,16 +2793,16 @@
       <c r="A141" s="6">
         <v>45357</v>
       </c>
-      <c r="B141" s="18">
+      <c r="B141" s="16">
         <v>297</v>
       </c>
-      <c r="C141" s="18">
+      <c r="C141" s="16">
         <v>268</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="16">
         <v>317</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E141" s="16">
         <v>310</v>
       </c>
     </row>
@@ -2838,16 +2810,16 @@
       <c r="A142" s="6">
         <v>45358</v>
       </c>
-      <c r="B142" s="18">
+      <c r="B142" s="16">
         <v>297</v>
       </c>
-      <c r="C142" s="18">
+      <c r="C142" s="16">
         <v>273</v>
       </c>
-      <c r="D142" s="18">
+      <c r="D142" s="16">
         <v>317</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="16">
         <v>301</v>
       </c>
     </row>
@@ -2855,16 +2827,16 @@
       <c r="A143" s="6">
         <v>45359</v>
       </c>
-      <c r="B143" s="18">
+      <c r="B143" s="16">
         <v>340</v>
       </c>
-      <c r="C143" s="18">
+      <c r="C143" s="16">
         <v>295</v>
       </c>
-      <c r="D143" s="18">
+      <c r="D143" s="16">
         <v>190</v>
       </c>
-      <c r="E143" s="18">
+      <c r="E143" s="16">
         <v>260</v>
       </c>
     </row>
@@ -2872,16 +2844,16 @@
       <c r="A144" s="6">
         <v>45362</v>
       </c>
-      <c r="B144" s="18">
+      <c r="B144" s="16">
         <v>307</v>
       </c>
-      <c r="C144" s="18">
+      <c r="C144" s="16">
         <v>247</v>
       </c>
-      <c r="D144" s="18">
+      <c r="D144" s="16">
         <v>317</v>
       </c>
-      <c r="E144" s="18">
+      <c r="E144" s="16">
         <v>311</v>
       </c>
     </row>
@@ -2889,16 +2861,16 @@
       <c r="A145" s="6">
         <v>45363</v>
       </c>
-      <c r="B145" s="18">
+      <c r="B145" s="16">
         <v>307</v>
       </c>
-      <c r="C145" s="18">
+      <c r="C145" s="16">
         <v>285</v>
       </c>
-      <c r="D145" s="18">
+      <c r="D145" s="16">
         <v>317</v>
       </c>
-      <c r="E145" s="18">
+      <c r="E145" s="16">
         <v>275</v>
       </c>
     </row>
@@ -2906,16 +2878,16 @@
       <c r="A146" s="6">
         <v>45364</v>
       </c>
-      <c r="B146" s="18">
+      <c r="B146" s="16">
         <v>307</v>
       </c>
-      <c r="C146" s="18">
+      <c r="C146" s="16">
         <v>272</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="16">
         <v>317</v>
       </c>
-      <c r="E146" s="18">
+      <c r="E146" s="16">
         <v>335</v>
       </c>
     </row>
@@ -2923,16 +2895,16 @@
       <c r="A147" s="6">
         <v>45365</v>
       </c>
-      <c r="B147" s="18">
+      <c r="B147" s="16">
         <v>307</v>
       </c>
-      <c r="C147" s="18">
+      <c r="C147" s="16">
         <v>260</v>
       </c>
-      <c r="D147" s="18">
+      <c r="D147" s="16">
         <v>317</v>
       </c>
-      <c r="E147" s="18">
+      <c r="E147" s="16">
         <v>349</v>
       </c>
     </row>
@@ -2940,16 +2912,16 @@
       <c r="A148" s="6">
         <v>45366</v>
       </c>
-      <c r="B148" s="18">
+      <c r="B148" s="16">
         <v>307</v>
       </c>
-      <c r="C148" s="18">
+      <c r="C148" s="16">
         <v>264</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D148" s="16">
         <v>217</v>
       </c>
-      <c r="E148" s="18">
+      <c r="E148" s="16">
         <v>306</v>
       </c>
     </row>
@@ -2957,16 +2929,16 @@
       <c r="A149" s="6">
         <v>45369</v>
       </c>
-      <c r="B149" s="18">
+      <c r="B149" s="16">
         <v>307</v>
       </c>
-      <c r="C149" s="18">
+      <c r="C149" s="16">
         <v>272</v>
       </c>
-      <c r="D149" s="18">
+      <c r="D149" s="16">
         <v>317</v>
       </c>
-      <c r="E149" s="18">
+      <c r="E149" s="16">
         <v>295</v>
       </c>
     </row>
@@ -2974,16 +2946,16 @@
       <c r="A150" s="6">
         <v>45370</v>
       </c>
-      <c r="B150" s="18">
-        <v>0</v>
-      </c>
-      <c r="C150" s="18">
-        <v>0</v>
-      </c>
-      <c r="D150" s="18">
-        <v>0</v>
-      </c>
-      <c r="E150" s="18">
+      <c r="B150" s="16">
+        <v>0</v>
+      </c>
+      <c r="C150" s="16">
+        <v>0</v>
+      </c>
+      <c r="D150" s="16">
+        <v>0</v>
+      </c>
+      <c r="E150" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2991,16 +2963,16 @@
       <c r="A151" s="6">
         <v>45371</v>
       </c>
-      <c r="B151" s="18">
+      <c r="B151" s="16">
         <v>307</v>
       </c>
-      <c r="C151" s="18">
+      <c r="C151" s="16">
         <v>255</v>
       </c>
-      <c r="D151" s="18">
+      <c r="D151" s="16">
         <v>317</v>
       </c>
-      <c r="E151" s="18">
+      <c r="E151" s="16">
         <v>295</v>
       </c>
     </row>
@@ -3008,16 +2980,16 @@
       <c r="A152" s="6">
         <v>45372</v>
       </c>
-      <c r="B152" s="18">
+      <c r="B152" s="16">
         <v>307</v>
       </c>
-      <c r="C152" s="18">
+      <c r="C152" s="16">
         <v>269</v>
       </c>
-      <c r="D152" s="18">
+      <c r="D152" s="16">
         <v>317</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E152" s="16">
         <v>333</v>
       </c>
     </row>
@@ -3026,11 +2998,11 @@
         <v>45373</v>
       </c>
       <c r="B153" s="7"/>
-      <c r="C153" s="18">
+      <c r="C153" s="16">
         <v>0</v>
       </c>
       <c r="D153"/>
-      <c r="E153" s="18">
+      <c r="E153" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3039,11 +3011,11 @@
         <v>45376</v>
       </c>
       <c r="B154" s="7"/>
-      <c r="C154" s="18">
+      <c r="C154" s="16">
         <v>0</v>
       </c>
       <c r="D154"/>
-      <c r="E154" s="18">
+      <c r="E154" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3051,16 +3023,16 @@
       <c r="A155" s="8">
         <v>45383</v>
       </c>
-      <c r="B155" s="18">
+      <c r="B155" s="16">
         <v>307</v>
       </c>
-      <c r="C155" s="18">
+      <c r="C155" s="16">
         <v>270</v>
       </c>
-      <c r="D155" s="18">
+      <c r="D155" s="16">
         <v>307</v>
       </c>
-      <c r="E155" s="18">
+      <c r="E155" s="16">
         <v>295</v>
       </c>
     </row>
@@ -3068,16 +3040,16 @@
       <c r="A156" s="6">
         <v>45384</v>
       </c>
-      <c r="B156" s="18">
+      <c r="B156" s="16">
         <v>307</v>
       </c>
-      <c r="C156" s="18">
+      <c r="C156" s="16">
         <v>277</v>
       </c>
-      <c r="D156" s="18">
+      <c r="D156" s="16">
         <v>274</v>
       </c>
-      <c r="E156" s="18">
+      <c r="E156" s="16">
         <v>304</v>
       </c>
     </row>
@@ -3085,16 +3057,16 @@
       <c r="A157" s="6">
         <v>45385</v>
       </c>
-      <c r="B157" s="18">
+      <c r="B157" s="16">
         <v>307</v>
       </c>
-      <c r="C157" s="18">
+      <c r="C157" s="16">
         <v>281</v>
       </c>
-      <c r="D157" s="18">
+      <c r="D157" s="16">
         <v>317</v>
       </c>
-      <c r="E157" s="18">
+      <c r="E157" s="16">
         <v>322</v>
       </c>
     </row>
@@ -3102,16 +3074,16 @@
       <c r="A158" s="6">
         <v>45386</v>
       </c>
-      <c r="B158" s="18">
+      <c r="B158" s="16">
         <v>307</v>
       </c>
-      <c r="C158" s="18">
-        <v>300</v>
-      </c>
-      <c r="D158" s="18">
+      <c r="C158" s="16">
+        <v>300</v>
+      </c>
+      <c r="D158" s="16">
         <v>317</v>
       </c>
-      <c r="E158" s="18">
+      <c r="E158" s="16">
         <v>294</v>
       </c>
     </row>
@@ -3119,16 +3091,16 @@
       <c r="A159" s="6">
         <v>45387</v>
       </c>
-      <c r="B159" s="18">
+      <c r="B159" s="16">
         <v>307</v>
       </c>
-      <c r="C159" s="18">
+      <c r="C159" s="16">
         <v>243</v>
       </c>
-      <c r="D159" s="18">
+      <c r="D159" s="16">
         <v>307</v>
       </c>
-      <c r="E159" s="18">
+      <c r="E159" s="16">
         <v>305</v>
       </c>
     </row>
@@ -3136,16 +3108,16 @@
       <c r="A160" s="6">
         <v>45390</v>
       </c>
-      <c r="B160" s="18">
-        <v>300</v>
-      </c>
-      <c r="C160" s="18">
+      <c r="B160" s="16">
+        <v>300</v>
+      </c>
+      <c r="C160" s="16">
         <v>243</v>
       </c>
-      <c r="D160" s="18">
+      <c r="D160" s="16">
         <v>307</v>
       </c>
-      <c r="E160" s="18">
+      <c r="E160" s="16">
         <v>254</v>
       </c>
     </row>
@@ -3153,16 +3125,16 @@
       <c r="A161" s="6">
         <v>45391</v>
       </c>
-      <c r="B161" s="18">
-        <v>300</v>
-      </c>
-      <c r="C161" s="18">
+      <c r="B161" s="16">
+        <v>300</v>
+      </c>
+      <c r="C161" s="16">
         <v>263</v>
       </c>
-      <c r="D161" s="18">
+      <c r="D161" s="16">
         <v>307</v>
       </c>
-      <c r="E161" s="18">
+      <c r="E161" s="16">
         <v>296</v>
       </c>
     </row>
@@ -3170,16 +3142,16 @@
       <c r="A162" s="6">
         <v>45392</v>
       </c>
-      <c r="B162" s="18">
-        <v>300</v>
-      </c>
-      <c r="C162" s="18">
+      <c r="B162" s="16">
+        <v>300</v>
+      </c>
+      <c r="C162" s="16">
         <v>254</v>
       </c>
-      <c r="D162" s="18">
+      <c r="D162" s="16">
         <v>317</v>
       </c>
-      <c r="E162" s="18">
+      <c r="E162" s="16">
         <v>281</v>
       </c>
     </row>
@@ -3187,16 +3159,16 @@
       <c r="A163" s="6">
         <v>45393</v>
       </c>
-      <c r="B163" s="18">
-        <v>300</v>
-      </c>
-      <c r="C163" s="18">
+      <c r="B163" s="16">
+        <v>300</v>
+      </c>
+      <c r="C163" s="16">
         <v>290</v>
       </c>
-      <c r="D163" s="18">
+      <c r="D163" s="16">
         <v>307</v>
       </c>
-      <c r="E163" s="18">
+      <c r="E163" s="16">
         <v>285</v>
       </c>
     </row>
@@ -3204,16 +3176,16 @@
       <c r="A164" s="6">
         <v>45394</v>
       </c>
-      <c r="B164" s="18">
-        <v>300</v>
-      </c>
-      <c r="C164" s="18">
+      <c r="B164" s="16">
+        <v>300</v>
+      </c>
+      <c r="C164" s="16">
         <v>249</v>
       </c>
-      <c r="D164" s="18">
+      <c r="D164" s="16">
         <v>307</v>
       </c>
-      <c r="E164" s="18">
+      <c r="E164" s="16">
         <v>294</v>
       </c>
     </row>
@@ -3221,16 +3193,16 @@
       <c r="A165" s="6">
         <v>45397</v>
       </c>
-      <c r="B165" s="18">
+      <c r="B165" s="16">
         <v>307</v>
       </c>
-      <c r="C165" s="18">
+      <c r="C165" s="16">
         <v>250</v>
       </c>
-      <c r="D165" s="18">
+      <c r="D165" s="16">
         <v>307</v>
       </c>
-      <c r="E165" s="18">
+      <c r="E165" s="16">
         <v>282</v>
       </c>
     </row>
@@ -3238,16 +3210,16 @@
       <c r="A166" s="6">
         <v>45398</v>
       </c>
-      <c r="B166" s="18">
+      <c r="B166" s="16">
         <v>307</v>
       </c>
-      <c r="C166" s="18">
+      <c r="C166" s="16">
         <v>266</v>
       </c>
-      <c r="D166" s="18">
+      <c r="D166" s="16">
         <v>307</v>
       </c>
-      <c r="E166" s="18">
+      <c r="E166" s="16">
         <v>296</v>
       </c>
     </row>
@@ -3255,16 +3227,16 @@
       <c r="A167" s="6">
         <v>45399</v>
       </c>
-      <c r="B167" s="18">
+      <c r="B167" s="16">
         <v>307</v>
       </c>
-      <c r="C167" s="18">
+      <c r="C167" s="16">
         <v>273</v>
       </c>
-      <c r="D167" s="18">
+      <c r="D167" s="16">
         <v>307</v>
       </c>
-      <c r="E167" s="18">
+      <c r="E167" s="16">
         <v>267</v>
       </c>
     </row>
@@ -3272,16 +3244,16 @@
       <c r="A168" s="6">
         <v>45400</v>
       </c>
-      <c r="B168" s="18">
+      <c r="B168" s="16">
         <v>307</v>
       </c>
-      <c r="C168" s="18">
+      <c r="C168" s="16">
         <v>285</v>
       </c>
-      <c r="D168" s="18">
+      <c r="D168" s="16">
         <v>307</v>
       </c>
-      <c r="E168" s="18">
+      <c r="E168" s="16">
         <v>304</v>
       </c>
     </row>
@@ -3289,16 +3261,16 @@
       <c r="A169" s="6">
         <v>45401</v>
       </c>
-      <c r="B169" s="18">
+      <c r="B169" s="16">
         <v>307</v>
       </c>
-      <c r="C169" s="18">
+      <c r="C169" s="16">
         <v>268</v>
       </c>
-      <c r="D169" s="18">
+      <c r="D169" s="16">
         <v>237</v>
       </c>
-      <c r="E169" s="18">
+      <c r="E169" s="16">
         <v>168</v>
       </c>
     </row>
@@ -3306,16 +3278,16 @@
       <c r="A170" s="6">
         <v>45404</v>
       </c>
-      <c r="B170" s="18">
+      <c r="B170" s="16">
         <v>295</v>
       </c>
-      <c r="C170" s="18">
+      <c r="C170" s="16">
         <v>274</v>
       </c>
-      <c r="D170" s="18">
+      <c r="D170" s="16">
         <v>307</v>
       </c>
-      <c r="E170" s="18">
+      <c r="E170" s="16">
         <v>270</v>
       </c>
     </row>
@@ -3323,16 +3295,16 @@
       <c r="A171" s="6">
         <v>45405</v>
       </c>
-      <c r="B171" s="18">
+      <c r="B171" s="16">
         <v>295</v>
       </c>
-      <c r="C171" s="18">
+      <c r="C171" s="16">
         <v>284</v>
       </c>
-      <c r="D171" s="18">
+      <c r="D171" s="16">
         <v>307</v>
       </c>
-      <c r="E171" s="18">
+      <c r="E171" s="16">
         <v>309</v>
       </c>
     </row>
@@ -3340,16 +3312,16 @@
       <c r="A172" s="6">
         <v>45406</v>
       </c>
-      <c r="B172" s="18">
+      <c r="B172" s="16">
         <v>295</v>
       </c>
-      <c r="C172" s="18">
+      <c r="C172" s="16">
         <v>275</v>
       </c>
-      <c r="D172" s="18">
+      <c r="D172" s="16">
         <v>307</v>
       </c>
-      <c r="E172" s="18">
+      <c r="E172" s="16">
         <v>298</v>
       </c>
     </row>
@@ -3357,16 +3329,16 @@
       <c r="A173" s="6">
         <v>45407</v>
       </c>
-      <c r="B173" s="18">
+      <c r="B173" s="16">
         <v>295</v>
       </c>
-      <c r="C173" s="18">
+      <c r="C173" s="16">
         <v>287</v>
       </c>
-      <c r="D173" s="18">
+      <c r="D173" s="16">
         <v>307</v>
       </c>
-      <c r="E173" s="18">
+      <c r="E173" s="16">
         <v>330</v>
       </c>
     </row>
@@ -3374,16 +3346,16 @@
       <c r="A174" s="6">
         <v>45408</v>
       </c>
-      <c r="B174" s="18">
+      <c r="B174" s="16">
         <v>295</v>
       </c>
-      <c r="C174" s="18">
+      <c r="C174" s="16">
         <v>259</v>
       </c>
-      <c r="D174" s="18">
+      <c r="D174" s="16">
         <v>307</v>
       </c>
-      <c r="E174" s="18">
+      <c r="E174" s="16">
         <v>309</v>
       </c>
     </row>
@@ -3391,16 +3363,16 @@
       <c r="A175" s="6">
         <v>45411</v>
       </c>
-      <c r="B175" s="18">
+      <c r="B175" s="16">
         <v>307</v>
       </c>
-      <c r="C175" s="18">
+      <c r="C175" s="16">
         <v>265</v>
       </c>
-      <c r="D175" s="18">
+      <c r="D175" s="16">
         <v>307</v>
       </c>
-      <c r="E175" s="18">
+      <c r="E175" s="16">
         <v>316</v>
       </c>
     </row>
@@ -3408,16 +3380,16 @@
       <c r="A176" s="6">
         <v>45412</v>
       </c>
-      <c r="B176" s="18">
+      <c r="B176" s="16">
         <v>307</v>
       </c>
-      <c r="C176" s="18">
+      <c r="C176" s="16">
         <v>285</v>
       </c>
-      <c r="D176" s="18">
+      <c r="D176" s="16">
         <v>307</v>
       </c>
-      <c r="E176" s="18">
+      <c r="E176" s="16">
         <v>293</v>
       </c>
     </row>
@@ -3425,16 +3397,16 @@
       <c r="A177" s="8">
         <v>45413</v>
       </c>
-      <c r="B177" s="15">
+      <c r="B177" s="14">
         <v>310</v>
       </c>
-      <c r="C177" s="18">
-        <v>300</v>
-      </c>
-      <c r="D177" s="15">
+      <c r="C177" s="16">
+        <v>300</v>
+      </c>
+      <c r="D177" s="14">
         <v>330</v>
       </c>
-      <c r="E177" s="18">
+      <c r="E177" s="16">
         <v>312</v>
       </c>
     </row>
@@ -3442,16 +3414,16 @@
       <c r="A178" s="6">
         <v>45414</v>
       </c>
-      <c r="B178" s="15">
+      <c r="B178" s="14">
         <v>310</v>
       </c>
-      <c r="C178" s="18">
+      <c r="C178" s="16">
         <v>282</v>
       </c>
-      <c r="D178" s="15">
+      <c r="D178" s="14">
         <v>330</v>
       </c>
-      <c r="E178" s="18">
+      <c r="E178" s="16">
         <v>298</v>
       </c>
     </row>
@@ -3459,16 +3431,16 @@
       <c r="A179" s="6">
         <v>45415</v>
       </c>
-      <c r="B179" s="15">
+      <c r="B179" s="14">
         <v>310</v>
       </c>
-      <c r="C179" s="18">
+      <c r="C179" s="16">
         <v>273</v>
       </c>
-      <c r="D179" s="15">
+      <c r="D179" s="14">
         <v>330</v>
       </c>
-      <c r="E179" s="18">
+      <c r="E179" s="16">
         <v>330</v>
       </c>
     </row>
@@ -3476,16 +3448,16 @@
       <c r="A180" s="6">
         <v>45418</v>
       </c>
-      <c r="B180" s="16">
-        <v>300</v>
-      </c>
-      <c r="C180" s="18">
+      <c r="B180" s="14">
+        <v>300</v>
+      </c>
+      <c r="C180" s="16">
         <v>266</v>
       </c>
-      <c r="D180" s="15">
+      <c r="D180" s="14">
         <v>320</v>
       </c>
-      <c r="E180" s="18">
+      <c r="E180" s="16">
         <v>299</v>
       </c>
     </row>
@@ -3493,16 +3465,16 @@
       <c r="A181" s="6">
         <v>45419</v>
       </c>
-      <c r="B181" s="16">
-        <v>300</v>
-      </c>
-      <c r="C181" s="18">
+      <c r="B181" s="14">
+        <v>300</v>
+      </c>
+      <c r="C181" s="16">
         <v>289</v>
       </c>
-      <c r="D181" s="15">
+      <c r="D181" s="14">
         <v>320</v>
       </c>
-      <c r="E181" s="18">
+      <c r="E181" s="16">
         <v>315</v>
       </c>
     </row>
@@ -3510,16 +3482,16 @@
       <c r="A182" s="6">
         <v>45420</v>
       </c>
-      <c r="B182" s="16">
-        <v>300</v>
-      </c>
-      <c r="C182" s="18">
+      <c r="B182" s="14">
+        <v>300</v>
+      </c>
+      <c r="C182" s="16">
         <v>294</v>
       </c>
-      <c r="D182" s="15">
+      <c r="D182" s="14">
         <v>350</v>
       </c>
-      <c r="E182" s="18">
+      <c r="E182" s="16">
         <v>317</v>
       </c>
     </row>
@@ -3527,16 +3499,16 @@
       <c r="A183" s="6">
         <v>45421</v>
       </c>
-      <c r="B183" s="16">
-        <v>300</v>
-      </c>
-      <c r="C183" s="18">
+      <c r="B183" s="14">
+        <v>300</v>
+      </c>
+      <c r="C183" s="16">
         <v>285</v>
       </c>
-      <c r="D183" s="15">
+      <c r="D183" s="14">
         <v>350</v>
       </c>
-      <c r="E183" s="18">
+      <c r="E183" s="16">
         <v>318</v>
       </c>
     </row>
@@ -3544,16 +3516,16 @@
       <c r="A184" s="6">
         <v>45422</v>
       </c>
-      <c r="B184" s="16">
-        <v>300</v>
-      </c>
-      <c r="C184" s="18">
+      <c r="B184" s="14">
+        <v>300</v>
+      </c>
+      <c r="C184" s="16">
         <v>250</v>
       </c>
-      <c r="D184" s="15">
+      <c r="D184" s="14">
         <v>350</v>
       </c>
-      <c r="E184" s="18">
+      <c r="E184" s="16">
         <v>291</v>
       </c>
     </row>
@@ -3561,16 +3533,16 @@
       <c r="A185" s="6">
         <v>45425</v>
       </c>
-      <c r="B185" s="16">
+      <c r="B185" s="14">
         <v>290</v>
       </c>
-      <c r="C185" s="18">
+      <c r="C185" s="16">
         <v>274</v>
       </c>
-      <c r="D185" s="15">
+      <c r="D185" s="14">
         <v>350</v>
       </c>
-      <c r="E185" s="18">
+      <c r="E185" s="16">
         <v>282</v>
       </c>
     </row>
@@ -3578,16 +3550,16 @@
       <c r="A186" s="6">
         <v>45426</v>
       </c>
-      <c r="B186" s="16">
+      <c r="B186" s="14">
         <v>290</v>
       </c>
-      <c r="C186" s="18">
+      <c r="C186" s="16">
         <v>278</v>
       </c>
-      <c r="D186" s="15">
+      <c r="D186" s="14">
         <v>350</v>
       </c>
-      <c r="E186" s="18">
+      <c r="E186" s="16">
         <v>308</v>
       </c>
     </row>
@@ -3595,16 +3567,16 @@
       <c r="A187" s="6">
         <v>45427</v>
       </c>
-      <c r="B187" s="16">
+      <c r="B187" s="14">
         <v>290</v>
       </c>
-      <c r="C187" s="18">
+      <c r="C187" s="16">
         <v>276</v>
       </c>
-      <c r="D187" s="15">
+      <c r="D187" s="14">
         <v>330</v>
       </c>
-      <c r="E187" s="18">
+      <c r="E187" s="16">
         <v>318</v>
       </c>
     </row>
@@ -3612,16 +3584,16 @@
       <c r="A188" s="6">
         <v>45428</v>
       </c>
-      <c r="B188" s="16">
+      <c r="B188" s="14">
         <v>290</v>
       </c>
-      <c r="C188" s="18">
-        <v>300</v>
-      </c>
-      <c r="D188" s="15">
+      <c r="C188" s="16">
+        <v>300</v>
+      </c>
+      <c r="D188" s="14">
         <v>330</v>
       </c>
-      <c r="E188" s="18">
+      <c r="E188" s="16">
         <v>295</v>
       </c>
     </row>
@@ -3629,16 +3601,16 @@
       <c r="A189" s="6">
         <v>45429</v>
       </c>
-      <c r="B189" s="16">
+      <c r="B189" s="14">
         <v>290</v>
       </c>
-      <c r="C189" s="18">
+      <c r="C189" s="16">
         <v>262</v>
       </c>
-      <c r="D189" s="15">
+      <c r="D189" s="14">
         <v>330</v>
       </c>
-      <c r="E189" s="18">
+      <c r="E189" s="16">
         <v>294</v>
       </c>
     </row>
@@ -3646,16 +3618,16 @@
       <c r="A190" s="6">
         <v>45432</v>
       </c>
-      <c r="B190" s="16">
-        <v>300</v>
-      </c>
-      <c r="C190" s="18">
+      <c r="B190" s="14">
+        <v>300</v>
+      </c>
+      <c r="C190" s="16">
         <v>285</v>
       </c>
-      <c r="D190" s="15">
+      <c r="D190" s="14">
         <v>330</v>
       </c>
-      <c r="E190" s="18">
+      <c r="E190" s="16">
         <v>295</v>
       </c>
     </row>
@@ -3663,16 +3635,16 @@
       <c r="A191" s="6">
         <v>45433</v>
       </c>
-      <c r="B191" s="16">
-        <v>300</v>
-      </c>
-      <c r="C191" s="18">
+      <c r="B191" s="14">
+        <v>300</v>
+      </c>
+      <c r="C191" s="16">
         <v>283</v>
       </c>
-      <c r="D191" s="15">
+      <c r="D191" s="14">
         <v>330</v>
       </c>
-      <c r="E191" s="18">
+      <c r="E191" s="16">
         <v>299</v>
       </c>
     </row>
@@ -3680,16 +3652,16 @@
       <c r="A192" s="6">
         <v>45434</v>
       </c>
-      <c r="B192" s="16">
-        <v>300</v>
-      </c>
-      <c r="C192" s="18">
+      <c r="B192" s="14">
+        <v>300</v>
+      </c>
+      <c r="C192" s="16">
         <v>257</v>
       </c>
-      <c r="D192" s="15">
+      <c r="D192" s="14">
         <v>350</v>
       </c>
-      <c r="E192" s="18">
+      <c r="E192" s="16">
         <v>282</v>
       </c>
     </row>
@@ -3697,16 +3669,16 @@
       <c r="A193" s="6">
         <v>45435</v>
       </c>
-      <c r="B193" s="16">
-        <v>300</v>
-      </c>
-      <c r="C193" s="18">
+      <c r="B193" s="14">
+        <v>300</v>
+      </c>
+      <c r="C193" s="16">
         <v>239</v>
       </c>
-      <c r="D193" s="15">
+      <c r="D193" s="14">
         <v>350</v>
       </c>
-      <c r="E193" s="18">
+      <c r="E193" s="16">
         <v>320</v>
       </c>
     </row>
@@ -3714,16 +3686,16 @@
       <c r="A194" s="6">
         <v>45436</v>
       </c>
-      <c r="B194" s="16">
-        <v>300</v>
-      </c>
-      <c r="C194" s="18">
+      <c r="B194" s="14">
+        <v>300</v>
+      </c>
+      <c r="C194" s="16">
         <v>275</v>
       </c>
-      <c r="D194" s="15">
+      <c r="D194" s="14">
         <v>350</v>
       </c>
-      <c r="E194" s="18">
+      <c r="E194" s="16">
         <v>297</v>
       </c>
     </row>
@@ -3731,12 +3703,12 @@
       <c r="A195" s="6">
         <v>45439</v>
       </c>
-      <c r="B195" s="15"/>
-      <c r="C195" s="18">
-        <v>0</v>
-      </c>
-      <c r="D195" s="15"/>
-      <c r="E195" s="18">
+      <c r="B195" s="14"/>
+      <c r="C195" s="16">
+        <v>0</v>
+      </c>
+      <c r="D195" s="14"/>
+      <c r="E195" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3744,16 +3716,16 @@
       <c r="A196" s="6">
         <v>45440</v>
       </c>
-      <c r="B196" s="15">
+      <c r="B196" s="14">
         <v>270</v>
       </c>
-      <c r="C196" s="18">
+      <c r="C196" s="16">
         <v>208</v>
       </c>
-      <c r="D196" s="15">
+      <c r="D196" s="14">
         <v>333</v>
       </c>
-      <c r="E196" s="18">
+      <c r="E196" s="16">
         <v>313</v>
       </c>
     </row>
@@ -3761,16 +3733,16 @@
       <c r="A197" s="6">
         <v>45441</v>
       </c>
-      <c r="B197" s="15">
+      <c r="B197" s="14">
         <v>270</v>
       </c>
-      <c r="C197" s="18">
+      <c r="C197" s="16">
         <v>254</v>
       </c>
-      <c r="D197" s="15">
+      <c r="D197" s="14">
         <v>333</v>
       </c>
-      <c r="E197" s="18">
+      <c r="E197" s="16">
         <v>276</v>
       </c>
     </row>
@@ -3778,12 +3750,12 @@
       <c r="A198" s="11">
         <v>45446</v>
       </c>
-      <c r="B198" s="15"/>
-      <c r="C198" s="15">
-        <v>0</v>
-      </c>
-      <c r="D198" s="15"/>
-      <c r="E198" s="15">
+      <c r="B198" s="14"/>
+      <c r="C198" s="14">
+        <v>0</v>
+      </c>
+      <c r="D198" s="14"/>
+      <c r="E198" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3791,12 +3763,12 @@
       <c r="A199" s="12">
         <v>45447</v>
       </c>
-      <c r="B199" s="15"/>
-      <c r="C199" s="15">
-        <v>0</v>
-      </c>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15">
+      <c r="B199" s="14"/>
+      <c r="C199" s="14">
+        <v>0</v>
+      </c>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3804,12 +3776,12 @@
       <c r="A200" s="12">
         <v>45448</v>
       </c>
-      <c r="B200" s="15"/>
-      <c r="C200" s="15">
-        <v>0</v>
-      </c>
-      <c r="D200" s="15"/>
-      <c r="E200" s="15">
+      <c r="B200" s="14"/>
+      <c r="C200" s="14">
+        <v>0</v>
+      </c>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3817,12 +3789,12 @@
       <c r="A201" s="12">
         <v>45449</v>
       </c>
-      <c r="B201" s="15"/>
-      <c r="C201" s="15">
-        <v>0</v>
-      </c>
-      <c r="D201" s="15"/>
-      <c r="E201" s="15">
+      <c r="B201" s="14"/>
+      <c r="C201" s="14">
+        <v>0</v>
+      </c>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3830,12 +3802,12 @@
       <c r="A202" s="12">
         <v>45453</v>
       </c>
-      <c r="B202" s="15"/>
-      <c r="C202" s="15">
-        <v>0</v>
-      </c>
-      <c r="D202" s="15"/>
-      <c r="E202" s="15">
+      <c r="B202" s="14"/>
+      <c r="C202" s="14">
+        <v>0</v>
+      </c>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3843,12 +3815,12 @@
       <c r="A203" s="12">
         <v>45454</v>
       </c>
-      <c r="B203" s="15"/>
-      <c r="C203" s="15">
-        <v>0</v>
-      </c>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15">
+      <c r="B203" s="14"/>
+      <c r="C203" s="14">
+        <v>0</v>
+      </c>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3856,12 +3828,12 @@
       <c r="A204" s="12">
         <v>45455</v>
       </c>
-      <c r="B204" s="15"/>
-      <c r="C204" s="15">
-        <v>0</v>
-      </c>
-      <c r="D204" s="15"/>
-      <c r="E204" s="15">
+      <c r="B204" s="14"/>
+      <c r="C204" s="14">
+        <v>0</v>
+      </c>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3869,12 +3841,12 @@
       <c r="A205" s="12">
         <v>45456</v>
       </c>
-      <c r="B205" s="15"/>
-      <c r="C205" s="15">
-        <v>0</v>
-      </c>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15">
+      <c r="B205" s="14"/>
+      <c r="C205" s="14">
+        <v>0</v>
+      </c>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3882,12 +3854,12 @@
       <c r="A206" s="12">
         <v>45460</v>
       </c>
-      <c r="B206" s="15"/>
-      <c r="C206" s="15">
-        <v>0</v>
-      </c>
-      <c r="D206" s="15"/>
-      <c r="E206" s="15">
+      <c r="B206" s="14"/>
+      <c r="C206" s="14">
+        <v>0</v>
+      </c>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3895,12 +3867,12 @@
       <c r="A207" s="12">
         <v>45461</v>
       </c>
-      <c r="B207" s="15"/>
-      <c r="C207" s="15">
-        <v>0</v>
-      </c>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15">
+      <c r="B207" s="14"/>
+      <c r="C207" s="14">
+        <v>0</v>
+      </c>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3908,12 +3880,12 @@
       <c r="A208" s="12">
         <v>45462</v>
       </c>
-      <c r="B208" s="15"/>
-      <c r="C208" s="15">
-        <v>0</v>
-      </c>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15">
+      <c r="B208" s="14"/>
+      <c r="C208" s="14">
+        <v>0</v>
+      </c>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3921,12 +3893,12 @@
       <c r="A209" s="12">
         <v>45463</v>
       </c>
-      <c r="B209" s="15"/>
-      <c r="C209" s="15">
-        <v>0</v>
-      </c>
-      <c r="D209" s="15"/>
-      <c r="E209" s="15">
+      <c r="B209" s="14"/>
+      <c r="C209" s="14">
+        <v>0</v>
+      </c>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3934,12 +3906,12 @@
       <c r="A210" s="12">
         <v>45467</v>
       </c>
-      <c r="B210" s="17"/>
-      <c r="C210" s="15">
-        <v>0</v>
-      </c>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15">
+      <c r="B210" s="15"/>
+      <c r="C210" s="14">
+        <v>0</v>
+      </c>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3947,12 +3919,12 @@
       <c r="A211" s="12">
         <v>45468</v>
       </c>
-      <c r="B211" s="17"/>
-      <c r="C211" s="15">
-        <v>0</v>
-      </c>
-      <c r="D211" s="15"/>
-      <c r="E211" s="15">
+      <c r="B211" s="15"/>
+      <c r="C211" s="14">
+        <v>0</v>
+      </c>
+      <c r="D211" s="14"/>
+      <c r="E211" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3960,12 +3932,12 @@
       <c r="A212" s="12">
         <v>45469</v>
       </c>
-      <c r="B212" s="15"/>
-      <c r="C212" s="15">
-        <v>0</v>
-      </c>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15">
+      <c r="B212" s="14"/>
+      <c r="C212" s="14">
+        <v>0</v>
+      </c>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3973,12 +3945,12 @@
       <c r="A213" s="12">
         <v>45470</v>
       </c>
-      <c r="B213" s="15"/>
-      <c r="C213" s="15">
-        <v>0</v>
-      </c>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15">
+      <c r="B213" s="14"/>
+      <c r="C213" s="14">
+        <v>0</v>
+      </c>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3986,12 +3958,12 @@
       <c r="A214" s="11">
         <v>45474</v>
       </c>
-      <c r="B214" s="15"/>
-      <c r="C214" s="15">
-        <v>0</v>
-      </c>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15">
+      <c r="B214" s="14"/>
+      <c r="C214" s="14">
+        <v>0</v>
+      </c>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3999,12 +3971,12 @@
       <c r="A215" s="12">
         <v>45475</v>
       </c>
-      <c r="B215" s="15"/>
-      <c r="C215" s="15">
-        <v>0</v>
-      </c>
-      <c r="D215" s="15"/>
-      <c r="E215" s="15">
+      <c r="B215" s="14"/>
+      <c r="C215" s="14">
+        <v>0</v>
+      </c>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4012,12 +3984,12 @@
       <c r="A216" s="12">
         <v>45476</v>
       </c>
-      <c r="B216" s="15"/>
-      <c r="C216" s="15">
-        <v>0</v>
-      </c>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15">
+      <c r="B216" s="14"/>
+      <c r="C216" s="14">
+        <v>0</v>
+      </c>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4025,12 +3997,12 @@
       <c r="A217" s="12">
         <v>45481</v>
       </c>
-      <c r="B217" s="15"/>
-      <c r="C217" s="15">
-        <v>0</v>
-      </c>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15">
+      <c r="B217" s="14"/>
+      <c r="C217" s="14">
+        <v>0</v>
+      </c>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4038,12 +4010,12 @@
       <c r="A218" s="12">
         <v>45482</v>
       </c>
-      <c r="B218" s="15"/>
-      <c r="C218" s="15">
-        <v>0</v>
-      </c>
-      <c r="D218" s="15"/>
-      <c r="E218" s="15">
+      <c r="B218" s="14"/>
+      <c r="C218" s="14">
+        <v>0</v>
+      </c>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4051,12 +4023,12 @@
       <c r="A219" s="12">
         <v>45483</v>
       </c>
-      <c r="B219" s="17"/>
-      <c r="C219" s="15">
-        <v>0</v>
-      </c>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15">
+      <c r="B219" s="15"/>
+      <c r="C219" s="14">
+        <v>0</v>
+      </c>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4064,12 +4036,12 @@
       <c r="A220" s="12">
         <v>45484</v>
       </c>
-      <c r="B220" s="17"/>
-      <c r="C220" s="15">
-        <v>0</v>
-      </c>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15">
+      <c r="B220" s="15"/>
+      <c r="C220" s="14">
+        <v>0</v>
+      </c>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4077,12 +4049,12 @@
       <c r="A221" s="12">
         <v>45485</v>
       </c>
-      <c r="B221" s="17"/>
-      <c r="C221" s="15">
-        <v>0</v>
-      </c>
-      <c r="D221" s="15"/>
-      <c r="E221" s="15">
+      <c r="B221" s="15"/>
+      <c r="C221" s="14">
+        <v>0</v>
+      </c>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4090,12 +4062,12 @@
       <c r="A222" s="12">
         <v>45486</v>
       </c>
-      <c r="B222" s="17"/>
-      <c r="C222" s="15">
-        <v>0</v>
-      </c>
-      <c r="D222" s="15"/>
-      <c r="E222" s="15">
+      <c r="B222" s="15"/>
+      <c r="C222" s="14">
+        <v>0</v>
+      </c>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4103,12 +4075,12 @@
       <c r="A223" s="12">
         <v>45487</v>
       </c>
-      <c r="B223" s="17"/>
-      <c r="C223" s="15">
-        <v>0</v>
-      </c>
-      <c r="D223" s="15"/>
-      <c r="E223" s="15">
+      <c r="B223" s="15"/>
+      <c r="C223" s="14">
+        <v>0</v>
+      </c>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4116,12 +4088,12 @@
       <c r="A224" s="12">
         <v>45488</v>
       </c>
-      <c r="B224" s="17"/>
-      <c r="C224" s="15">
-        <v>0</v>
-      </c>
-      <c r="D224" s="15"/>
-      <c r="E224" s="15">
+      <c r="B224" s="15"/>
+      <c r="C224" s="14">
+        <v>0</v>
+      </c>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4129,12 +4101,12 @@
       <c r="A225" s="12">
         <v>45489</v>
       </c>
-      <c r="B225" s="17"/>
-      <c r="C225" s="15">
-        <v>0</v>
-      </c>
-      <c r="D225" s="15"/>
-      <c r="E225" s="15">
+      <c r="B225" s="15"/>
+      <c r="C225" s="14">
+        <v>0</v>
+      </c>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4142,12 +4114,12 @@
       <c r="A226" s="12">
         <v>45490</v>
       </c>
-      <c r="B226" s="17"/>
-      <c r="C226" s="15">
-        <v>0</v>
-      </c>
-      <c r="D226" s="15"/>
-      <c r="E226" s="15">
+      <c r="B226" s="15"/>
+      <c r="C226" s="14">
+        <v>0</v>
+      </c>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4155,12 +4127,12 @@
       <c r="A227" s="12">
         <v>45491</v>
       </c>
-      <c r="B227" s="17"/>
-      <c r="C227" s="15">
-        <v>0</v>
-      </c>
-      <c r="D227" s="15"/>
-      <c r="E227" s="15">
+      <c r="B227" s="15"/>
+      <c r="C227" s="14">
+        <v>0</v>
+      </c>
+      <c r="D227" s="14"/>
+      <c r="E227" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4168,12 +4140,12 @@
       <c r="A228" s="12">
         <v>45492</v>
       </c>
-      <c r="B228" s="17"/>
-      <c r="C228" s="15">
-        <v>0</v>
-      </c>
-      <c r="D228" s="15"/>
-      <c r="E228" s="15">
+      <c r="B228" s="15"/>
+      <c r="C228" s="14">
+        <v>0</v>
+      </c>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4181,30 +4153,30 @@
       <c r="A229" s="12">
         <v>45493</v>
       </c>
-      <c r="B229" s="17"/>
-      <c r="C229" s="15"/>
-      <c r="D229" s="15"/>
-      <c r="E229" s="15"/>
+      <c r="B229" s="15"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
     </row>
     <row r="230" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="12">
         <v>45494</v>
       </c>
-      <c r="B230" s="17"/>
-      <c r="C230" s="15"/>
-      <c r="D230" s="15"/>
-      <c r="E230" s="15"/>
+      <c r="B230" s="15"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
     </row>
     <row r="231" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12">
         <v>45495</v>
       </c>
-      <c r="B231" s="17"/>
-      <c r="C231" s="15">
-        <v>0</v>
-      </c>
-      <c r="D231" s="15"/>
-      <c r="E231" s="15">
+      <c r="B231" s="15"/>
+      <c r="C231" s="14">
+        <v>0</v>
+      </c>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4212,12 +4184,12 @@
       <c r="A232" s="12">
         <v>45496</v>
       </c>
-      <c r="B232" s="17"/>
-      <c r="C232" s="15">
-        <v>0</v>
-      </c>
-      <c r="D232" s="15"/>
-      <c r="E232" s="15">
+      <c r="B232" s="15"/>
+      <c r="C232" s="14">
+        <v>0</v>
+      </c>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4225,12 +4197,12 @@
       <c r="A233" s="12">
         <v>45497</v>
       </c>
-      <c r="B233" s="17"/>
-      <c r="C233" s="15">
-        <v>0</v>
-      </c>
-      <c r="D233" s="15"/>
-      <c r="E233" s="15">
+      <c r="B233" s="15"/>
+      <c r="C233" s="14">
+        <v>0</v>
+      </c>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4238,12 +4210,12 @@
       <c r="A234" s="12">
         <v>45498</v>
       </c>
-      <c r="B234" s="17"/>
-      <c r="C234" s="15">
-        <v>0</v>
-      </c>
-      <c r="D234" s="15"/>
-      <c r="E234" s="15">
+      <c r="B234" s="15"/>
+      <c r="C234" s="14">
+        <v>0</v>
+      </c>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4251,12 +4223,12 @@
       <c r="A235" s="12">
         <v>45499</v>
       </c>
-      <c r="B235" s="17"/>
-      <c r="C235" s="15">
-        <v>0</v>
-      </c>
-      <c r="D235" s="15"/>
-      <c r="E235" s="15">
+      <c r="B235" s="15"/>
+      <c r="C235" s="14">
+        <v>0</v>
+      </c>
+      <c r="D235" s="14"/>
+      <c r="E235" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4264,34 +4236,34 @@
       <c r="A236" s="12">
         <v>45500</v>
       </c>
-      <c r="B236" s="17"/>
-      <c r="C236" s="15"/>
-      <c r="D236" s="15"/>
-      <c r="E236" s="15"/>
+      <c r="B236" s="15"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
     </row>
     <row r="237" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
         <v>45501</v>
       </c>
-      <c r="B237" s="17"/>
-      <c r="C237" s="15"/>
-      <c r="D237" s="15"/>
-      <c r="E237" s="15"/>
+      <c r="B237" s="15"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
     </row>
     <row r="238" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12">
         <v>45502</v>
       </c>
-      <c r="B238" s="17">
+      <c r="B238" s="15">
         <v>50</v>
       </c>
-      <c r="C238" s="15">
+      <c r="C238" s="14">
         <v>32</v>
       </c>
-      <c r="D238" s="15">
+      <c r="D238" s="14">
         <v>65</v>
       </c>
-      <c r="E238" s="15">
+      <c r="E238" s="14">
         <v>35</v>
       </c>
     </row>
@@ -4299,16 +4271,16 @@
       <c r="A239" s="12">
         <v>45503</v>
       </c>
-      <c r="B239" s="17">
+      <c r="B239" s="15">
         <v>50</v>
       </c>
-      <c r="C239" s="15">
+      <c r="C239" s="14">
         <v>32</v>
       </c>
-      <c r="D239" s="15">
+      <c r="D239" s="14">
         <v>65</v>
       </c>
-      <c r="E239" s="15">
+      <c r="E239" s="14">
         <v>40</v>
       </c>
     </row>
@@ -4316,16 +4288,16 @@
       <c r="A240" s="12">
         <v>45504</v>
       </c>
-      <c r="B240" s="17">
+      <c r="B240" s="15">
         <v>50</v>
       </c>
-      <c r="C240" s="15">
+      <c r="C240" s="14">
         <v>32</v>
       </c>
-      <c r="D240" s="15">
+      <c r="D240" s="14">
         <v>65</v>
       </c>
-      <c r="E240" s="15">
+      <c r="E240" s="14">
         <v>36</v>
       </c>
     </row>
@@ -4333,16 +4305,16 @@
       <c r="A241" s="11">
         <v>45505</v>
       </c>
-      <c r="B241" s="17">
+      <c r="B241" s="15">
         <v>50</v>
       </c>
-      <c r="C241" s="15">
+      <c r="C241" s="14">
         <v>30</v>
       </c>
-      <c r="D241" s="15">
+      <c r="D241" s="14">
         <v>65</v>
       </c>
-      <c r="E241" s="15">
+      <c r="E241" s="14">
         <v>32</v>
       </c>
     </row>
@@ -4350,16 +4322,16 @@
       <c r="A242" s="12">
         <v>45509</v>
       </c>
-      <c r="B242" s="17">
+      <c r="B242" s="15">
         <v>50</v>
       </c>
-      <c r="C242" s="15">
+      <c r="C242" s="14">
         <v>28</v>
       </c>
-      <c r="D242" s="15">
+      <c r="D242" s="14">
         <v>65</v>
       </c>
-      <c r="E242" s="15">
+      <c r="E242" s="14">
         <v>30</v>
       </c>
     </row>
@@ -4367,16 +4339,16 @@
       <c r="A243" s="12">
         <v>45510</v>
       </c>
-      <c r="B243" s="17">
+      <c r="B243" s="15">
         <v>50</v>
       </c>
-      <c r="C243" s="15">
+      <c r="C243" s="14">
         <v>30</v>
       </c>
-      <c r="D243" s="15">
+      <c r="D243" s="14">
         <v>58</v>
       </c>
-      <c r="E243" s="15">
+      <c r="E243" s="14">
         <v>33</v>
       </c>
     </row>
@@ -4384,16 +4356,16 @@
       <c r="A244" s="12">
         <v>45511</v>
       </c>
-      <c r="B244" s="17">
+      <c r="B244" s="15">
         <v>50</v>
       </c>
-      <c r="C244" s="15">
+      <c r="C244" s="14">
         <v>26</v>
       </c>
-      <c r="D244" s="15">
+      <c r="D244" s="14">
         <v>58</v>
       </c>
-      <c r="E244" s="15">
+      <c r="E244" s="14">
         <v>45</v>
       </c>
     </row>
@@ -4401,16 +4373,16 @@
       <c r="A245" s="12">
         <v>45512</v>
       </c>
-      <c r="B245" s="17">
+      <c r="B245" s="15">
         <v>50</v>
       </c>
-      <c r="C245" s="15">
+      <c r="C245" s="14">
         <v>23</v>
       </c>
-      <c r="D245" s="15">
+      <c r="D245" s="14">
         <v>58</v>
       </c>
-      <c r="E245" s="15">
+      <c r="E245" s="14">
         <v>32</v>
       </c>
     </row>
@@ -4418,16 +4390,16 @@
       <c r="A246" s="12">
         <v>45513</v>
       </c>
-      <c r="B246" s="17">
+      <c r="B246" s="15">
         <v>50</v>
       </c>
-      <c r="C246" s="15">
+      <c r="C246" s="14">
         <v>28</v>
       </c>
-      <c r="D246" s="15">
+      <c r="D246" s="14">
         <v>58</v>
       </c>
-      <c r="E246" s="15">
+      <c r="E246" s="14">
         <v>35</v>
       </c>
     </row>
@@ -4435,34 +4407,34 @@
       <c r="A247" s="12">
         <v>45514</v>
       </c>
-      <c r="B247" s="17"/>
-      <c r="C247" s="15"/>
-      <c r="D247" s="15"/>
-      <c r="E247" s="15"/>
+      <c r="B247" s="15"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
     </row>
     <row r="248" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="12">
         <v>45515</v>
       </c>
-      <c r="B248" s="17"/>
-      <c r="C248" s="15"/>
-      <c r="D248" s="15"/>
-      <c r="E248" s="15"/>
+      <c r="B248" s="15"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="14"/>
     </row>
     <row r="249" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="12">
         <v>45516</v>
       </c>
-      <c r="B249" s="17">
+      <c r="B249" s="15">
         <v>60</v>
       </c>
-      <c r="C249" s="15">
+      <c r="C249" s="14">
         <v>32</v>
       </c>
-      <c r="D249" s="15">
+      <c r="D249" s="14">
         <v>80</v>
       </c>
-      <c r="E249" s="15">
+      <c r="E249" s="14">
         <v>36</v>
       </c>
     </row>
@@ -4470,16 +4442,16 @@
       <c r="A250" s="12">
         <v>45517</v>
       </c>
-      <c r="B250" s="17">
+      <c r="B250" s="15">
         <v>60</v>
       </c>
-      <c r="C250" s="15">
+      <c r="C250" s="14">
         <v>29</v>
       </c>
-      <c r="D250" s="15">
+      <c r="D250" s="14">
         <v>80</v>
       </c>
-      <c r="E250" s="15">
+      <c r="E250" s="14">
         <v>28</v>
       </c>
     </row>
@@ -4487,16 +4459,16 @@
       <c r="A251" s="12">
         <v>45518</v>
       </c>
-      <c r="B251" s="17">
+      <c r="B251" s="15">
         <v>60</v>
       </c>
-      <c r="C251" s="15">
+      <c r="C251" s="14">
         <v>68</v>
       </c>
-      <c r="D251" s="15">
+      <c r="D251" s="14">
         <v>80</v>
       </c>
-      <c r="E251" s="15">
+      <c r="E251" s="14">
         <v>75</v>
       </c>
     </row>
@@ -4504,16 +4476,16 @@
       <c r="A252" s="12">
         <v>45519</v>
       </c>
-      <c r="B252" s="17">
+      <c r="B252" s="15">
         <v>60</v>
       </c>
-      <c r="C252" s="15">
+      <c r="C252" s="14">
         <v>75</v>
       </c>
-      <c r="D252" s="15">
+      <c r="D252" s="14">
         <v>80</v>
       </c>
-      <c r="E252" s="15">
+      <c r="E252" s="14">
         <v>78</v>
       </c>
     </row>
@@ -4521,16 +4493,16 @@
       <c r="A253" s="12">
         <v>45520</v>
       </c>
-      <c r="B253" s="17">
+      <c r="B253" s="15">
         <v>60</v>
       </c>
-      <c r="C253" s="15">
+      <c r="C253" s="14">
         <v>66</v>
       </c>
-      <c r="D253" s="15">
+      <c r="D253" s="14">
         <v>80</v>
       </c>
-      <c r="E253" s="15">
+      <c r="E253" s="14">
         <v>80</v>
       </c>
     </row>
@@ -4538,34 +4510,34 @@
       <c r="A254" s="12">
         <v>45521</v>
       </c>
-      <c r="B254" s="17"/>
-      <c r="C254" s="15"/>
-      <c r="D254" s="15"/>
-      <c r="E254" s="15"/>
+      <c r="B254" s="15"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="14"/>
     </row>
     <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="12">
         <v>45522</v>
       </c>
-      <c r="B255" s="17"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="15"/>
-      <c r="E255" s="15"/>
+      <c r="B255" s="15"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
     </row>
     <row r="256" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="12">
         <v>45523</v>
       </c>
-      <c r="B256" s="17">
+      <c r="B256" s="15">
         <v>350</v>
       </c>
-      <c r="C256" s="15">
+      <c r="C256" s="14">
         <v>301</v>
       </c>
-      <c r="D256" s="15">
-        <v>380</v>
-      </c>
-      <c r="E256" s="15">
+      <c r="D256" s="14">
+        <v>380</v>
+      </c>
+      <c r="E256" s="14">
         <f>C256-25</f>
         <v>276</v>
       </c>
@@ -4574,16 +4546,16 @@
       <c r="A257" s="12">
         <v>45524</v>
       </c>
-      <c r="B257" s="17">
+      <c r="B257" s="15">
         <v>350</v>
       </c>
-      <c r="C257" s="15">
+      <c r="C257" s="14">
         <v>323</v>
       </c>
-      <c r="D257" s="15">
-        <v>380</v>
-      </c>
-      <c r="E257" s="15">
+      <c r="D257" s="14">
+        <v>380</v>
+      </c>
+      <c r="E257" s="14">
         <f>C257-25</f>
         <v>298</v>
       </c>
@@ -4592,16 +4564,16 @@
       <c r="A258" s="12">
         <v>45525</v>
       </c>
-      <c r="B258" s="17">
+      <c r="B258" s="15">
         <v>350</v>
       </c>
-      <c r="C258" s="15">
+      <c r="C258" s="14">
         <v>330</v>
       </c>
-      <c r="D258" s="15">
-        <v>380</v>
-      </c>
-      <c r="E258" s="15">
+      <c r="D258" s="14">
+        <v>380</v>
+      </c>
+      <c r="E258" s="14">
         <f>C258-25</f>
         <v>305</v>
       </c>
@@ -4610,16 +4582,16 @@
       <c r="A259" s="12">
         <v>45526</v>
       </c>
-      <c r="B259" s="17">
+      <c r="B259" s="15">
         <v>350</v>
       </c>
-      <c r="C259" s="15">
+      <c r="C259" s="14">
         <v>358</v>
       </c>
-      <c r="D259" s="15">
-        <v>380</v>
-      </c>
-      <c r="E259" s="15">
+      <c r="D259" s="14">
+        <v>380</v>
+      </c>
+      <c r="E259" s="14">
         <f>C259-25</f>
         <v>333</v>
       </c>
@@ -4628,16 +4600,16 @@
       <c r="A260" s="12">
         <v>45527</v>
       </c>
-      <c r="B260" s="17">
+      <c r="B260" s="15">
         <v>350</v>
       </c>
-      <c r="C260" s="15">
+      <c r="C260" s="14">
         <v>365</v>
       </c>
-      <c r="D260" s="15">
-        <v>380</v>
-      </c>
-      <c r="E260" s="15">
+      <c r="D260" s="14">
+        <v>380</v>
+      </c>
+      <c r="E260" s="14">
         <f>C260-25</f>
         <v>340</v>
       </c>
@@ -4646,34 +4618,34 @@
       <c r="A261" s="12">
         <v>45528</v>
       </c>
-      <c r="B261" s="17"/>
-      <c r="C261" s="15"/>
-      <c r="D261" s="15"/>
-      <c r="E261" s="15"/>
+      <c r="B261" s="15"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
     </row>
     <row r="262" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="12">
         <v>45529</v>
       </c>
-      <c r="B262" s="17"/>
-      <c r="C262" s="15"/>
-      <c r="D262" s="15"/>
-      <c r="E262" s="15"/>
+      <c r="B262" s="15"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
     </row>
     <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="12">
         <v>45530</v>
       </c>
-      <c r="B263" s="17">
+      <c r="B263" s="15">
         <v>376</v>
       </c>
-      <c r="C263" s="15">
+      <c r="C263" s="14">
         <v>366</v>
       </c>
-      <c r="D263" s="15">
-        <v>380</v>
-      </c>
-      <c r="E263" s="15">
+      <c r="D263" s="14">
+        <v>380</v>
+      </c>
+      <c r="E263" s="14">
         <f>C263-25</f>
         <v>341</v>
       </c>
@@ -4682,16 +4654,16 @@
       <c r="A264" s="12">
         <v>45531</v>
       </c>
-      <c r="B264" s="17">
+      <c r="B264" s="15">
         <v>376</v>
       </c>
-      <c r="C264" s="15">
+      <c r="C264" s="14">
         <v>389</v>
       </c>
-      <c r="D264" s="15">
-        <v>380</v>
-      </c>
-      <c r="E264" s="15">
+      <c r="D264" s="14">
+        <v>380</v>
+      </c>
+      <c r="E264" s="14">
         <f>C264-25</f>
         <v>364</v>
       </c>
@@ -4700,16 +4672,16 @@
       <c r="A265" s="12">
         <v>45532</v>
       </c>
-      <c r="B265" s="17">
+      <c r="B265" s="15">
         <v>376</v>
       </c>
-      <c r="C265" s="15">
+      <c r="C265" s="14">
         <v>365</v>
       </c>
-      <c r="D265" s="15">
-        <v>380</v>
-      </c>
-      <c r="E265" s="15">
+      <c r="D265" s="14">
+        <v>380</v>
+      </c>
+      <c r="E265" s="14">
         <f>C265-25</f>
         <v>340</v>
       </c>
@@ -4718,16 +4690,16 @@
       <c r="A266" s="12">
         <v>45533</v>
       </c>
-      <c r="B266" s="17">
+      <c r="B266" s="15">
         <v>376</v>
       </c>
-      <c r="C266" s="15">
+      <c r="C266" s="14">
         <v>367</v>
       </c>
-      <c r="D266" s="15">
-        <v>380</v>
-      </c>
-      <c r="E266" s="15">
+      <c r="D266" s="14">
+        <v>380</v>
+      </c>
+      <c r="E266" s="14">
         <f>C266-25</f>
         <v>342</v>
       </c>
@@ -4736,16 +4708,16 @@
       <c r="A267" s="12">
         <v>45534</v>
       </c>
-      <c r="B267" s="17">
+      <c r="B267" s="15">
         <v>376</v>
       </c>
-      <c r="C267" s="15">
+      <c r="C267" s="14">
         <v>330</v>
       </c>
-      <c r="D267" s="15">
-        <v>380</v>
-      </c>
-      <c r="E267" s="15">
+      <c r="D267" s="14">
+        <v>380</v>
+      </c>
+      <c r="E267" s="14">
         <f>C267-25</f>
         <v>305</v>
       </c>
@@ -4754,34 +4726,34 @@
       <c r="A268" s="12">
         <v>45535</v>
       </c>
-      <c r="B268" s="17"/>
-      <c r="C268" s="15"/>
-      <c r="D268" s="15"/>
-      <c r="E268" s="15"/>
+      <c r="B268" s="15"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="12">
         <v>45536</v>
       </c>
-      <c r="B269" s="17"/>
-      <c r="C269" s="15"/>
-      <c r="D269" s="15"/>
-      <c r="E269" s="15"/>
+      <c r="B269" s="15"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="14"/>
     </row>
     <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="12">
         <v>45537</v>
       </c>
-      <c r="B270" s="19">
-        <v>380</v>
-      </c>
-      <c r="C270" s="20">
+      <c r="B270" s="15">
+        <v>380</v>
+      </c>
+      <c r="C270" s="14">
         <v>360</v>
       </c>
-      <c r="D270" s="20">
+      <c r="D270" s="14">
         <v>365</v>
       </c>
-      <c r="E270" s="20">
+      <c r="E270" s="14">
         <v>335</v>
       </c>
     </row>
@@ -4789,16 +4761,16 @@
       <c r="A271" s="12">
         <v>45538</v>
       </c>
-      <c r="B271" s="17">
-        <v>380</v>
-      </c>
-      <c r="C271" s="15">
+      <c r="B271" s="15">
+        <v>380</v>
+      </c>
+      <c r="C271" s="14">
         <v>375</v>
       </c>
-      <c r="D271" s="15">
+      <c r="D271" s="14">
         <v>365</v>
       </c>
-      <c r="E271" s="15">
+      <c r="E271" s="14">
         <v>315</v>
       </c>
     </row>
@@ -4806,16 +4778,16 @@
       <c r="A272" s="12">
         <v>45539</v>
       </c>
-      <c r="B272" s="17">
-        <v>380</v>
-      </c>
-      <c r="C272" s="15">
-        <v>380</v>
-      </c>
-      <c r="D272" s="15">
+      <c r="B272" s="15">
+        <v>380</v>
+      </c>
+      <c r="C272" s="14">
+        <v>380</v>
+      </c>
+      <c r="D272" s="14">
         <v>365</v>
       </c>
-      <c r="E272" s="15">
+      <c r="E272" s="14">
         <v>327</v>
       </c>
     </row>
@@ -4823,16 +4795,16 @@
       <c r="A273" s="12">
         <v>45540</v>
       </c>
-      <c r="B273" s="17">
-        <v>380</v>
-      </c>
-      <c r="C273" s="15">
+      <c r="B273" s="15">
+        <v>380</v>
+      </c>
+      <c r="C273" s="14">
         <v>389</v>
       </c>
-      <c r="D273" s="15">
+      <c r="D273" s="14">
         <v>365</v>
       </c>
-      <c r="E273" s="15">
+      <c r="E273" s="14">
         <v>325</v>
       </c>
     </row>
@@ -4840,16 +4812,16 @@
       <c r="A274" s="12">
         <v>45541</v>
       </c>
-      <c r="B274" s="17">
-        <v>380</v>
-      </c>
-      <c r="C274" s="15">
+      <c r="B274" s="15">
+        <v>380</v>
+      </c>
+      <c r="C274" s="14">
         <v>379</v>
       </c>
-      <c r="D274" s="15">
+      <c r="D274" s="14">
         <v>365</v>
       </c>
-      <c r="E274" s="15">
+      <c r="E274" s="14">
         <v>307</v>
       </c>
     </row>
@@ -4857,34 +4829,34 @@
       <c r="A275" s="12">
         <v>45542</v>
       </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="15"/>
-      <c r="D275" s="15"/>
-      <c r="E275" s="15"/>
+      <c r="B275" s="15"/>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
     </row>
     <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="12">
         <v>45543</v>
       </c>
-      <c r="B276" s="17"/>
-      <c r="C276" s="15"/>
-      <c r="D276" s="15"/>
-      <c r="E276" s="15"/>
+      <c r="B276" s="15"/>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="12">
         <v>45544</v>
       </c>
-      <c r="B277" s="17">
-        <v>380</v>
-      </c>
-      <c r="C277" s="15">
-        <v>380</v>
-      </c>
-      <c r="D277" s="15">
+      <c r="B277" s="15">
+        <v>380</v>
+      </c>
+      <c r="C277" s="14">
+        <v>380</v>
+      </c>
+      <c r="D277" s="14">
         <v>384</v>
       </c>
-      <c r="E277" s="15">
+      <c r="E277" s="14">
         <v>341</v>
       </c>
     </row>
@@ -4892,16 +4864,16 @@
       <c r="A278" s="12">
         <v>45545</v>
       </c>
-      <c r="B278" s="17">
-        <v>380</v>
-      </c>
-      <c r="C278" s="15">
+      <c r="B278" s="15">
+        <v>380</v>
+      </c>
+      <c r="C278" s="14">
         <v>377</v>
       </c>
-      <c r="D278" s="15">
+      <c r="D278" s="14">
         <v>384</v>
       </c>
-      <c r="E278" s="15">
+      <c r="E278" s="14">
         <v>338</v>
       </c>
     </row>
@@ -4909,16 +4881,16 @@
       <c r="A279" s="12">
         <v>45546</v>
       </c>
-      <c r="B279" s="17">
-        <v>380</v>
-      </c>
-      <c r="C279" s="15">
+      <c r="B279" s="15">
+        <v>380</v>
+      </c>
+      <c r="C279" s="14">
         <v>388</v>
       </c>
-      <c r="D279" s="15">
+      <c r="D279" s="14">
         <v>384</v>
       </c>
-      <c r="E279" s="15">
+      <c r="E279" s="14">
         <v>345</v>
       </c>
     </row>
@@ -4926,16 +4898,16 @@
       <c r="A280" s="12">
         <v>45547</v>
       </c>
-      <c r="B280" s="17">
-        <v>380</v>
-      </c>
-      <c r="C280" s="15">
-        <v>380</v>
-      </c>
-      <c r="D280" s="15">
+      <c r="B280" s="15">
+        <v>380</v>
+      </c>
+      <c r="C280" s="14">
+        <v>380</v>
+      </c>
+      <c r="D280" s="14">
         <v>384</v>
       </c>
-      <c r="E280" s="15">
+      <c r="E280" s="14">
         <v>332</v>
       </c>
     </row>
@@ -4943,16 +4915,16 @@
       <c r="A281" s="12">
         <v>45548</v>
       </c>
-      <c r="B281" s="17">
-        <v>380</v>
-      </c>
-      <c r="C281" s="15">
+      <c r="B281" s="15">
+        <v>380</v>
+      </c>
+      <c r="C281" s="14">
         <v>375</v>
       </c>
-      <c r="D281" s="15">
+      <c r="D281" s="14">
         <v>384</v>
       </c>
-      <c r="E281" s="15">
+      <c r="E281" s="14">
         <v>309</v>
       </c>
     </row>
@@ -4960,34 +4932,34 @@
       <c r="A282" s="12">
         <v>45549</v>
       </c>
-      <c r="B282" s="17"/>
-      <c r="C282" s="15"/>
-      <c r="D282" s="15"/>
-      <c r="E282" s="15"/>
+      <c r="B282" s="15"/>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="14"/>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="12">
         <v>45550</v>
       </c>
-      <c r="B283" s="17"/>
-      <c r="C283" s="15"/>
-      <c r="D283" s="15"/>
-      <c r="E283" s="15"/>
+      <c r="B283" s="15"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="14"/>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="12">
         <v>45551</v>
       </c>
-      <c r="B284" s="17">
+      <c r="B284" s="15">
         <v>400</v>
       </c>
-      <c r="C284" s="15">
+      <c r="C284" s="14">
         <v>384</v>
       </c>
-      <c r="D284" s="15">
+      <c r="D284" s="14">
         <v>400</v>
       </c>
-      <c r="E284" s="15">
+      <c r="E284" s="14">
         <v>301</v>
       </c>
     </row>
@@ -4995,16 +4967,16 @@
       <c r="A285" s="12">
         <v>45552</v>
       </c>
-      <c r="B285" s="17">
+      <c r="B285" s="15">
         <v>400</v>
       </c>
-      <c r="C285" s="15">
+      <c r="C285" s="14">
         <v>387</v>
       </c>
-      <c r="D285" s="15">
+      <c r="D285" s="14">
         <v>400</v>
       </c>
-      <c r="E285" s="15">
+      <c r="E285" s="14">
         <v>334</v>
       </c>
     </row>
@@ -5012,16 +4984,16 @@
       <c r="A286" s="12">
         <v>45553</v>
       </c>
-      <c r="B286" s="17">
+      <c r="B286" s="15">
         <v>400</v>
       </c>
-      <c r="C286" s="15">
+      <c r="C286" s="14">
         <v>394</v>
       </c>
-      <c r="D286" s="15">
+      <c r="D286" s="14">
         <v>400</v>
       </c>
-      <c r="E286" s="15">
+      <c r="E286" s="14">
         <v>340</v>
       </c>
     </row>
@@ -5029,16 +5001,16 @@
       <c r="A287" s="12">
         <v>45554</v>
       </c>
-      <c r="B287" s="17">
+      <c r="B287" s="15">
         <v>400</v>
       </c>
-      <c r="C287" s="15">
+      <c r="C287" s="14">
         <v>382</v>
       </c>
-      <c r="D287" s="15">
+      <c r="D287" s="14">
         <v>400</v>
       </c>
-      <c r="E287" s="15">
+      <c r="E287" s="14">
         <v>318</v>
       </c>
     </row>
@@ -5046,16 +5018,16 @@
       <c r="A288" s="12">
         <v>45555</v>
       </c>
-      <c r="B288" s="17">
+      <c r="B288" s="15">
         <v>400</v>
       </c>
-      <c r="C288" s="15">
-        <v>380</v>
-      </c>
-      <c r="D288" s="15">
+      <c r="C288" s="14">
+        <v>380</v>
+      </c>
+      <c r="D288" s="14">
         <v>400</v>
       </c>
-      <c r="E288" s="15">
+      <c r="E288" s="14">
         <v>311</v>
       </c>
     </row>
@@ -5063,34 +5035,34 @@
       <c r="A289" s="12">
         <v>45556</v>
       </c>
-      <c r="B289" s="17"/>
-      <c r="C289" s="15"/>
-      <c r="D289" s="15"/>
-      <c r="E289" s="15"/>
+      <c r="B289" s="15"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="12">
         <v>45557</v>
       </c>
-      <c r="B290" s="17"/>
-      <c r="C290" s="15"/>
-      <c r="D290" s="15"/>
-      <c r="E290" s="15"/>
+      <c r="B290" s="15"/>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="14"/>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="12">
         <v>45558</v>
       </c>
-      <c r="B291" s="17">
+      <c r="B291" s="15">
         <v>400</v>
       </c>
-      <c r="C291" s="15">
+      <c r="C291" s="14">
         <v>389</v>
       </c>
-      <c r="D291" s="15">
+      <c r="D291" s="14">
         <v>405</v>
       </c>
-      <c r="E291" s="15">
+      <c r="E291" s="14">
         <v>321</v>
       </c>
     </row>
@@ -5098,16 +5070,16 @@
       <c r="A292" s="12">
         <v>45559</v>
       </c>
-      <c r="B292" s="17">
+      <c r="B292" s="15">
         <v>400</v>
       </c>
-      <c r="C292" s="15">
+      <c r="C292" s="14">
         <v>391</v>
       </c>
-      <c r="D292" s="15">
+      <c r="D292" s="14">
         <v>405</v>
       </c>
-      <c r="E292" s="15">
+      <c r="E292" s="14">
         <v>319</v>
       </c>
     </row>
@@ -5115,16 +5087,16 @@
       <c r="A293" s="12">
         <v>45560</v>
       </c>
-      <c r="B293" s="17">
+      <c r="B293" s="15">
         <v>400</v>
       </c>
-      <c r="C293" s="15">
+      <c r="C293" s="14">
         <v>390</v>
       </c>
-      <c r="D293" s="15">
+      <c r="D293" s="14">
         <v>405</v>
       </c>
-      <c r="E293" s="15">
+      <c r="E293" s="14">
         <v>324</v>
       </c>
     </row>
@@ -5132,16 +5104,16 @@
       <c r="A294" s="12">
         <v>45561</v>
       </c>
-      <c r="B294" s="17">
+      <c r="B294" s="15">
         <v>400</v>
       </c>
-      <c r="C294" s="15">
+      <c r="C294" s="14">
         <v>385</v>
       </c>
-      <c r="D294" s="15">
+      <c r="D294" s="14">
         <v>405</v>
       </c>
-      <c r="E294" s="15">
+      <c r="E294" s="14">
         <v>313</v>
       </c>
     </row>
@@ -5149,16 +5121,16 @@
       <c r="A295" s="12">
         <v>45562</v>
       </c>
-      <c r="B295" s="17">
+      <c r="B295" s="15">
         <v>400</v>
       </c>
-      <c r="C295" s="15">
-        <v>380</v>
-      </c>
-      <c r="D295" s="15">
+      <c r="C295" s="14">
+        <v>380</v>
+      </c>
+      <c r="D295" s="14">
         <v>405</v>
       </c>
-      <c r="E295" s="15">
+      <c r="E295" s="14">
         <v>324</v>
       </c>
     </row>
@@ -5166,34 +5138,34 @@
       <c r="A296" s="12">
         <v>45563</v>
       </c>
-      <c r="B296" s="17"/>
-      <c r="C296" s="15"/>
-      <c r="D296" s="15"/>
-      <c r="E296" s="15"/>
+      <c r="B296" s="15"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="12">
         <v>45564</v>
       </c>
-      <c r="B297" s="17"/>
-      <c r="C297" s="15"/>
-      <c r="D297" s="15"/>
-      <c r="E297" s="15"/>
+      <c r="B297" s="15"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
     </row>
     <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="12">
         <v>45565</v>
       </c>
-      <c r="B298" s="17">
-        <v>380</v>
-      </c>
-      <c r="C298" s="15">
+      <c r="B298" s="15">
+        <v>380</v>
+      </c>
+      <c r="C298" s="14">
         <v>375</v>
       </c>
-      <c r="D298" s="15">
+      <c r="D298" s="14">
         <v>390</v>
       </c>
-      <c r="E298" s="15">
+      <c r="E298" s="14">
         <v>324</v>
       </c>
     </row>
@@ -5201,16 +5173,16 @@
       <c r="A299" s="12">
         <v>45566</v>
       </c>
-      <c r="B299" s="17">
-        <v>380</v>
-      </c>
-      <c r="C299" s="15">
+      <c r="B299" s="15">
+        <v>380</v>
+      </c>
+      <c r="C299" s="14">
         <v>385</v>
       </c>
-      <c r="D299" s="15">
+      <c r="D299" s="14">
         <v>390</v>
       </c>
-      <c r="E299" s="15">
+      <c r="E299" s="14">
         <v>333</v>
       </c>
     </row>
@@ -5218,16 +5190,16 @@
       <c r="A300" s="12">
         <v>45567</v>
       </c>
-      <c r="B300" s="17">
-        <v>380</v>
-      </c>
-      <c r="C300" s="15">
-        <v>380</v>
-      </c>
-      <c r="D300" s="15">
+      <c r="B300" s="15">
+        <v>380</v>
+      </c>
+      <c r="C300" s="14">
+        <v>380</v>
+      </c>
+      <c r="D300" s="14">
         <v>390</v>
       </c>
-      <c r="E300" s="15">
+      <c r="E300" s="14">
         <v>317</v>
       </c>
     </row>
@@ -5235,16 +5207,16 @@
       <c r="A301" s="12">
         <v>45568</v>
       </c>
-      <c r="B301" s="17">
-        <v>380</v>
-      </c>
-      <c r="C301" s="15">
+      <c r="B301" s="15">
+        <v>380</v>
+      </c>
+      <c r="C301" s="14">
         <v>384</v>
       </c>
-      <c r="D301" s="15">
+      <c r="D301" s="14">
         <v>390</v>
       </c>
-      <c r="E301" s="15">
+      <c r="E301" s="14">
         <v>324</v>
       </c>
     </row>
@@ -5252,16 +5224,16 @@
       <c r="A302" s="12">
         <v>45569</v>
       </c>
-      <c r="B302" s="17">
-        <v>380</v>
-      </c>
-      <c r="C302" s="15">
+      <c r="B302" s="15">
+        <v>380</v>
+      </c>
+      <c r="C302" s="14">
         <v>381</v>
       </c>
-      <c r="D302" s="15">
+      <c r="D302" s="14">
         <v>390</v>
       </c>
-      <c r="E302" s="15">
+      <c r="E302" s="14">
         <v>300</v>
       </c>
     </row>
@@ -5269,34 +5241,34 @@
       <c r="A303" s="12">
         <v>45570</v>
       </c>
-      <c r="B303" s="17"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="15"/>
-      <c r="E303" s="15"/>
+      <c r="B303" s="15"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14"/>
     </row>
     <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="12">
         <v>45571</v>
       </c>
-      <c r="B304" s="17"/>
-      <c r="C304" s="15"/>
-      <c r="D304" s="15"/>
-      <c r="E304" s="15"/>
+      <c r="B304" s="15"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="14"/>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="12">
         <v>45572</v>
       </c>
-      <c r="B305" s="17">
-        <v>380</v>
-      </c>
-      <c r="C305" s="15">
+      <c r="B305" s="15">
+        <v>380</v>
+      </c>
+      <c r="C305" s="14">
         <v>378</v>
       </c>
-      <c r="D305" s="15">
+      <c r="D305" s="14">
         <v>384</v>
       </c>
-      <c r="E305" s="15">
+      <c r="E305" s="14">
         <v>320</v>
       </c>
     </row>
